--- a/COMP300-HomeworkProblems-SP20.xlsx
+++ b/COMP300-HomeworkProblems-SP20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Channah\Documents\LUC\COMP300\Homework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benlo\DataMining2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EF4C6CF-D8AC-426C-AF56-1543384E8291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC1A216-69F9-4FD4-85DB-6F5174D35901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW Index" sheetId="38" r:id="rId1"/>
@@ -33,6 +33,22 @@
     <sheet name="HW, Chapter 10" sheetId="36" r:id="rId18"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Problem 2.2'!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Problem 2.2'!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Problem 2.2'!$M$11:$M$15</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Problem 2.2'!$L$11:$L$15</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Problem 2.2'!$M$11:$M$15</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Problem 2.2'!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Problem 2.2'!$L$11:$L$15</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Problem 2.2'!$M$11:$M$15</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Problem 2.2'!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Problem 2.2'!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Problem 2.2'!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Problem 2.2'!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Problem 2.2'!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Problem 2.2'!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Problem 2.2'!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Problem 2.2'!$L$11:$L$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Problem 4.3'!$A$1:$M$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -50,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="415">
   <si>
     <t>Mean</t>
   </si>
@@ -1387,6 +1403,63 @@
   </si>
   <si>
     <t>Chapter 8</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>the data is unimodal, since 37 has the highest number of instances at 4</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Midrange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d </t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3 </t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Count of instances</t>
+  </si>
+  <si>
+    <t>cumulative contribution</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>A quantile plot is comparing one variable against percentage to determine which observation corresponds with which quantile. A quantile quantile plot compares the quantiles of one distribution against the quantiles of a second. It is useful in determining quickly if distributions seem correlated</t>
   </si>
 </sst>
 </file>
@@ -1699,7 +1772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1818,14 +1891,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2416,7 +2493,737 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>F Boxplot on Age </cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>F Boxplot on Age </a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{D43830FB-4DB9-44C3-A62F-C2A5B0BE426E}">
+          <cx:dataLabels pos="r">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Age</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Age</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53135367-AEAF-45CB-8DC3-7A9A7544C2E2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10801350" y="304799"/>
+              <a:ext cx="4210050" cy="6572251"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2474,22 +3281,22 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2545,7 +3352,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2664,7 +3471,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3042,37 +3849,37 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>216</v>
       </c>
@@ -3080,7 +3887,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>217</v>
       </c>
@@ -3088,7 +3895,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>218</v>
       </c>
@@ -3099,7 +3906,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>219</v>
       </c>
@@ -3107,7 +3914,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>395</v>
       </c>
@@ -3115,7 +3922,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>222</v>
       </c>
@@ -3126,7 +3933,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>223</v>
       </c>
@@ -3137,12 +3944,12 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>328</v>
       </c>
@@ -3161,27 +3968,27 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -3192,7 +3999,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -3203,7 +4010,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -3211,7 +4018,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -3219,7 +4026,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -3227,30 +4034,30 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="28"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>41</v>
       </c>
@@ -3258,7 +4065,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>41</v>
       </c>
@@ -3266,7 +4073,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>41</v>
       </c>
@@ -3274,13 +4081,13 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" t="s">
         <v>271</v>
@@ -3299,14 +4106,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>284</v>
       </c>
@@ -3314,7 +4121,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D4" s="4" t="s">
         <v>279</v>
       </c>
@@ -3322,7 +4129,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>281</v>
       </c>
@@ -3333,7 +4140,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
         <v>282</v>
       </c>
@@ -3344,7 +4151,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>41</v>
       </c>
@@ -3352,32 +4159,32 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>41</v>
       </c>
@@ -3385,87 +4192,87 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D25" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="36" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="37" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>298</v>
       </c>
@@ -3473,7 +4280,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="37" t="s">
         <v>298</v>
       </c>
@@ -3481,22 +4288,22 @@
         <v>305</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="37" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="37" t="s">
         <v>302</v>
       </c>
@@ -3515,93 +4322,93 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="8.08984375" customWidth="1"/>
-    <col min="8" max="8" width="13.08984375" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>337</v>
       </c>
@@ -3609,17 +4416,17 @@
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>341</v>
       </c>
@@ -3628,25 +4435,25 @@
         <v>0.94028595867063092</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>345</v>
       </c>
@@ -3672,7 +4479,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>352</v>
       </c>
@@ -3700,7 +4507,7 @@
         <v>0.34676806944809591</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>353</v>
       </c>
@@ -3728,7 +4535,7 @@
         <v>1.8038211903008242E-7</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
         <v>354</v>
       </c>
@@ -3753,7 +4560,7 @@
         <v>0.34676806944809591</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="45" t="s">
         <v>355</v>
       </c>
@@ -3764,7 +4571,7 @@
       <c r="F39" s="34"/>
       <c r="G39" s="34"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
@@ -3773,7 +4580,7 @@
       <c r="F40" s="34"/>
       <c r="G40" s="34"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -3782,19 +4589,19 @@
         <v>0.69353631927831083</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
         <v>357</v>
       </c>
@@ -3805,13 +4612,13 @@
         <v>0.24674963939232009</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>358</v>
       </c>
@@ -3819,7 +4626,7 @@
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>359</v>
       </c>
@@ -3827,12 +4634,12 @@
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>361</v>
       </c>
@@ -3858,7 +4665,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>362</v>
       </c>
@@ -3886,7 +4693,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>363</v>
       </c>
@@ -3914,7 +4721,7 @@
         <v>0.39355535745192405</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
         <v>364</v>
       </c>
@@ -3942,7 +4749,7 @@
         <v>0.23179374984546652</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="45"/>
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
@@ -3951,7 +4758,7 @@
       <c r="F53" s="34"/>
       <c r="G53" s="34"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="45"/>
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
@@ -3960,7 +4767,7 @@
       <c r="F54" s="34"/>
       <c r="G54" s="34"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="C55" s="34"/>
       <c r="D55" s="34"/>
@@ -3969,19 +4776,19 @@
         <v>0.91106339301167627</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="C56" s="34"/>
       <c r="D56" s="34"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="46" t="s">
         <v>365</v>
       </c>
@@ -3996,19 +4803,19 @@
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
         <v>366</v>
       </c>
@@ -4016,13 +4823,13 @@
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>361</v>
       </c>
@@ -4045,7 +4852,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>362</v>
       </c>
@@ -4071,7 +4878,7 @@
         <v>-0.51638712058788683</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
         <v>363</v>
       </c>
@@ -4097,7 +4904,7 @@
         <v>-0.52388246628704915</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="44" t="s">
         <v>364</v>
       </c>
@@ -4123,7 +4930,7 @@
         <v>-0.51638712058788683</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
@@ -4133,7 +4940,7 @@
         <v>-1.5566567074628228</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -4147,13 +4954,13 @@
         <v>1.5566567074628228</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
         <v>149</v>
       </c>
@@ -4161,13 +4968,13 @@
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="59" t="s">
         <v>370</v>
       </c>
@@ -4180,7 +4987,7 @@
         <v>1.8772646222418671E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
@@ -4203,15 +5010,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>50800</xdr:colOff>
+                <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>16</xdr:col>
-                <xdr:colOff>69850</xdr:colOff>
+                <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4233,14 +5040,14 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>307</v>
       </c>
@@ -4248,7 +5055,7 @@
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>308</v>
       </c>
@@ -4256,130 +5063,130 @@
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>321</v>
       </c>
@@ -4387,17 +5194,17 @@
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
         <v>149</v>
       </c>
@@ -4419,18 +5226,18 @@
       <selection activeCell="I86" sqref="I85:I86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="2.81640625" customWidth="1"/>
-    <col min="11" max="11" width="3.81640625" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -4438,12 +5245,12 @@
         <v>372</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
         <v>373</v>
       </c>
@@ -4454,7 +5261,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
         <v>382</v>
       </c>
@@ -4465,7 +5272,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L6" s="14" t="s">
         <v>138</v>
       </c>
@@ -4494,7 +5301,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>138</v>
       </c>
@@ -4552,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>1</v>
       </c>
@@ -4612,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="49">
         <v>2</v>
       </c>
@@ -4672,7 +5479,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="49">
         <v>3</v>
       </c>
@@ -4732,7 +5539,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="49">
         <v>4</v>
       </c>
@@ -4792,7 +5599,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="49">
         <v>5</v>
       </c>
@@ -4852,7 +5659,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="49">
         <v>6</v>
       </c>
@@ -4912,7 +5719,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="49">
         <v>7</v>
       </c>
@@ -4972,7 +5779,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="49">
         <v>8</v>
       </c>
@@ -5032,7 +5839,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="49">
         <v>9</v>
       </c>
@@ -5092,7 +5899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="49">
         <v>10</v>
       </c>
@@ -5123,12 +5930,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>145</v>
       </c>
@@ -5142,7 +5949,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52">
         <v>0</v>
       </c>
@@ -5156,7 +5963,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>0.2</v>
       </c>
@@ -5170,7 +5977,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>0.2</v>
       </c>
@@ -5184,7 +5991,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>0.2</v>
       </c>
@@ -5198,7 +6005,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>0.4</v>
       </c>
@@ -5212,7 +6019,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>0.4</v>
       </c>
@@ -5226,7 +6033,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>0.6</v>
       </c>
@@ -5240,7 +6047,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>0.8</v>
       </c>
@@ -5254,7 +6061,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>1</v>
       </c>
@@ -5268,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>1</v>
       </c>
@@ -5282,15 +6089,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>138</v>
       </c>
@@ -5319,7 +6126,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>1</v>
       </c>
@@ -5336,7 +6143,7 @@
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="49">
         <v>2</v>
       </c>
@@ -5353,7 +6160,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="49">
         <v>3</v>
       </c>
@@ -5370,7 +6177,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="49">
         <v>4</v>
       </c>
@@ -5387,7 +6194,7 @@
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="49">
         <v>5</v>
       </c>
@@ -5404,7 +6211,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="49">
         <v>6</v>
       </c>
@@ -5421,7 +6228,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="49">
         <v>7</v>
       </c>
@@ -5438,7 +6245,7 @@
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="49">
         <v>8</v>
       </c>
@@ -5455,7 +6262,7 @@
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="49">
         <v>9</v>
       </c>
@@ -5472,7 +6279,7 @@
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="49">
         <v>10</v>
       </c>
@@ -5489,7 +6296,7 @@
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="55" t="s">
         <v>376</v>
       </c>
@@ -5503,12 +6310,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>138</v>
       </c>
@@ -5537,7 +6344,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
         <v>1</v>
       </c>
@@ -5568,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="49">
         <v>2</v>
       </c>
@@ -5599,7 +6406,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="49">
         <v>3</v>
       </c>
@@ -5630,7 +6437,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="49">
         <v>4</v>
       </c>
@@ -5661,7 +6468,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="49">
         <v>5</v>
       </c>
@@ -5692,7 +6499,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="49">
         <v>6</v>
       </c>
@@ -5723,7 +6530,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="49">
         <v>7</v>
       </c>
@@ -5754,7 +6561,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="49">
         <v>8</v>
       </c>
@@ -5785,7 +6592,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="49">
         <v>9</v>
       </c>
@@ -5816,7 +6623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="49">
         <v>10</v>
       </c>
@@ -5847,7 +6654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
         <v>145</v>
       </c>
@@ -5855,7 +6662,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A68" s="54">
         <v>0</v>
       </c>
@@ -5863,7 +6670,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="54">
         <v>0.2</v>
       </c>
@@ -5871,7 +6678,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="54">
         <v>0.2</v>
       </c>
@@ -5879,7 +6686,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="54">
         <v>0.4</v>
       </c>
@@ -5887,7 +6694,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="54">
         <v>0.6</v>
       </c>
@@ -5895,7 +6702,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="54">
         <v>0.8</v>
       </c>
@@ -5903,7 +6710,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="54">
         <v>0.8</v>
       </c>
@@ -5911,7 +6718,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="54">
         <v>0.8</v>
       </c>
@@ -5919,7 +6726,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="54">
         <v>1</v>
       </c>
@@ -5927,7 +6734,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="54">
         <v>1</v>
       </c>
@@ -5950,34 +6757,34 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>138</v>
       </c>
@@ -6006,7 +6813,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>1</v>
       </c>
@@ -6023,7 +6830,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
         <v>2</v>
       </c>
@@ -6040,7 +6847,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
         <v>3</v>
       </c>
@@ -6057,7 +6864,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
         <v>4</v>
       </c>
@@ -6074,7 +6881,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>5</v>
       </c>
@@ -6091,7 +6898,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>6</v>
       </c>
@@ -6108,7 +6915,7 @@
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
         <v>7</v>
       </c>
@@ -6125,7 +6932,7 @@
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
         <v>8</v>
       </c>
@@ -6142,7 +6949,7 @@
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
         <v>9</v>
       </c>
@@ -6159,7 +6966,7 @@
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
         <v>10</v>
       </c>
@@ -6190,74 +6997,74 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.81640625" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" customWidth="1"/>
-    <col min="6" max="6" width="6.54296875" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" customWidth="1"/>
-    <col min="8" max="11" width="5.81640625" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="11" width="5.85546875" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
-    <col min="13" max="15" width="5.81640625" customWidth="1"/>
+    <col min="13" max="15" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
     </row>
-    <row r="8" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="26" t="s">
         <v>193</v>
       </c>
@@ -6265,7 +7072,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
         <v>158</v>
       </c>
@@ -6273,7 +7080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
         <v>159</v>
       </c>
@@ -6281,7 +7088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="29" t="s">
         <v>160</v>
       </c>
@@ -6289,7 +7096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" s="29" t="s">
         <v>161</v>
       </c>
@@ -6297,7 +7104,7 @@
         <v>0.19214789423111006</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="29" t="s">
         <v>162</v>
       </c>
@@ -6305,7 +7112,7 @@
         <v>-0.30588787655775207</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="29" t="s">
         <v>163</v>
       </c>
@@ -6313,7 +7120,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="29" t="s">
         <v>164</v>
       </c>
@@ -6321,7 +7128,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="29" t="s">
         <v>165</v>
       </c>
@@ -6329,7 +7136,7 @@
         <v>-0.50785210576888995</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="29" t="s">
         <v>166</v>
       </c>
@@ -6337,7 +7144,7 @@
         <v>0.19411212344224793</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="29" t="s">
         <v>167</v>
       </c>
@@ -6345,7 +7152,7 @@
         <v>-0.26082884634154524</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="29" t="s">
         <v>168</v>
       </c>
@@ -6353,7 +7160,7 @@
         <v>-0.13802506750700472</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" s="30" t="s">
         <v>169</v>
       </c>
@@ -6361,7 +7168,7 @@
         <v>-0.40785210576888997</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" s="30" t="s">
         <v>170</v>
       </c>
@@ -6369,7 +7176,7 @@
         <v>0.19411212344224793</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="30" t="s">
         <v>171</v>
       </c>
@@ -6377,7 +7184,7 @@
         <v>0.21805217039291008</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>172</v>
       </c>
@@ -6385,81 +7192,81 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>174</v>
       </c>
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>175</v>
       </c>
       <c r="B48" s="4"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
       <c r="H50" s="26" t="s">
         <v>178</v>
       </c>
       <c r="I50" s="26"/>
-      <c r="J50" s="60" t="s">
+      <c r="J50" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="K50" s="60"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K50" s="61"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51" s="24">
         <v>4</v>
       </c>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
       <c r="H51" s="62"/>
       <c r="I51" s="62"/>
       <c r="J51" s="62"/>
       <c r="K51" s="62"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B52" s="24">
         <v>5</v>
       </c>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
       <c r="H52" s="62"/>
       <c r="I52" s="62"/>
       <c r="J52" s="62"/>
       <c r="K52" s="62"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53" s="24">
         <v>6</v>
       </c>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
       <c r="H53" s="62"/>
       <c r="I53" s="62"/>
       <c r="J53" s="62"/>
       <c r="K53" s="62"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>180</v>
       </c>
@@ -6467,82 +7274,82 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B61" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C61" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60" t="s">
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="K61" s="60"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K61" s="61"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" s="24">
         <v>6</v>
       </c>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="61"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="61"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="60"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" s="24">
         <v>5</v>
       </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="61"/>
-      <c r="K63" s="61"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="60"/>
+      <c r="K63" s="60"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="24">
         <v>4</v>
       </c>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="61"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="60"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>187</v>
       </c>
@@ -6550,12 +7357,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>190</v>
       </c>
@@ -6566,306 +7373,272 @@
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B74" s="26" t="s">
         <v>193</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="D74" s="60" t="s">
+      <c r="D74" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="60"/>
-      <c r="I74" s="60"/>
-      <c r="J74" s="60" t="s">
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="61"/>
+      <c r="J74" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="K74" s="60"/>
-      <c r="L74" s="60"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K74" s="61"/>
+      <c r="L74" s="61"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B75" s="29" t="s">
         <v>158</v>
       </c>
       <c r="C75" s="24">
         <v>1</v>
       </c>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="61"/>
-      <c r="L75" s="61"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="60"/>
+      <c r="K75" s="60"/>
+      <c r="L75" s="60"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B76" s="29" t="s">
         <v>159</v>
       </c>
       <c r="C76" s="24">
         <v>1</v>
       </c>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="61"/>
-      <c r="I76" s="61"/>
-      <c r="J76" s="61"/>
-      <c r="K76" s="61"/>
-      <c r="L76" s="61"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="60"/>
+      <c r="L76" s="60"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B77" s="29" t="s">
         <v>160</v>
       </c>
       <c r="C77" s="24">
         <v>0</v>
       </c>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="61"/>
-      <c r="L77" s="61"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="60"/>
+      <c r="K77" s="60"/>
+      <c r="L77" s="60"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B78" s="29" t="s">
         <v>161</v>
       </c>
       <c r="C78" s="24">
         <v>0.19214789423111006</v>
       </c>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="61"/>
-      <c r="J78" s="61"/>
-      <c r="K78" s="61"/>
-      <c r="L78" s="61"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="60"/>
+      <c r="J78" s="60"/>
+      <c r="K78" s="60"/>
+      <c r="L78" s="60"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B79" s="29" t="s">
         <v>162</v>
       </c>
       <c r="C79" s="24">
         <v>-0.30588787655775207</v>
       </c>
-      <c r="D79" s="61"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="61"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="61"/>
-      <c r="J79" s="61"/>
-      <c r="K79" s="61"/>
-      <c r="L79" s="61"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="60"/>
+      <c r="K79" s="60"/>
+      <c r="L79" s="60"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B80" s="29" t="s">
         <v>163</v>
       </c>
       <c r="C80" s="24">
         <v>0.4</v>
       </c>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="61"/>
-      <c r="G80" s="61"/>
-      <c r="H80" s="61"/>
-      <c r="I80" s="61"/>
-      <c r="J80" s="61"/>
-      <c r="K80" s="61"/>
-      <c r="L80" s="61"/>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="60"/>
+      <c r="H80" s="60"/>
+      <c r="I80" s="60"/>
+      <c r="J80" s="60"/>
+      <c r="K80" s="60"/>
+      <c r="L80" s="60"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="29" t="s">
         <v>164</v>
       </c>
       <c r="C81" s="24">
         <v>0.1</v>
       </c>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="61"/>
-      <c r="L81" s="61"/>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="60"/>
+      <c r="K81" s="60"/>
+      <c r="L81" s="60"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="29" t="s">
         <v>165</v>
       </c>
       <c r="C82" s="24">
         <v>-0.50785210576888995</v>
       </c>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="61"/>
-      <c r="I82" s="61"/>
-      <c r="J82" s="61"/>
-      <c r="K82" s="61"/>
-      <c r="L82" s="61"/>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D82" s="60"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="60"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="60"/>
+      <c r="I82" s="60"/>
+      <c r="J82" s="60"/>
+      <c r="K82" s="60"/>
+      <c r="L82" s="60"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="29" t="s">
         <v>166</v>
       </c>
       <c r="C83" s="24">
         <v>0.19411212344224793</v>
       </c>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="61"/>
-      <c r="H83" s="61"/>
-      <c r="I83" s="61"/>
-      <c r="J83" s="61"/>
-      <c r="K83" s="61"/>
-      <c r="L83" s="61"/>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D83" s="60"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="60"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="60"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="29" t="s">
         <v>167</v>
       </c>
       <c r="C84" s="24">
         <v>-0.26082884634154524</v>
       </c>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="61"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="61"/>
-      <c r="J84" s="61"/>
-      <c r="K84" s="61"/>
-      <c r="L84" s="61"/>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="60"/>
+      <c r="K84" s="60"/>
+      <c r="L84" s="60"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="29" t="s">
         <v>168</v>
       </c>
       <c r="C85" s="24">
         <v>-0.13802506750700472</v>
       </c>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="61"/>
-      <c r="L85" s="61"/>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D85" s="60"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="60"/>
+      <c r="K85" s="60"/>
+      <c r="L85" s="60"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="30" t="s">
         <v>169</v>
       </c>
       <c r="C86" s="24">
         <v>-0.40785210576888997</v>
       </c>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="61"/>
-      <c r="I86" s="61"/>
-      <c r="J86" s="61"/>
-      <c r="K86" s="61"/>
-      <c r="L86" s="61"/>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="60"/>
+      <c r="J86" s="60"/>
+      <c r="K86" s="60"/>
+      <c r="L86" s="60"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="30" t="s">
         <v>170</v>
       </c>
       <c r="C87" s="24">
         <v>0.19411212344224793</v>
       </c>
-      <c r="D87" s="61"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="61"/>
-      <c r="J87" s="61"/>
-      <c r="K87" s="61"/>
-      <c r="L87" s="61"/>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="60"/>
+      <c r="K87" s="60"/>
+      <c r="L87" s="60"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="30" t="s">
         <v>171</v>
       </c>
       <c r="C88" s="24">
         <v>0.21805217039291008</v>
       </c>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="61"/>
-      <c r="I88" s="61"/>
-      <c r="J88" s="61"/>
-      <c r="K88" s="61"/>
-      <c r="L88" s="61"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="60"/>
+      <c r="I88" s="60"/>
+      <c r="J88" s="60"/>
+      <c r="K88" s="60"/>
+      <c r="L88" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D87:I87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="D86:I86"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="J79:L79"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="J77:L77"/>
-    <mergeCell ref="C63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="C64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="J74:L74"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="C62:I62"/>
@@ -6881,6 +7654,40 @@
     <mergeCell ref="J53:K53"/>
     <mergeCell ref="C61:I61"/>
     <mergeCell ref="J61:K61"/>
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="J79:L79"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="D87:I87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="D86:I86"/>
+    <mergeCell ref="J86:L86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6896,19 +7703,19 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>208</v>
       </c>
@@ -6927,14 +7734,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>379</v>
       </c>
@@ -6950,145 +7757,563 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="63">
+        <f>B2/25</f>
+        <v>0.04</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(A:A,A2)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="63">
+        <f t="shared" ref="C3:C26" si="0">B3/25</f>
+        <v>0.08</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIF(A:A,A3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="63">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIF(A:A,A4)</f>
+        <v>2</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="24">
+        <f>AVERAGE(A2:A26)</f>
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="63">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIF(A:A,A5)</f>
+        <v>2</v>
+      </c>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="M5" s="24">
+        <f>MEDIAN(A2:A26)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="63">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIF(A:A,A6)</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="M6" s="24">
+        <f>MODE(A2:A26)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="63">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIF(A:A,A7)</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="M7" s="64"/>
+    </row>
+    <row r="8" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="63">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D8">
+        <f>COUNTIF(A:A,A8)</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="M8" s="24">
+        <f>(MAX(A:A)-MIN(A:A))</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="63">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="D9">
+        <f>COUNTIF(A:A,A9)</f>
+        <v>2</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="M9" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="63">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="D10">
+        <f>COUNTIF(A:A,A10)</f>
+        <v>2</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="M10" s="24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="63">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="D11">
+        <f>COUNTIF(A:A,A11)</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="M11" s="24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="63">
+        <f t="shared" si="0"/>
+        <v>0.44</v>
+      </c>
+      <c r="D12">
+        <f>COUNTIF(A:A,A12)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="M12" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="63">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="D13">
+        <f>COUNTIF(A:A,A13)</f>
+        <v>4</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="M13" s="24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="63">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="D14">
+        <f>COUNTIF(A:A,A14)</f>
+        <v>4</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="M14" s="24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="63">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D15">
+        <f>COUNTIF(A:A,A15)</f>
+        <v>4</v>
+      </c>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="M15" s="24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="63">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="D16">
+        <f>COUNTIF(A:A,A16)</f>
+        <v>4</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="L16" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="M16" s="64"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="63">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+      <c r="D17">
+        <f>COUNTIF(A:A,A17)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="63">
+        <f t="shared" si="0"/>
+        <v>0.68</v>
+      </c>
+      <c r="D18">
+        <f>COUNTIF(A:A,A18)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="63">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="D19">
+        <f>COUNTIF(A:A,A19)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="63">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+      <c r="D20">
+        <f>COUNTIF(A:A,A20)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="63">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="D21">
+        <f>COUNTIF(A:A,A21)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>49</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="63">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="D22">
+        <f>COUNTIF(A:A,A22)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="63">
+        <f t="shared" si="0"/>
+        <v>0.88</v>
+      </c>
+      <c r="D23">
+        <f>COUNTIF(A:A,A23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="63">
+        <f t="shared" si="0"/>
+        <v>0.92</v>
+      </c>
+      <c r="D24">
+        <f>COUNTIF(A:A,A24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="63">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="D25">
+        <f>COUNTIF(A:A,A25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>80</v>
       </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f>COUNTIF(A:A,A26)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D26">
+    <sortCondition ref="A2:A26"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L16:M16"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0.25"/>
+        <cfvo type="percentile" val="0.5"/>
+        <cfvo type="num" val="0.75"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7100,20 +8325,20 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>86</v>
       </c>
@@ -7124,7 +8349,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>83</v>
       </c>
@@ -7132,7 +8357,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>70</v>
       </c>
@@ -7140,7 +8365,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>82</v>
       </c>
@@ -7148,7 +8373,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>81</v>
       </c>
@@ -7156,7 +8381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>80</v>
       </c>
@@ -7164,7 +8389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>79</v>
       </c>
@@ -7172,7 +8397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>78</v>
       </c>
@@ -7180,7 +8405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -7188,7 +8413,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -7196,7 +8421,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -7204,12 +8429,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -7217,12 +8442,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -7230,7 +8455,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -7238,32 +8463,32 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>88</v>
       </c>
@@ -7282,23 +8507,23 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7306,7 +8531,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -7314,7 +8539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -7322,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -7330,7 +8555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -7338,7 +8563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -7349,10 +8574,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
@@ -7372,7 +8597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="F13">
         <v>22</v>
@@ -7385,7 +8610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>1</v>
       </c>
@@ -7397,7 +8622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>42</v>
       </c>
@@ -7409,7 +8634,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>10</v>
       </c>
@@ -7421,7 +8646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
@@ -7433,7 +8658,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
@@ -7445,7 +8670,7 @@
         <v>6.7082039324993694</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -7453,7 +8678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>6</v>
       </c>
@@ -7473,7 +8698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="F24">
         <v>22</v>
@@ -7486,7 +8711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25">
         <v>1</v>
       </c>
@@ -7498,7 +8723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>42</v>
       </c>
@@ -7510,7 +8735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27">
         <v>10</v>
       </c>
@@ -7522,7 +8747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
         <v>8</v>
       </c>
@@ -7534,10 +8759,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -7545,7 +8770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>6</v>
       </c>
@@ -7565,7 +8790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="F34">
         <v>22</v>
@@ -7578,7 +8803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F35">
         <v>1</v>
       </c>
@@ -7590,7 +8815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F36">
         <v>42</v>
       </c>
@@ -7602,7 +8827,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F37">
         <v>10</v>
       </c>
@@ -7614,7 +8839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
@@ -7626,7 +8851,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
         <v>16</v>
       </c>
@@ -7638,12 +8863,12 @@
         <v>6.1534494936636817</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>6</v>
       </c>
@@ -7654,10 +8879,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
         <v>19</v>
       </c>
@@ -7676,32 +8901,32 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="3.81640625" customWidth="1"/>
-    <col min="5" max="5" width="4.08984375" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="6.54296875" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.54296875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>19</v>
       </c>
@@ -7709,12 +8934,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23</v>
       </c>
@@ -7728,7 +8953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -7736,7 +8961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>27</v>
       </c>
@@ -7744,7 +8969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31</v>
       </c>
@@ -7752,7 +8977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31</v>
       </c>
@@ -7760,7 +8985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32</v>
       </c>
@@ -7768,7 +8993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>33</v>
       </c>
@@ -7776,7 +9001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>37</v>
       </c>
@@ -7784,7 +9009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>37</v>
       </c>
@@ -7792,57 +9017,57 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>79</v>
       </c>
@@ -7861,23 +9086,23 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="4.1796875" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>14</v>
       </c>
@@ -7888,7 +9113,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>17</v>
       </c>
@@ -7896,7 +9121,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>19</v>
       </c>
@@ -7904,7 +9129,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>19</v>
       </c>
@@ -7912,7 +9137,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>23</v>
       </c>
@@ -7920,7 +9145,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25</v>
       </c>
@@ -7928,7 +9153,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>27</v>
       </c>
@@ -7936,13 +9161,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>31</v>
       </c>
@@ -7951,12 +9176,12 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>33</v>
       </c>
@@ -7967,7 +9192,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>37</v>
       </c>
@@ -7975,7 +9200,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>37</v>
       </c>
@@ -7983,7 +9208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>37</v>
       </c>
@@ -7991,7 +9216,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>37</v>
       </c>
@@ -7999,7 +9224,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>45</v>
       </c>
@@ -8007,12 +9232,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>48</v>
       </c>
@@ -8020,7 +9245,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>48</v>
       </c>
@@ -8028,7 +9253,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>49</v>
       </c>
@@ -8037,12 +9262,12 @@
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>53</v>
       </c>
@@ -8053,7 +9278,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>75</v>
       </c>
@@ -8061,7 +9286,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>79</v>
       </c>
@@ -8070,12 +9295,12 @@
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>38</v>
       </c>
@@ -8083,22 +9308,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="6" t="s">
         <v>41</v>
       </c>
@@ -8106,7 +9331,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" s="6" t="s">
         <v>41</v>
       </c>
@@ -8114,7 +9339,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" s="6" t="s">
         <v>41</v>
       </c>
@@ -8136,28 +9361,28 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.08984375" customWidth="1"/>
-    <col min="2" max="2" width="3.453125" customWidth="1"/>
-    <col min="3" max="3" width="4.453125" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="11" max="12" width="4" customWidth="1"/>
-    <col min="13" max="13" width="3.36328125" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="57" t="s">
         <v>231</v>
       </c>
@@ -8168,17 +9393,17 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>230</v>
       </c>
@@ -8186,7 +9411,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>235</v>
       </c>
@@ -8194,7 +9419,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>237</v>
       </c>
@@ -8202,7 +9427,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>239</v>
       </c>
@@ -8210,47 +9435,47 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>92</v>
       </c>
@@ -8258,12 +9483,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>95</v>
       </c>
@@ -8285,38 +9510,38 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" customWidth="1"/>
-    <col min="2" max="2" width="4.453125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>41</v>
       </c>
@@ -8324,7 +9549,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>41</v>
       </c>
@@ -8332,7 +9557,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
         <v>41</v>
       </c>
@@ -8340,7 +9565,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>41</v>
       </c>
@@ -8348,7 +9573,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
         <v>41</v>
       </c>
@@ -8356,7 +9581,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="35" t="s">
         <v>41</v>
       </c>
@@ -8364,7 +9589,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="35" t="s">
         <v>41</v>
       </c>
@@ -8372,7 +9597,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
         <v>41</v>
       </c>
@@ -8380,17 +9605,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>394</v>
       </c>
@@ -8410,82 +9635,82 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -8493,12 +9718,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -8506,22 +9731,22 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -8529,42 +9754,42 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>

--- a/COMP300-HomeworkProblems-SP20.xlsx
+++ b/COMP300-HomeworkProblems-SP20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benlo\DataMining2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC1A216-69F9-4FD4-85DB-6F5174D35901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B731BCA9-505C-41F6-9995-034CE788445F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW Index" sheetId="38" r:id="rId1"/>
@@ -34,21 +34,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Problem 2.2'!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Problem 2.2'!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Problem 2.2'!$M$11:$M$15</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Problem 2.2'!$L$11:$L$15</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Problem 2.2'!$M$11:$M$15</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Problem 2.2'!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Problem 2.2'!$L$11:$L$15</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Problem 2.2'!$M$11:$M$15</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Problem 2.2'!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Problem 2.2'!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Problem 2.2'!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Problem 2.2'!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Problem 2.2'!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Problem 2.2'!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Problem 2.2'!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Problem 2.2'!$L$11:$L$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Problem 4.3'!$A$1:$M$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -66,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="417">
   <si>
     <t>Mean</t>
   </si>
@@ -285,15 +270,6 @@
   </si>
   <si>
     <t>e.</t>
-  </si>
-  <si>
-    <t>15 but less than 20?</t>
-  </si>
-  <si>
-    <t>What is the cumulative frequency of sessions</t>
-  </si>
-  <si>
-    <t>What is the relative frequency of sessions</t>
   </si>
   <si>
     <t>How many sessions in the sample?</t>
@@ -1461,11 +1437,30 @@
   <si>
     <t>A quantile plot is comparing one variable against percentage to determine which observation corresponds with which quantile. A quantile quantile plot compares the quantiles of one distribution against the quantiles of a second. It is useful in determining quickly if distributions seem correlated</t>
   </si>
+  <si>
+    <t>What is the relative frequency of sessions 15 but less than 20?</t>
+  </si>
+  <si>
+    <t>What is the cumulative frequency of sessions 15 but less than 20?</t>
+  </si>
+  <si>
+    <t>Culm Freq</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>:")</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1772,7 +1767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1885,25 +1880,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2498,7 +2502,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3162,7 +3166,7 @@
             <xdr:cNvPr id="4" name="Chart 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53135367-AEAF-45CB-8DC3-7A9A7544C2E2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3845,8 +3849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3856,102 +3860,105 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B9" t="s">
-        <v>385</v>
+        <v>382</v>
+      </c>
+      <c r="C9" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B14" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D14" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D15" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -3972,17 +3979,17 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -3990,48 +3997,48 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4039,22 +4046,22 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -4062,7 +4069,7 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4070,7 +4077,7 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4078,19 +4085,19 @@
         <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4115,23 +4122,23 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D4" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D5" s="24">
         <v>1500</v>
@@ -4142,7 +4149,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D6" s="24">
         <v>2000</v>
@@ -4156,32 +4163,32 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4189,123 +4196,123 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D25" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="36" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="37" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C38" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="37" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="37" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="37" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4335,100 +4342,100 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C21" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H25" s="41">
         <f>((-9/14) * LOG((9/14),2)) - ((5/14)*LOG((5/14),2))</f>
@@ -4437,7 +4444,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4445,43 +4452,43 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="D35" s="40" t="s">
         <v>345</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="E35" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="F35" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="G35" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="H35" s="43" t="s">
         <v>348</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>349</v>
-      </c>
-      <c r="G35" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B36" s="24">
         <v>1</v>
@@ -4509,7 +4516,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B37" s="24">
         <v>2</v>
@@ -4537,7 +4544,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B38" s="24">
         <v>3</v>
@@ -4562,7 +4569,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
@@ -4596,14 +4603,14 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -4620,7 +4627,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -4628,7 +4635,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
@@ -4636,38 +4643,38 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B49" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="D49" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="F49" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="G49" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="H49" s="43" t="s">
         <v>348</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="F49" s="40" t="s">
-        <v>349</v>
-      </c>
-      <c r="G49" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="H49" s="43" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B50" s="24">
         <v>1</v>
@@ -4695,7 +4702,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B51" s="24">
         <v>2</v>
@@ -4723,7 +4730,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B52" s="24">
         <v>3</v>
@@ -4783,14 +4790,14 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="46" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B58" s="46"/>
       <c r="C58" s="46"/>
@@ -4817,7 +4824,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
@@ -4831,30 +4838,30 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E63" s="40" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F63" s="47" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G63" s="40" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B64" s="24">
         <v>1</v>
@@ -4880,7 +4887,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B65" s="24">
         <v>2</v>
@@ -4906,7 +4913,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="44" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B66" s="24">
         <v>3</v>
@@ -4945,10 +4952,10 @@
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
-      <c r="E68" s="58" t="s">
-        <v>369</v>
-      </c>
-      <c r="F68" s="58"/>
+      <c r="E68" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="F68" s="61"/>
       <c r="G68" s="48">
         <f>-G67</f>
         <v>1.5566567074628228</v>
@@ -4962,7 +4969,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
@@ -4975,13 +4982,13 @@
       <c r="D71" s="25"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="59" t="s">
-        <v>370</v>
-      </c>
-      <c r="B72" s="58"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
+      <c r="A72" s="62" t="s">
+        <v>367</v>
+      </c>
+      <c r="B72" s="61"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
       <c r="F72" s="48">
         <f>D58/G68</f>
         <v>1.8772646222418671E-2</v>
@@ -5044,12 +5051,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -5057,7 +5064,7 @@
     </row>
     <row r="3" spans="1:4" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -5065,97 +5072,97 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5172,12 +5179,12 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5188,7 +5195,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -5196,17 +5203,17 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -5234,106 +5241,106 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B4" s="56">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B5" s="56">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L6" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>62</v>
       </c>
       <c r="N6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q6" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="R6" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="S6" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="T6" s="17" t="s">
         <v>142</v>
-      </c>
-      <c r="R6" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="G7" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="H7" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="I7" s="17" t="s">
         <v>142</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>145</v>
       </c>
       <c r="L7" s="18">
         <v>1</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N7" s="19">
         <v>0.9</v>
@@ -5364,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C8" s="19">
         <v>0.95</v>
@@ -5393,7 +5400,7 @@
         <v>2</v>
       </c>
       <c r="M8" s="49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N8" s="22">
         <v>0.8</v>
@@ -5424,7 +5431,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C9" s="22">
         <v>0.85</v>
@@ -5453,7 +5460,7 @@
         <v>3</v>
       </c>
       <c r="M9" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N9" s="22">
         <v>0.7</v>
@@ -5484,7 +5491,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C10" s="22">
         <v>0.78</v>
@@ -5513,7 +5520,7 @@
         <v>4</v>
       </c>
       <c r="M10" s="49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N10" s="22">
         <v>0.6</v>
@@ -5544,7 +5551,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C11" s="22">
         <v>0.66</v>
@@ -5573,7 +5580,7 @@
         <v>5</v>
       </c>
       <c r="M11" s="49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N11" s="22">
         <v>0.55000000000000004</v>
@@ -5604,7 +5611,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C12" s="22">
         <v>0.6</v>
@@ -5633,7 +5640,7 @@
         <v>6</v>
       </c>
       <c r="M12" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N12" s="22">
         <v>0.54</v>
@@ -5664,7 +5671,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C13" s="22">
         <v>0.55000000000000004</v>
@@ -5693,7 +5700,7 @@
         <v>7</v>
       </c>
       <c r="M13" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N13" s="22">
         <v>0.53</v>
@@ -5724,7 +5731,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C14" s="22">
         <v>0.53</v>
@@ -5753,7 +5760,7 @@
         <v>8</v>
       </c>
       <c r="M14" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N14" s="22">
         <v>0.51</v>
@@ -5784,7 +5791,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C15" s="22">
         <v>0.52</v>
@@ -5813,7 +5820,7 @@
         <v>9</v>
       </c>
       <c r="M15" s="49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N15" s="22">
         <v>0.5</v>
@@ -5844,7 +5851,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C16" s="22">
         <v>0.51</v>
@@ -5873,7 +5880,7 @@
         <v>10</v>
       </c>
       <c r="M16" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N16" s="22">
         <v>0.4</v>
@@ -5904,7 +5911,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C17" s="22">
         <v>0.4</v>
@@ -5932,21 +5939,21 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L22" s="51" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M22" s="51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -6094,36 +6101,36 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C36" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="G36" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="H36" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="I36" s="17" t="s">
         <v>142</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -6131,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C37" s="19">
         <v>0.95</v>
@@ -6148,7 +6155,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C38" s="22">
         <v>0.85</v>
@@ -6165,7 +6172,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C39" s="22">
         <v>0.78</v>
@@ -6182,7 +6189,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C40" s="22">
         <v>0.66</v>
@@ -6199,7 +6206,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C41" s="22">
         <v>0.6</v>
@@ -6216,7 +6223,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C42" s="22">
         <v>0.55000000000000004</v>
@@ -6233,7 +6240,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C43" s="22">
         <v>0.53</v>
@@ -6250,7 +6257,7 @@
         <v>8</v>
       </c>
       <c r="B44" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C44" s="22">
         <v>0.52</v>
@@ -6267,7 +6274,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C45" s="22">
         <v>0.51</v>
@@ -6284,7 +6291,7 @@
         <v>10</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C46" s="22">
         <v>0.4</v>
@@ -6298,13 +6305,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="55" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B49" s="11">
         <v>5</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E49" s="11">
         <v>5</v>
@@ -6312,36 +6319,36 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C52" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="G52" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="H52" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="I52" s="17" t="s">
         <v>142</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H52" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="I52" s="17" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -6349,7 +6356,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C53" s="19">
         <v>0.91</v>
@@ -6380,7 +6387,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C54" s="22">
         <v>0.83</v>
@@ -6411,7 +6418,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C55" s="22">
         <v>0.72</v>
@@ -6442,7 +6449,7 @@
         <v>4</v>
       </c>
       <c r="B56" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C56" s="22">
         <v>0.66</v>
@@ -6473,7 +6480,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C57" s="22">
         <v>0.6</v>
@@ -6504,7 +6511,7 @@
         <v>6</v>
       </c>
       <c r="B58" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C58" s="22">
         <v>0.55000000000000004</v>
@@ -6535,7 +6542,7 @@
         <v>7</v>
       </c>
       <c r="B59" s="49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C59" s="22">
         <v>0.53</v>
@@ -6566,7 +6573,7 @@
         <v>8</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C60" s="22">
         <v>0.52</v>
@@ -6597,7 +6604,7 @@
         <v>9</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C61" s="22">
         <v>0.45</v>
@@ -6628,7 +6635,7 @@
         <v>10</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C62" s="22">
         <v>0.37</v>
@@ -6656,10 +6663,10 @@
     </row>
     <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -6761,56 +6768,56 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="G7" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="H7" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="I7" s="17" t="s">
         <v>142</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -6818,7 +6825,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C8" s="19">
         <v>0.91</v>
@@ -6835,7 +6842,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C9" s="22">
         <v>0.83</v>
@@ -6852,7 +6859,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C10" s="22">
         <v>0.72</v>
@@ -6869,7 +6876,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C11" s="22">
         <v>0.66</v>
@@ -6886,7 +6893,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C12" s="22">
         <v>0.6</v>
@@ -6903,7 +6910,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C13" s="22">
         <v>0.55000000000000004</v>
@@ -6920,7 +6927,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C14" s="22">
         <v>0.53</v>
@@ -6937,7 +6944,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C15" s="22">
         <v>0.52</v>
@@ -6954,7 +6961,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C16" s="22">
         <v>0.45</v>
@@ -6971,7 +6978,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C17" s="22">
         <v>0.37</v>
@@ -7012,32 +7019,32 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7045,17 +7052,17 @@
     </row>
     <row r="8" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7066,15 +7073,15 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C30" s="24">
         <v>1</v>
@@ -7082,7 +7089,7 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C31" s="24">
         <v>1</v>
@@ -7090,7 +7097,7 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C32" s="24">
         <v>0</v>
@@ -7098,7 +7105,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" s="29" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C33" s="24">
         <v>0.19214789423111006</v>
@@ -7106,7 +7113,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C34" s="24">
         <v>-0.30588787655775207</v>
@@ -7114,7 +7121,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="29" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C35" s="24">
         <v>0.4</v>
@@ -7122,7 +7129,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="29" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C36" s="24">
         <v>0.1</v>
@@ -7130,7 +7137,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="29" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C37" s="24">
         <v>-0.50785210576888995</v>
@@ -7138,7 +7145,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C38" s="24">
         <v>0.19411212344224793</v>
@@ -7146,7 +7153,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C39" s="24">
         <v>-0.26082884634154524</v>
@@ -7154,7 +7161,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="29" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C40" s="24">
         <v>-0.13802506750700472</v>
@@ -7162,7 +7169,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" s="30" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C41" s="24">
         <v>-0.40785210576888997</v>
@@ -7170,7 +7177,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" s="30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C42" s="24">
         <v>0.19411212344224793</v>
@@ -7178,7 +7185,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C43" s="24">
         <v>0.21805217039291008</v>
@@ -7186,459 +7193,493 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B48" s="4"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="I50" s="26"/>
+      <c r="J50" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="C50" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="I50" s="26"/>
-      <c r="J50" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="K50" s="61"/>
+      <c r="K50" s="63"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51" s="24">
         <v>4</v>
       </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B52" s="24">
         <v>5</v>
       </c>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53" s="24">
         <v>6</v>
       </c>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B61" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="K61" s="61"/>
+        <v>173</v>
+      </c>
+      <c r="C61" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="K61" s="63"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" s="24">
         <v>6</v>
       </c>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="60"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="64"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" s="24">
         <v>5</v>
       </c>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="64"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="24">
         <v>4</v>
       </c>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="60"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="64"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B70" s="12">
         <v>0.9</v>
       </c>
       <c r="C70" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B74" s="26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="D74" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="61"/>
-      <c r="J74" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="K74" s="61"/>
-      <c r="L74" s="61"/>
+        <v>198</v>
+      </c>
+      <c r="D74" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="K74" s="63"/>
+      <c r="L74" s="63"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B75" s="29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C75" s="24">
         <v>1</v>
       </c>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="60"/>
-      <c r="K75" s="60"/>
-      <c r="L75" s="60"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="64"/>
+      <c r="J75" s="64"/>
+      <c r="K75" s="64"/>
+      <c r="L75" s="64"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B76" s="29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C76" s="24">
         <v>1</v>
       </c>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
-      <c r="I76" s="60"/>
-      <c r="J76" s="60"/>
-      <c r="K76" s="60"/>
-      <c r="L76" s="60"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="64"/>
+      <c r="K76" s="64"/>
+      <c r="L76" s="64"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B77" s="29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C77" s="24">
         <v>0</v>
       </c>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="60"/>
-      <c r="L77" s="60"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="64"/>
+      <c r="I77" s="64"/>
+      <c r="J77" s="64"/>
+      <c r="K77" s="64"/>
+      <c r="L77" s="64"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B78" s="29" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C78" s="24">
         <v>0.19214789423111006</v>
       </c>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="60"/>
-      <c r="I78" s="60"/>
-      <c r="J78" s="60"/>
-      <c r="K78" s="60"/>
-      <c r="L78" s="60"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="64"/>
+      <c r="K78" s="64"/>
+      <c r="L78" s="64"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B79" s="29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C79" s="24">
         <v>-0.30588787655775207</v>
       </c>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="60"/>
-      <c r="K79" s="60"/>
-      <c r="L79" s="60"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="64"/>
+      <c r="J79" s="64"/>
+      <c r="K79" s="64"/>
+      <c r="L79" s="64"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B80" s="29" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C80" s="24">
         <v>0.4</v>
       </c>
-      <c r="D80" s="60"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="60"/>
-      <c r="G80" s="60"/>
-      <c r="H80" s="60"/>
-      <c r="I80" s="60"/>
-      <c r="J80" s="60"/>
-      <c r="K80" s="60"/>
-      <c r="L80" s="60"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="64"/>
+      <c r="K80" s="64"/>
+      <c r="L80" s="64"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="29" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C81" s="24">
         <v>0.1</v>
       </c>
-      <c r="D81" s="60"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="60"/>
-      <c r="K81" s="60"/>
-      <c r="L81" s="60"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="64"/>
+      <c r="J81" s="64"/>
+      <c r="K81" s="64"/>
+      <c r="L81" s="64"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="29" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C82" s="24">
         <v>-0.50785210576888995</v>
       </c>
-      <c r="D82" s="60"/>
-      <c r="E82" s="60"/>
-      <c r="F82" s="60"/>
-      <c r="G82" s="60"/>
-      <c r="H82" s="60"/>
-      <c r="I82" s="60"/>
-      <c r="J82" s="60"/>
-      <c r="K82" s="60"/>
-      <c r="L82" s="60"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="64"/>
+      <c r="J82" s="64"/>
+      <c r="K82" s="64"/>
+      <c r="L82" s="64"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C83" s="24">
         <v>0.19411212344224793</v>
       </c>
-      <c r="D83" s="60"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="60"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="60"/>
-      <c r="K83" s="60"/>
-      <c r="L83" s="60"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="64"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="64"/>
+      <c r="J83" s="64"/>
+      <c r="K83" s="64"/>
+      <c r="L83" s="64"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C84" s="24">
         <v>-0.26082884634154524</v>
       </c>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="60"/>
-      <c r="H84" s="60"/>
-      <c r="I84" s="60"/>
-      <c r="J84" s="60"/>
-      <c r="K84" s="60"/>
-      <c r="L84" s="60"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="64"/>
+      <c r="J84" s="64"/>
+      <c r="K84" s="64"/>
+      <c r="L84" s="64"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="29" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C85" s="24">
         <v>-0.13802506750700472</v>
       </c>
-      <c r="D85" s="60"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="60"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="60"/>
-      <c r="J85" s="60"/>
-      <c r="K85" s="60"/>
-      <c r="L85" s="60"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="64"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="64"/>
+      <c r="J85" s="64"/>
+      <c r="K85" s="64"/>
+      <c r="L85" s="64"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="30" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C86" s="24">
         <v>-0.40785210576888997</v>
       </c>
-      <c r="D86" s="60"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="60"/>
-      <c r="H86" s="60"/>
-      <c r="I86" s="60"/>
-      <c r="J86" s="60"/>
-      <c r="K86" s="60"/>
-      <c r="L86" s="60"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="64"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="64"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="64"/>
+      <c r="J86" s="64"/>
+      <c r="K86" s="64"/>
+      <c r="L86" s="64"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C87" s="24">
         <v>0.19411212344224793</v>
       </c>
-      <c r="D87" s="60"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="60"/>
-      <c r="K87" s="60"/>
-      <c r="L87" s="60"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="64"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="64"/>
+      <c r="J87" s="64"/>
+      <c r="K87" s="64"/>
+      <c r="L87" s="64"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C88" s="24">
         <v>0.21805217039291008</v>
       </c>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="60"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="60"/>
-      <c r="J88" s="60"/>
-      <c r="K88" s="60"/>
-      <c r="L88" s="60"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="64"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="64"/>
+      <c r="J88" s="64"/>
+      <c r="K88" s="64"/>
+      <c r="L88" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="D87:I87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="D86:I86"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="J79:L79"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="J74:L74"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="C62:I62"/>
@@ -7654,40 +7695,6 @@
     <mergeCell ref="J53:K53"/>
     <mergeCell ref="C61:I61"/>
     <mergeCell ref="J61:K61"/>
-    <mergeCell ref="C63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="C64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="J74:L74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="J77:L77"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="J79:L79"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="D87:I87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="D86:I86"/>
-    <mergeCell ref="J86:L86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7707,17 +7714,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -7738,15 +7745,15 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -7759,7 +7766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -7773,16 +7780,16 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" t="s">
         <v>406</v>
       </c>
-      <c r="B1" t="s">
-        <v>409</v>
-      </c>
       <c r="C1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -7792,12 +7799,12 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="63">
+      <c r="C2" s="58">
         <f>B2/25</f>
         <v>0.04</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(A:A,A2)</f>
+        <f t="shared" ref="D2:D26" si="0">COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="F2" t="s">
@@ -7811,12 +7818,12 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="63">
-        <f t="shared" ref="C3:C26" si="0">B3/25</f>
+      <c r="C3" s="58">
+        <f t="shared" ref="C3:C26" si="1">B3/25</f>
         <v>0.08</v>
       </c>
       <c r="D3">
-        <f>COUNTIF(A:A,A3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -7827,16 +7834,16 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="58">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-      <c r="D4">
-        <f>COUNTIF(A:A,A4)</f>
         <v>2</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L4" s="24" t="s">
         <v>0</v>
@@ -7853,17 +7860,17 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="58">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.16</v>
-      </c>
-      <c r="D5">
-        <f>COUNTIF(A:A,A5)</f>
         <v>2</v>
       </c>
       <c r="K5" s="24"/>
       <c r="L5" s="24" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M5" s="24">
         <f>MEDIAN(A2:A26)</f>
@@ -7877,19 +7884,19 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="58">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D6">
-        <f>COUNTIF(A:A,A6)</f>
         <v>1</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M6" s="24">
         <f>MODE(A2:A26)</f>
@@ -7903,19 +7910,19 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="58">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.24</v>
-      </c>
-      <c r="D7">
-        <f>COUNTIF(A:A,A7)</f>
         <v>1</v>
       </c>
       <c r="K7" s="24"/>
-      <c r="L7" s="64" t="s">
-        <v>400</v>
-      </c>
-      <c r="M7" s="64"/>
+      <c r="L7" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="M7" s="59"/>
     </row>
     <row r="8" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -7924,19 +7931,19 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="58">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D8">
-        <f>COUNTIF(A:A,A8)</f>
         <v>1</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M8" s="24">
         <f>(MAX(A:A)-MIN(A:A))</f>
@@ -7950,19 +7957,19 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="58">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.32</v>
-      </c>
-      <c r="D9">
-        <f>COUNTIF(A:A,A9)</f>
         <v>2</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M9" s="24">
         <v>25</v>
@@ -7975,17 +7982,17 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="58">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
-        <v>0.36</v>
-      </c>
-      <c r="D10">
-        <f>COUNTIF(A:A,A10)</f>
         <v>2</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M10" s="24">
         <v>48</v>
@@ -7998,19 +8005,19 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="58">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="D11">
-        <f>COUNTIF(A:A,A11)</f>
         <v>1</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M11" s="24">
         <v>14</v>
@@ -8023,17 +8030,17 @@
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="63">
+      <c r="C12" s="58">
+        <f t="shared" si="1"/>
+        <v>0.44</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
-        <v>0.44</v>
-      </c>
-      <c r="D12">
-        <f>COUNTIF(A:A,A12)</f>
         <v>1</v>
       </c>
       <c r="K12" s="24"/>
       <c r="L12" s="24" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M12" s="24">
         <v>25</v>
@@ -8046,17 +8053,17 @@
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="63">
+      <c r="C13" s="58">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="0"/>
-        <v>0.48</v>
-      </c>
-      <c r="D13">
-        <f>COUNTIF(A:A,A13)</f>
         <v>4</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="24" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M13" s="24">
         <v>37</v>
@@ -8069,17 +8076,17 @@
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" s="63">
+      <c r="C14" s="58">
+        <f t="shared" si="1"/>
+        <v>0.52</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="0"/>
-        <v>0.52</v>
-      </c>
-      <c r="D14">
-        <f>COUNTIF(A:A,A14)</f>
         <v>4</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="24" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M14" s="24">
         <v>48</v>
@@ -8092,17 +8099,17 @@
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="63">
+      <c r="C15" s="58">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D15">
-        <f>COUNTIF(A:A,A15)</f>
         <v>4</v>
       </c>
       <c r="K15" s="24"/>
       <c r="L15" s="24" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M15" s="24">
         <v>80</v>
@@ -8115,21 +8122,21 @@
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" s="63">
+      <c r="C16" s="58">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="D16">
-        <f>COUNTIF(A:A,A16)</f>
         <v>4</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="L16" s="64" t="s">
-        <v>414</v>
-      </c>
-      <c r="M16" s="64"/>
+        <v>410</v>
+      </c>
+      <c r="L16" s="59" t="s">
+        <v>411</v>
+      </c>
+      <c r="M16" s="59"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -8138,12 +8145,12 @@
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" s="63">
+      <c r="C17" s="58">
+        <f t="shared" si="1"/>
+        <v>0.64</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="0"/>
-        <v>0.64</v>
-      </c>
-      <c r="D17">
-        <f>COUNTIF(A:A,A17)</f>
         <v>2</v>
       </c>
     </row>
@@ -8154,12 +8161,12 @@
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="63">
+      <c r="C18" s="58">
+        <f t="shared" si="1"/>
+        <v>0.68</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="0"/>
-        <v>0.68</v>
-      </c>
-      <c r="D18">
-        <f>COUNTIF(A:A,A18)</f>
         <v>2</v>
       </c>
     </row>
@@ -8170,12 +8177,12 @@
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="58">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="0"/>
-        <v>0.72</v>
-      </c>
-      <c r="D19">
-        <f>COUNTIF(A:A,A19)</f>
         <v>2</v>
       </c>
     </row>
@@ -8186,12 +8193,12 @@
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" s="63">
+      <c r="C20" s="58">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="0"/>
-        <v>0.76</v>
-      </c>
-      <c r="D20">
-        <f>COUNTIF(A:A,A20)</f>
         <v>2</v>
       </c>
     </row>
@@ -8202,12 +8209,12 @@
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="58">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="D21">
-        <f>COUNTIF(A:A,A21)</f>
         <v>2</v>
       </c>
     </row>
@@ -8218,12 +8225,12 @@
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" s="63">
+      <c r="C22" s="58">
+        <f t="shared" si="1"/>
+        <v>0.84</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="0"/>
-        <v>0.84</v>
-      </c>
-      <c r="D22">
-        <f>COUNTIF(A:A,A22)</f>
         <v>2</v>
       </c>
     </row>
@@ -8234,12 +8241,12 @@
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C23" s="58">
+        <f t="shared" si="1"/>
+        <v>0.88</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="0"/>
-        <v>0.88</v>
-      </c>
-      <c r="D23">
-        <f>COUNTIF(A:A,A23)</f>
         <v>1</v>
       </c>
     </row>
@@ -8250,12 +8257,12 @@
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" s="63">
+      <c r="C24" s="58">
+        <f t="shared" si="1"/>
+        <v>0.92</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-      <c r="D24">
-        <f>COUNTIF(A:A,A24)</f>
         <v>1</v>
       </c>
     </row>
@@ -8266,12 +8273,12 @@
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" s="63">
+      <c r="C25" s="58">
+        <f t="shared" si="1"/>
+        <v>0.96</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="0"/>
-        <v>0.96</v>
-      </c>
-      <c r="D25">
-        <f>COUNTIF(A:A,A25)</f>
         <v>1</v>
       </c>
     </row>
@@ -8282,12 +8289,12 @@
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" s="63">
+      <c r="C26" s="58">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D26">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <f>COUNTIF(A:A,A26)</f>
         <v>1</v>
       </c>
     </row>
@@ -8319,181 +8326,295 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="67">
+        <f>C4/200</f>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="E4" s="67">
+        <f>SUM(D4)</f>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="G4" s="68"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>70</v>
       </c>
       <c r="C5">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="67">
+        <f t="shared" ref="D5:D10" si="0">C5/200</f>
+        <v>0.185</v>
+      </c>
+      <c r="E5" s="67">
+        <f>SUM(D4:D5)</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C6">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="67">
+        <f t="shared" si="0"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E6" s="67">
+        <f>SUM(D4:D6)</f>
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="67">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="E7" s="67">
+        <f>SUM(D4:D7)</f>
+        <v>0.86499999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C8">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="67">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="E8" s="67">
+        <f>SUM(D4:D8)</f>
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C9">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="67">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E9" s="67">
+        <f>SUM(D4:D9)</f>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D10" s="67">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="67">
+        <f>SUM(D4:D10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>SUM(C4:C10)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="66" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="57">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="66" t="s">
+        <v>413</v>
+      </c>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16">
+        <v>0.86499999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
       <c r="B17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" s="67">
+        <f xml:space="preserve"> 10 + (((200/2) - 0.45)/65)*5</f>
+        <v>17.657692307692308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D24">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>88</v>
+      <c r="D26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="67">
+        <f>E18</f>
+        <v>17.657692307692308</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8503,14 +8624,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -8528,7 +8651,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8598,7 +8721,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f>(B13-C13)^2</f>
+        <v>36</v>
+      </c>
       <c r="F13">
         <v>22</v>
       </c>
@@ -8611,6 +8743,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D16" si="0">(B14-C14)^2</f>
+        <v>9</v>
+      </c>
       <c r="F14">
         <v>1</v>
       </c>
@@ -8623,6 +8765,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="F15">
         <v>42</v>
       </c>
@@ -8635,6 +8787,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F16">
         <v>10</v>
       </c>
@@ -8650,6 +8812,10 @@
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D17">
+        <f>SUM(D13:D16)</f>
+        <v>58</v>
+      </c>
       <c r="G17" s="3" t="s">
         <v>8</v>
       </c>
@@ -8662,6 +8828,10 @@
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D18" s="69">
+        <f>SQRT(D17)</f>
+        <v>7.6157731058639087</v>
+      </c>
       <c r="G18" s="3" t="s">
         <v>9</v>
       </c>
@@ -8699,7 +8869,16 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <f>ABS(B24-C24)</f>
+        <v>6</v>
+      </c>
       <c r="F24">
         <v>22</v>
       </c>
@@ -8712,6 +8891,16 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:D28" si="1">ABS(B25-C25)</f>
+        <v>3</v>
+      </c>
       <c r="F25">
         <v>1</v>
       </c>
@@ -8724,6 +8913,16 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="F26">
         <v>42</v>
       </c>
@@ -8736,6 +8935,16 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="F27">
         <v>10</v>
       </c>
@@ -8751,6 +8960,10 @@
       <c r="C28" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D28">
+        <f>SUM(D24:D27)</f>
+        <v>14</v>
+      </c>
       <c r="G28" s="3" t="s">
         <v>8</v>
       </c>
@@ -8791,7 +9004,16 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="2"/>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <f>ABS(B34-C34)^3</f>
+        <v>216</v>
+      </c>
       <c r="F34">
         <v>22</v>
       </c>
@@ -8804,6 +9026,16 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:D39" si="2">ABS(B35-C35)^3</f>
+        <v>27</v>
+      </c>
       <c r="F35">
         <v>1</v>
       </c>
@@ -8816,6 +9048,16 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
       <c r="F36">
         <v>42</v>
       </c>
@@ -8828,6 +9070,16 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="F37">
         <v>10</v>
       </c>
@@ -8843,6 +9095,10 @@
       <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D38">
+        <f>SUM(D34:D37)</f>
+        <v>278</v>
+      </c>
       <c r="G38" s="3" t="s">
         <v>8</v>
       </c>
@@ -8855,6 +9111,10 @@
       <c r="C39" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="D39" s="69">
+        <f>(D38)^(1/3)</f>
+        <v>6.526518879343751</v>
+      </c>
       <c r="G39" s="3" t="s">
         <v>16</v>
       </c>
@@ -8880,11 +9140,60 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="2"/>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <f>ABS(B44-C44)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:D47" si="3">ABS(B45-C45)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="D48">
+        <f>MAX(D44:D47)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -8913,7 +9222,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -9110,7 +9419,7 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9189,7 +9498,7 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -9197,7 +9506,7 @@
         <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -9229,7 +9538,7 @@
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -9275,7 +9584,7 @@
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -9374,123 +9683,123 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="C3" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -9518,27 +9827,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -9546,7 +9855,7 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -9554,7 +9863,7 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -9562,7 +9871,7 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -9570,7 +9879,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -9578,7 +9887,7 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -9586,7 +9895,7 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -9594,7 +9903,7 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -9602,22 +9911,22 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -9642,72 +9951,72 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -9715,12 +10024,12 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -9728,22 +10037,22 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -9751,42 +10060,42 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -9794,7 +10103,7 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/COMP300-HomeworkProblems-SP20.xlsx
+++ b/COMP300-HomeworkProblems-SP20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benlo\DataMining2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B731BCA9-505C-41F6-9995-034CE788445F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6B2BF9-D7B8-40D0-ADF7-1FD451562A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW Index" sheetId="38" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="440">
   <si>
     <t>Mean</t>
   </si>
@@ -1450,7 +1450,76 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>:")</t>
+    <t>17,17,17</t>
+  </si>
+  <si>
+    <t>22,22,22</t>
+  </si>
+  <si>
+    <t>30,30,30</t>
+  </si>
+  <si>
+    <t>34,34,34</t>
+  </si>
+  <si>
+    <t>37,37,37</t>
+  </si>
+  <si>
+    <t>46,46,46</t>
+  </si>
+  <si>
+    <t>49,49,49</t>
+  </si>
+  <si>
+    <t>69,69,69</t>
+  </si>
+  <si>
+    <t>14,17,19</t>
+  </si>
+  <si>
+    <t>19,23,25</t>
+  </si>
+  <si>
+    <t>27,31,31</t>
+  </si>
+  <si>
+    <t>32,33,37</t>
+  </si>
+  <si>
+    <t>45,45,48</t>
+  </si>
+  <si>
+    <t>48,49,49</t>
+  </si>
+  <si>
+    <t>53,75,79</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (x-µ)/σ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am using 2 decimal places since the max data is 65, therefore I am divding by 100 </t>
+  </si>
+  <si>
+    <t>sepalwidth</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Min Max 0-10</t>
+  </si>
+  <si>
+    <t>Z score</t>
+  </si>
+  <si>
+    <t>decimal scaling to 2 decimal places would keep the range the smallest out of the three normaization methods, however the parameter of 10 must be preserved</t>
+  </si>
+  <si>
+    <t>Z score normalization attemps to reduce the effect of outliers on the transformed data, but the scale is changed so intervals are not exactly the same as the original data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with the paramters of 0 to 1 for the new values are distributed similarly to the unnormailzed data. one issue that didn’t occur in this dataset, but can with others, is if there is an outlier it will stay an outlyer and skew the data. </t>
   </si>
 </sst>
 </file>
@@ -1458,8 +1527,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1587,7 +1656,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1603,6 +1672,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1767,7 +1842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1881,8 +1956,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1893,21 +1988,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3849,7 +3938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3891,7 +3980,7 @@
         <v>382</v>
       </c>
       <c r="C9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4952,10 +5041,10 @@
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
-      <c r="E68" s="61" t="s">
+      <c r="E68" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="F68" s="61"/>
+      <c r="F68" s="71"/>
       <c r="G68" s="48">
         <f>-G67</f>
         <v>1.5566567074628228</v>
@@ -4982,13 +5071,13 @@
       <c r="D71" s="25"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="62" t="s">
+      <c r="A72" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="B72" s="61"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
+      <c r="B72" s="71"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
       <c r="F72" s="48">
         <f>D58/G68</f>
         <v>1.8772646222418671E-2</v>
@@ -7215,63 +7304,63 @@
       <c r="B50" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="63" t="s">
+      <c r="C50" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
       <c r="H50" s="26" t="s">
         <v>175</v>
       </c>
       <c r="I50" s="26"/>
-      <c r="J50" s="63" t="s">
+      <c r="J50" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="K50" s="63"/>
+      <c r="K50" s="74"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51" s="24">
         <v>4</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="75"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B52" s="24">
         <v>5</v>
       </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="75"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53" s="24">
         <v>6</v>
       </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="75"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -7300,61 +7389,61 @@
       <c r="B61" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C61" s="63" t="s">
+      <c r="C61" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="D61" s="63"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="63"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="63" t="s">
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="K61" s="63"/>
+      <c r="K61" s="74"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" s="24">
         <v>6</v>
       </c>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="64"/>
-      <c r="K62" s="64"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="73"/>
+      <c r="K62" s="73"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" s="24">
         <v>5</v>
       </c>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="64"/>
-      <c r="J63" s="64"/>
-      <c r="K63" s="64"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="73"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="73"/>
+      <c r="J63" s="73"/>
+      <c r="K63" s="73"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="24">
         <v>4</v>
       </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="64"/>
-      <c r="K64" s="64"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="73"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
@@ -7392,19 +7481,19 @@
       <c r="C74" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D74" s="63" t="s">
+      <c r="D74" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="63" t="s">
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="K74" s="63"/>
-      <c r="L74" s="63"/>
+      <c r="K74" s="74"/>
+      <c r="L74" s="74"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B75" s="29" t="s">
@@ -7413,15 +7502,15 @@
       <c r="C75" s="24">
         <v>1</v>
       </c>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="64"/>
-      <c r="I75" s="64"/>
-      <c r="J75" s="64"/>
-      <c r="K75" s="64"/>
-      <c r="L75" s="64"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="73"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="73"/>
+      <c r="H75" s="73"/>
+      <c r="I75" s="73"/>
+      <c r="J75" s="73"/>
+      <c r="K75" s="73"/>
+      <c r="L75" s="73"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B76" s="29" t="s">
@@ -7430,15 +7519,15 @@
       <c r="C76" s="24">
         <v>1</v>
       </c>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="64"/>
-      <c r="H76" s="64"/>
-      <c r="I76" s="64"/>
-      <c r="J76" s="64"/>
-      <c r="K76" s="64"/>
-      <c r="L76" s="64"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="73"/>
+      <c r="H76" s="73"/>
+      <c r="I76" s="73"/>
+      <c r="J76" s="73"/>
+      <c r="K76" s="73"/>
+      <c r="L76" s="73"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B77" s="29" t="s">
@@ -7447,15 +7536,15 @@
       <c r="C77" s="24">
         <v>0</v>
       </c>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="64"/>
-      <c r="H77" s="64"/>
-      <c r="I77" s="64"/>
-      <c r="J77" s="64"/>
-      <c r="K77" s="64"/>
-      <c r="L77" s="64"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="73"/>
+      <c r="H77" s="73"/>
+      <c r="I77" s="73"/>
+      <c r="J77" s="73"/>
+      <c r="K77" s="73"/>
+      <c r="L77" s="73"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B78" s="29" t="s">
@@ -7464,15 +7553,15 @@
       <c r="C78" s="24">
         <v>0.19214789423111006</v>
       </c>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="64"/>
-      <c r="J78" s="64"/>
-      <c r="K78" s="64"/>
-      <c r="L78" s="64"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="73"/>
+      <c r="F78" s="73"/>
+      <c r="G78" s="73"/>
+      <c r="H78" s="73"/>
+      <c r="I78" s="73"/>
+      <c r="J78" s="73"/>
+      <c r="K78" s="73"/>
+      <c r="L78" s="73"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B79" s="29" t="s">
@@ -7481,15 +7570,15 @@
       <c r="C79" s="24">
         <v>-0.30588787655775207</v>
       </c>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="64"/>
-      <c r="J79" s="64"/>
-      <c r="K79" s="64"/>
-      <c r="L79" s="64"/>
+      <c r="D79" s="73"/>
+      <c r="E79" s="73"/>
+      <c r="F79" s="73"/>
+      <c r="G79" s="73"/>
+      <c r="H79" s="73"/>
+      <c r="I79" s="73"/>
+      <c r="J79" s="73"/>
+      <c r="K79" s="73"/>
+      <c r="L79" s="73"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B80" s="29" t="s">
@@ -7498,15 +7587,15 @@
       <c r="C80" s="24">
         <v>0.4</v>
       </c>
-      <c r="D80" s="64"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="64"/>
-      <c r="I80" s="64"/>
-      <c r="J80" s="64"/>
-      <c r="K80" s="64"/>
-      <c r="L80" s="64"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="73"/>
+      <c r="I80" s="73"/>
+      <c r="J80" s="73"/>
+      <c r="K80" s="73"/>
+      <c r="L80" s="73"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="29" t="s">
@@ -7515,15 +7604,15 @@
       <c r="C81" s="24">
         <v>0.1</v>
       </c>
-      <c r="D81" s="64"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="64"/>
-      <c r="H81" s="64"/>
-      <c r="I81" s="64"/>
-      <c r="J81" s="64"/>
-      <c r="K81" s="64"/>
-      <c r="L81" s="64"/>
+      <c r="D81" s="73"/>
+      <c r="E81" s="73"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="73"/>
+      <c r="H81" s="73"/>
+      <c r="I81" s="73"/>
+      <c r="J81" s="73"/>
+      <c r="K81" s="73"/>
+      <c r="L81" s="73"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="29" t="s">
@@ -7532,15 +7621,15 @@
       <c r="C82" s="24">
         <v>-0.50785210576888995</v>
       </c>
-      <c r="D82" s="64"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="64"/>
-      <c r="J82" s="64"/>
-      <c r="K82" s="64"/>
-      <c r="L82" s="64"/>
+      <c r="D82" s="73"/>
+      <c r="E82" s="73"/>
+      <c r="F82" s="73"/>
+      <c r="G82" s="73"/>
+      <c r="H82" s="73"/>
+      <c r="I82" s="73"/>
+      <c r="J82" s="73"/>
+      <c r="K82" s="73"/>
+      <c r="L82" s="73"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="29" t="s">
@@ -7549,15 +7638,15 @@
       <c r="C83" s="24">
         <v>0.19411212344224793</v>
       </c>
-      <c r="D83" s="64"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="64"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="64"/>
-      <c r="J83" s="64"/>
-      <c r="K83" s="64"/>
-      <c r="L83" s="64"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="73"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="73"/>
+      <c r="H83" s="73"/>
+      <c r="I83" s="73"/>
+      <c r="J83" s="73"/>
+      <c r="K83" s="73"/>
+      <c r="L83" s="73"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="29" t="s">
@@ -7566,15 +7655,15 @@
       <c r="C84" s="24">
         <v>-0.26082884634154524</v>
       </c>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
-      <c r="I84" s="64"/>
-      <c r="J84" s="64"/>
-      <c r="K84" s="64"/>
-      <c r="L84" s="64"/>
+      <c r="D84" s="73"/>
+      <c r="E84" s="73"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="73"/>
+      <c r="H84" s="73"/>
+      <c r="I84" s="73"/>
+      <c r="J84" s="73"/>
+      <c r="K84" s="73"/>
+      <c r="L84" s="73"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="29" t="s">
@@ -7583,15 +7672,15 @@
       <c r="C85" s="24">
         <v>-0.13802506750700472</v>
       </c>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="64"/>
-      <c r="H85" s="64"/>
-      <c r="I85" s="64"/>
-      <c r="J85" s="64"/>
-      <c r="K85" s="64"/>
-      <c r="L85" s="64"/>
+      <c r="D85" s="73"/>
+      <c r="E85" s="73"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="73"/>
+      <c r="H85" s="73"/>
+      <c r="I85" s="73"/>
+      <c r="J85" s="73"/>
+      <c r="K85" s="73"/>
+      <c r="L85" s="73"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="30" t="s">
@@ -7600,15 +7689,15 @@
       <c r="C86" s="24">
         <v>-0.40785210576888997</v>
       </c>
-      <c r="D86" s="64"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="64"/>
-      <c r="I86" s="64"/>
-      <c r="J86" s="64"/>
-      <c r="K86" s="64"/>
-      <c r="L86" s="64"/>
+      <c r="D86" s="73"/>
+      <c r="E86" s="73"/>
+      <c r="F86" s="73"/>
+      <c r="G86" s="73"/>
+      <c r="H86" s="73"/>
+      <c r="I86" s="73"/>
+      <c r="J86" s="73"/>
+      <c r="K86" s="73"/>
+      <c r="L86" s="73"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="30" t="s">
@@ -7617,15 +7706,15 @@
       <c r="C87" s="24">
         <v>0.19411212344224793</v>
       </c>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="64"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="64"/>
-      <c r="J87" s="64"/>
-      <c r="K87" s="64"/>
-      <c r="L87" s="64"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="73"/>
+      <c r="H87" s="73"/>
+      <c r="I87" s="73"/>
+      <c r="J87" s="73"/>
+      <c r="K87" s="73"/>
+      <c r="L87" s="73"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="30" t="s">
@@ -7634,52 +7723,18 @@
       <c r="C88" s="24">
         <v>0.21805217039291008</v>
       </c>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="64"/>
-      <c r="H88" s="64"/>
-      <c r="I88" s="64"/>
-      <c r="J88" s="64"/>
-      <c r="K88" s="64"/>
-      <c r="L88" s="64"/>
+      <c r="D88" s="73"/>
+      <c r="E88" s="73"/>
+      <c r="F88" s="73"/>
+      <c r="G88" s="73"/>
+      <c r="H88" s="73"/>
+      <c r="I88" s="73"/>
+      <c r="J88" s="73"/>
+      <c r="K88" s="73"/>
+      <c r="L88" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D87:I87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="D86:I86"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="J79:L79"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="J77:L77"/>
-    <mergeCell ref="C63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="C64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="J74:L74"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="C62:I62"/>
@@ -7695,6 +7750,40 @@
     <mergeCell ref="J53:K53"/>
     <mergeCell ref="C61:I61"/>
     <mergeCell ref="J61:K61"/>
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="J79:L79"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="D87:I87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="D86:I86"/>
+    <mergeCell ref="J86:L86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7767,7 +7856,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7919,10 +8008,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="24"/>
-      <c r="L7" s="59" t="s">
+      <c r="L7" s="68" t="s">
         <v>397</v>
       </c>
-      <c r="M7" s="59"/>
+      <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -8133,10 +8222,10 @@
       <c r="K16" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="L16" s="59" t="s">
+      <c r="L16" s="68" t="s">
         <v>411</v>
       </c>
-      <c r="M16" s="59"/>
+      <c r="M16" s="68"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -8367,15 +8456,15 @@
       <c r="C4">
         <v>53</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="61">
         <f>C4/200</f>
         <v>0.26500000000000001</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="61">
         <f>SUM(D4)</f>
         <v>0.26500000000000001</v>
       </c>
-      <c r="G4" s="68"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -8384,11 +8473,11 @@
       <c r="C5">
         <v>37</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="61">
         <f t="shared" ref="D5:D10" si="0">C5/200</f>
         <v>0.185</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="61">
         <f>SUM(D4:D5)</f>
         <v>0.45</v>
       </c>
@@ -8400,11 +8489,11 @@
       <c r="C6">
         <v>65</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="61">
         <f t="shared" si="0"/>
         <v>0.32500000000000001</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="61">
         <f>SUM(D4:D6)</f>
         <v>0.77500000000000002</v>
       </c>
@@ -8416,11 +8505,11 @@
       <c r="C7">
         <v>18</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="61">
         <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="61">
         <f>SUM(D4:D7)</f>
         <v>0.86499999999999999</v>
       </c>
@@ -8432,11 +8521,11 @@
       <c r="C8">
         <v>12</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="61">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="61">
         <f>SUM(D4:D8)</f>
         <v>0.92500000000000004</v>
       </c>
@@ -8448,11 +8537,11 @@
       <c r="C9">
         <v>13</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="61">
         <f t="shared" si="0"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="61">
         <f>SUM(D4:D9)</f>
         <v>0.99</v>
       </c>
@@ -8464,11 +8553,11 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="61">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="61">
         <f>SUM(D4:D10)</f>
         <v>1</v>
       </c>
@@ -8483,11 +8572,11 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
       <c r="E13">
         <v>5</v>
       </c>
@@ -8496,11 +8585,11 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
       <c r="E14">
         <v>200</v>
       </c>
@@ -8509,11 +8598,11 @@
       <c r="A15" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="69" t="s">
         <v>412</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
       <c r="E15" s="57">
         <v>0.09</v>
       </c>
@@ -8522,11 +8611,11 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="69" t="s">
         <v>413</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
       <c r="E16">
         <v>0.86499999999999999</v>
       </c>
@@ -8549,7 +8638,7 @@
       <c r="B18" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="61">
         <f xml:space="preserve"> 10 + (((200/2) - 0.45)/65)*5</f>
         <v>17.657692307692308</v>
       </c>
@@ -8603,7 +8692,7 @@
       <c r="C28" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="67">
+      <c r="D28" s="61">
         <f>E18</f>
         <v>17.657692307692308</v>
       </c>
@@ -8750,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D16" si="0">(B14-C14)^2</f>
+        <f>(B14-C14)^2</f>
         <v>9</v>
       </c>
       <c r="F14">
@@ -8772,7 +8861,7 @@
         <v>17</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f>(B15-C15)^2</f>
         <v>9</v>
       </c>
       <c r="F15">
@@ -8794,7 +8883,7 @@
         <v>9</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f>(B16-C16)^2</f>
         <v>4</v>
       </c>
       <c r="F16">
@@ -8828,7 +8917,7 @@
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="69">
+      <c r="D18" s="63">
         <f>SQRT(D17)</f>
         <v>7.6157731058639087</v>
       </c>
@@ -8898,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:D28" si="1">ABS(B25-C25)</f>
+        <f>ABS(B25-C25)</f>
         <v>3</v>
       </c>
       <c r="F25">
@@ -8920,7 +9009,7 @@
         <v>17</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f>ABS(B26-C26)</f>
         <v>3</v>
       </c>
       <c r="F26">
@@ -8942,7 +9031,7 @@
         <v>9</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f>ABS(B27-C27)</f>
         <v>2</v>
       </c>
       <c r="F27">
@@ -9033,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:D39" si="2">ABS(B35-C35)^3</f>
+        <f>ABS(B35-C35)^3</f>
         <v>27</v>
       </c>
       <c r="F35">
@@ -9055,7 +9144,7 @@
         <v>17</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
+        <f>ABS(B36-C36)^3</f>
         <v>27</v>
       </c>
       <c r="F36">
@@ -9077,7 +9166,7 @@
         <v>9</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
+        <f>ABS(B37-C37)^3</f>
         <v>8</v>
       </c>
       <c r="F37">
@@ -9111,7 +9200,7 @@
       <c r="C39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="69">
+      <c r="D39" s="63">
         <f>(D38)^(1/3)</f>
         <v>6.526518879343751</v>
       </c>
@@ -9159,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <f t="shared" ref="D45:D47" si="3">ABS(B45-C45)</f>
+        <f>ABS(B45-C45)</f>
         <v>3</v>
       </c>
     </row>
@@ -9171,7 +9260,7 @@
         <v>17</v>
       </c>
       <c r="D46">
-        <f t="shared" si="3"/>
+        <f>ABS(B46-C46)</f>
         <v>3</v>
       </c>
     </row>
@@ -9183,7 +9272,7 @@
         <v>9</v>
       </c>
       <c r="D47">
-        <f t="shared" si="3"/>
+        <f>ABS(B47-C47)</f>
         <v>2</v>
       </c>
     </row>
@@ -9207,12 +9296,12 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.140625" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" customWidth="1"/>
     <col min="7" max="7" width="6.5703125" customWidth="1"/>
@@ -9226,17 +9315,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="64">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="64">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="64">
         <v>19</v>
       </c>
       <c r="C4" t="s">
@@ -9269,29 +9358,85 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
+      <c r="D7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H7">
+        <f>SUM(A2:A4)</f>
+        <v>50</v>
+      </c>
+      <c r="I7" s="65">
+        <f>H7/3</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="64">
         <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
+      <c r="D8" t="s">
+        <v>425</v>
+      </c>
+      <c r="H8">
+        <f>SUM(A5:A7)</f>
+        <v>67</v>
+      </c>
+      <c r="I8" s="65">
+        <f t="shared" ref="I8:I14" si="0">H8/3</f>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="J8" s="60" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="64">
         <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
+      <c r="D9" t="s">
+        <v>426</v>
+      </c>
+      <c r="H9">
+        <f>SUM(A8:A10)</f>
+        <v>89</v>
+      </c>
+      <c r="I9" s="65">
+        <f t="shared" si="0"/>
+        <v>29.666666666666668</v>
+      </c>
+      <c r="J9" s="60" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="64">
         <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>427</v>
+      </c>
+      <c r="H10">
+        <f>SUM(A11:A13)</f>
+        <v>102</v>
+      </c>
+      <c r="I10" s="65">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="J10" s="60" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9301,6 +9446,20 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
+      <c r="D11" t="s">
+        <v>420</v>
+      </c>
+      <c r="H11">
+        <f>SUM(A14:A16)</f>
+        <v>111</v>
+      </c>
+      <c r="I11" s="65">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="J11" s="60" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -9309,6 +9468,20 @@
       <c r="C12" t="s">
         <v>26</v>
       </c>
+      <c r="D12" t="s">
+        <v>428</v>
+      </c>
+      <c r="H12">
+        <f>SUM(A17:A19)</f>
+        <v>138</v>
+      </c>
+      <c r="I12" s="65">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -9317,22 +9490,50 @@
       <c r="C13" t="s">
         <v>27</v>
       </c>
+      <c r="D13" t="s">
+        <v>429</v>
+      </c>
+      <c r="H13">
+        <f>SUM(A20:A22)</f>
+        <v>146</v>
+      </c>
+      <c r="I13" s="65">
+        <f t="shared" si="0"/>
+        <v>48.666666666666664</v>
+      </c>
+      <c r="J13" s="60" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="64">
         <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
+      <c r="D14" t="s">
+        <v>430</v>
+      </c>
+      <c r="H14">
+        <f>SUM(A23:A25)</f>
+        <v>207</v>
+      </c>
+      <c r="I14" s="65">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="J14" s="60" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="64">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="64">
         <v>37</v>
       </c>
     </row>
@@ -9352,17 +9553,17 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="64">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="64">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="64">
         <v>49</v>
       </c>
     </row>
@@ -9389,29 +9590,61 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:R152"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="4.140625" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="66"/>
+      <c r="O1" s="4">
+        <f>MIN(M3:M152)</f>
+        <v>2</v>
+      </c>
+      <c r="P1" s="4">
+        <f>MAX(M3:M152)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q1" s="4">
+        <f>_xlfn.STDEV.S(M3:M152)</f>
+        <v>0.4335943113621879</v>
+      </c>
+      <c r="R1" s="4">
+        <f>(SUM(M3:M152)/COUNT(M3:M152))</f>
+        <v>3.053999999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M2" s="66" t="s">
+        <v>433</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>14</v>
       </c>
@@ -9421,76 +9654,248 @@
       <c r="D3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M3" s="66">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f>M3/10</f>
+        <v>0.2</v>
+      </c>
+      <c r="O3" s="58">
+        <f>((M3-2)/(4.4-2))*(1-0)+0</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="58">
+        <f>(M3-0.433594)/3.054</f>
+        <v>0.51290307793058287</v>
+      </c>
+      <c r="Q3" s="58">
+        <f>P152-P3</f>
+        <v>0.78585461689587455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M4" s="66">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N67" si="0">M4/10</f>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="O4" s="58">
+        <f t="shared" ref="O4:O67" si="1">((M4-2)/(4.4-2))*(1-0)+0</f>
+        <v>8.3333333333333398E-2</v>
+      </c>
+      <c r="P4" s="58">
+        <f t="shared" ref="P4:P67" si="2">(M4-0.433594)/3.054</f>
+        <v>0.57839096267190582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>53</v>
+      </c>
+      <c r="M5" s="66">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="O5" s="58">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333398E-2</v>
+      </c>
+      <c r="P5" s="58">
+        <f t="shared" si="2"/>
+        <v>0.57839096267190582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="M6" s="66">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="O6" s="58">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333398E-2</v>
+      </c>
+      <c r="P6" s="58">
+        <f t="shared" si="2"/>
+        <v>0.57839096267190582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>80</v>
+      </c>
+      <c r="M7" s="66">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="O7" s="58">
+        <f t="shared" si="1"/>
+        <v>0.1249999999999999</v>
+      </c>
+      <c r="P7" s="58">
+        <f t="shared" si="2"/>
+        <v>0.61113490504256707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25</v>
       </c>
       <c r="E8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="63">
+        <v>0</v>
+      </c>
+      <c r="M8" s="66">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="O8" s="58">
+        <f t="shared" si="1"/>
+        <v>0.1249999999999999</v>
+      </c>
+      <c r="P8" s="58">
+        <f t="shared" si="2"/>
+        <v>0.61113490504256707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="63">
+        <v>1</v>
+      </c>
+      <c r="M9" s="66">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="O9" s="58">
+        <f t="shared" si="1"/>
+        <v>0.1249999999999999</v>
+      </c>
+      <c r="P9" s="58">
+        <f t="shared" si="2"/>
+        <v>0.61113490504256707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31</v>
       </c>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M10" s="66">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="O10" s="58">
+        <f t="shared" si="1"/>
+        <v>0.1249999999999999</v>
+      </c>
+      <c r="P10" s="58">
+        <f t="shared" si="2"/>
+        <v>0.61113490504256707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <f>((F5-F6)/(F7-F6))*(F9-F8)+F8</f>
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="M11" s="66">
+        <v>2.4</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="O11" s="58">
+        <f t="shared" si="1"/>
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="P11" s="58">
+        <f t="shared" si="2"/>
+        <v>0.64387884741322854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M12" s="66">
+        <v>2.4</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="O12" s="58">
+        <f t="shared" si="1"/>
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="P12" s="58">
+        <f t="shared" si="2"/>
+        <v>0.64387884741322854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>33</v>
       </c>
@@ -9500,83 +9905,265 @@
       <c r="D13" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M13" s="66">
+        <v>2.4</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="O13" s="58">
+        <f t="shared" si="1"/>
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="P13" s="58">
+        <f t="shared" si="2"/>
+        <v>0.64387884741322854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M14" s="66">
+        <v>2.5</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="O14" s="58">
+        <f t="shared" si="1"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P14" s="58">
+        <f t="shared" si="2"/>
+        <v>0.67662278978389012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M15" s="66">
+        <v>2.5</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="O15" s="58">
+        <f t="shared" si="1"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P15" s="58">
+        <f t="shared" si="2"/>
+        <v>0.67662278978389012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>53</v>
+      </c>
+      <c r="M16" s="66">
+        <v>2.5</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="O16" s="58">
+        <f t="shared" si="1"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P16" s="58">
+        <f t="shared" si="2"/>
+        <v>0.67662278978389012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>37</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f>(SUM(A3:A27)/COUNT(A3:A27))</f>
+        <v>39.6</v>
+      </c>
+      <c r="M17" s="66">
+        <v>2.5</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="O17" s="58">
+        <f t="shared" si="1"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P17" s="58">
+        <f t="shared" si="2"/>
+        <v>0.67662278978389012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>45</v>
       </c>
       <c r="D18" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M18" s="66">
+        <v>2.5</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="O18" s="58">
+        <f t="shared" si="1"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P18" s="58">
+        <f t="shared" si="2"/>
+        <v>0.67662278978389012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M19" s="66">
+        <v>2.5</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="O19" s="58">
+        <f t="shared" si="1"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P19" s="58">
+        <f t="shared" si="2"/>
+        <v>0.67662278978389012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>48</v>
       </c>
       <c r="D20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>431</v>
+      </c>
+      <c r="M20" s="66">
+        <v>2.5</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="O20" s="58">
+        <f t="shared" si="1"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P20" s="58">
+        <f t="shared" si="2"/>
+        <v>0.67662278978389012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>48</v>
       </c>
       <c r="D21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f>(53-39.6)/18.18</f>
+        <v>0.73707370737073696</v>
+      </c>
+      <c r="M21" s="66">
+        <v>2.5</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="O21" s="58">
+        <f t="shared" si="1"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P21" s="58">
+        <f t="shared" si="2"/>
+        <v>0.67662278978389012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>49</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f>(53-39.6)/18.18</f>
+        <v>0.73707370737073696</v>
+      </c>
+      <c r="M22" s="66">
+        <v>2.6</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="O22" s="58">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="P22" s="58">
+        <f t="shared" si="2"/>
+        <v>0.70936673215455159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M23" s="66">
+        <v>2.6</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="O23" s="58">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="P23" s="58">
+        <f t="shared" si="2"/>
+        <v>0.70936673215455159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>53</v>
       </c>
@@ -9586,77 +10173,2265 @@
       <c r="D24" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M24" s="66">
+        <v>2.6</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="O24" s="58">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="P24" s="58">
+        <f t="shared" si="2"/>
+        <v>0.70936673215455159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>75</v>
       </c>
       <c r="D25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M25" s="66">
+        <v>2.6</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="O25" s="58">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="P25" s="58">
+        <f t="shared" si="2"/>
+        <v>0.70936673215455159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>79</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="F26" t="s">
+        <v>432</v>
+      </c>
+      <c r="M26" s="66">
+        <v>2.6</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="O26" s="58">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="P26" s="58">
+        <f t="shared" si="2"/>
+        <v>0.70936673215455159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M27" s="66">
+        <v>2.7</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="O27" s="58">
+        <f t="shared" si="1"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="P27" s="58">
+        <f t="shared" si="2"/>
+        <v>0.74211067452521295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>38</v>
       </c>
       <c r="D28" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M28" s="66">
+        <v>2.7</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="O28" s="58">
+        <f t="shared" si="1"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="P28" s="58">
+        <f t="shared" si="2"/>
+        <v>0.74211067452521295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M29" s="66">
+        <v>2.7</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="O29" s="58">
+        <f t="shared" si="1"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="P29" s="58">
+        <f t="shared" si="2"/>
+        <v>0.74211067452521295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M30" s="66">
+        <v>2.7</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="O30" s="58">
+        <f t="shared" si="1"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="P30" s="58">
+        <f t="shared" si="2"/>
+        <v>0.74211067452521295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M31" s="66">
+        <v>2.7</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="O31" s="58">
+        <f t="shared" si="1"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="P31" s="58">
+        <f t="shared" si="2"/>
+        <v>0.74211067452521295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="D32" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="59" t="s">
+        <v>437</v>
+      </c>
+      <c r="M32" s="66">
+        <v>2.7</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="O32" s="58">
+        <f t="shared" si="1"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="P32" s="58">
+        <f t="shared" si="2"/>
+        <v>0.74211067452521295</v>
+      </c>
+    </row>
+    <row r="33" spans="4:16" ht="165" x14ac:dyDescent="0.25">
       <c r="D33" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E33" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="67" t="s">
+        <v>439</v>
+      </c>
+      <c r="M33" s="66">
+        <v>2.7</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="O33" s="58">
+        <f t="shared" si="1"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="P33" s="58">
+        <f t="shared" si="2"/>
+        <v>0.74211067452521295</v>
+      </c>
+    </row>
+    <row r="34" spans="4:16" ht="120" x14ac:dyDescent="0.25">
       <c r="D34" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E34" t="s">
         <v>58</v>
       </c>
+      <c r="F34" s="59" t="s">
+        <v>438</v>
+      </c>
+      <c r="M34" s="66">
+        <v>2.7</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="O34" s="58">
+        <f t="shared" si="1"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="P34" s="58">
+        <f t="shared" si="2"/>
+        <v>0.74211067452521295</v>
+      </c>
+    </row>
+    <row r="35" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M35" s="66">
+        <v>2.7</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="O35" s="58">
+        <f t="shared" si="1"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="P35" s="58">
+        <f t="shared" si="2"/>
+        <v>0.74211067452521295</v>
+      </c>
+    </row>
+    <row r="36" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M36" s="66">
+        <v>2.8</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="O36" s="58">
+        <f t="shared" si="1"/>
+        <v>0.3333333333333332</v>
+      </c>
+      <c r="P36" s="58">
+        <f t="shared" si="2"/>
+        <v>0.77485461689587432</v>
+      </c>
+    </row>
+    <row r="37" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M37" s="66">
+        <v>2.8</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="O37" s="58">
+        <f t="shared" si="1"/>
+        <v>0.3333333333333332</v>
+      </c>
+      <c r="P37" s="58">
+        <f t="shared" si="2"/>
+        <v>0.77485461689587432</v>
+      </c>
+    </row>
+    <row r="38" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M38" s="66">
+        <v>2.8</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="O38" s="58">
+        <f t="shared" si="1"/>
+        <v>0.3333333333333332</v>
+      </c>
+      <c r="P38" s="58">
+        <f t="shared" si="2"/>
+        <v>0.77485461689587432</v>
+      </c>
+    </row>
+    <row r="39" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M39" s="66">
+        <v>2.8</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="O39" s="58">
+        <f t="shared" si="1"/>
+        <v>0.3333333333333332</v>
+      </c>
+      <c r="P39" s="58">
+        <f t="shared" si="2"/>
+        <v>0.77485461689587432</v>
+      </c>
+    </row>
+    <row r="40" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M40" s="66">
+        <v>2.8</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="O40" s="58">
+        <f t="shared" si="1"/>
+        <v>0.3333333333333332</v>
+      </c>
+      <c r="P40" s="58">
+        <f t="shared" si="2"/>
+        <v>0.77485461689587432</v>
+      </c>
+    </row>
+    <row r="41" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M41" s="66">
+        <v>2.8</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="O41" s="58">
+        <f t="shared" si="1"/>
+        <v>0.3333333333333332</v>
+      </c>
+      <c r="P41" s="58">
+        <f t="shared" si="2"/>
+        <v>0.77485461689587432</v>
+      </c>
+    </row>
+    <row r="42" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M42" s="66">
+        <v>2.8</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="O42" s="58">
+        <f t="shared" si="1"/>
+        <v>0.3333333333333332</v>
+      </c>
+      <c r="P42" s="58">
+        <f t="shared" si="2"/>
+        <v>0.77485461689587432</v>
+      </c>
+    </row>
+    <row r="43" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M43" s="66">
+        <v>2.8</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="O43" s="58">
+        <f t="shared" si="1"/>
+        <v>0.3333333333333332</v>
+      </c>
+      <c r="P43" s="58">
+        <f t="shared" si="2"/>
+        <v>0.77485461689587432</v>
+      </c>
+    </row>
+    <row r="44" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M44" s="66">
+        <v>2.8</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="O44" s="58">
+        <f t="shared" si="1"/>
+        <v>0.3333333333333332</v>
+      </c>
+      <c r="P44" s="58">
+        <f t="shared" si="2"/>
+        <v>0.77485461689587432</v>
+      </c>
+    </row>
+    <row r="45" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M45" s="66">
+        <v>2.8</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="O45" s="58">
+        <f t="shared" si="1"/>
+        <v>0.3333333333333332</v>
+      </c>
+      <c r="P45" s="58">
+        <f t="shared" si="2"/>
+        <v>0.77485461689587432</v>
+      </c>
+    </row>
+    <row r="46" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M46" s="66">
+        <v>2.8</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="O46" s="58">
+        <f t="shared" si="1"/>
+        <v>0.3333333333333332</v>
+      </c>
+      <c r="P46" s="58">
+        <f t="shared" si="2"/>
+        <v>0.77485461689587432</v>
+      </c>
+    </row>
+    <row r="47" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M47" s="66">
+        <v>2.8</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="O47" s="58">
+        <f t="shared" si="1"/>
+        <v>0.3333333333333332</v>
+      </c>
+      <c r="P47" s="58">
+        <f t="shared" si="2"/>
+        <v>0.77485461689587432</v>
+      </c>
+    </row>
+    <row r="48" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M48" s="66">
+        <v>2.8</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="O48" s="58">
+        <f t="shared" si="1"/>
+        <v>0.3333333333333332</v>
+      </c>
+      <c r="P48" s="58">
+        <f t="shared" si="2"/>
+        <v>0.77485461689587432</v>
+      </c>
+    </row>
+    <row r="49" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M49" s="66">
+        <v>2.8</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="O49" s="58">
+        <f t="shared" si="1"/>
+        <v>0.3333333333333332</v>
+      </c>
+      <c r="P49" s="58">
+        <f t="shared" si="2"/>
+        <v>0.77485461689587432</v>
+      </c>
+    </row>
+    <row r="50" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M50" s="66">
+        <v>2.9</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O50" s="58">
+        <f t="shared" si="1"/>
+        <v>0.37499999999999989</v>
+      </c>
+      <c r="P50" s="58">
+        <f t="shared" si="2"/>
+        <v>0.80759855926653579</v>
+      </c>
+    </row>
+    <row r="51" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M51" s="66">
+        <v>2.9</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O51" s="58">
+        <f t="shared" si="1"/>
+        <v>0.37499999999999989</v>
+      </c>
+      <c r="P51" s="58">
+        <f t="shared" si="2"/>
+        <v>0.80759855926653579</v>
+      </c>
+    </row>
+    <row r="52" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M52" s="66">
+        <v>2.9</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O52" s="58">
+        <f t="shared" si="1"/>
+        <v>0.37499999999999989</v>
+      </c>
+      <c r="P52" s="58">
+        <f t="shared" si="2"/>
+        <v>0.80759855926653579</v>
+      </c>
+    </row>
+    <row r="53" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M53" s="66">
+        <v>2.9</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O53" s="58">
+        <f t="shared" si="1"/>
+        <v>0.37499999999999989</v>
+      </c>
+      <c r="P53" s="58">
+        <f t="shared" si="2"/>
+        <v>0.80759855926653579</v>
+      </c>
+    </row>
+    <row r="54" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M54" s="66">
+        <v>2.9</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O54" s="58">
+        <f t="shared" si="1"/>
+        <v>0.37499999999999989</v>
+      </c>
+      <c r="P54" s="58">
+        <f t="shared" si="2"/>
+        <v>0.80759855926653579</v>
+      </c>
+    </row>
+    <row r="55" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M55" s="66">
+        <v>2.9</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O55" s="58">
+        <f t="shared" si="1"/>
+        <v>0.37499999999999989</v>
+      </c>
+      <c r="P55" s="58">
+        <f t="shared" si="2"/>
+        <v>0.80759855926653579</v>
+      </c>
+    </row>
+    <row r="56" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M56" s="66">
+        <v>2.9</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O56" s="58">
+        <f t="shared" si="1"/>
+        <v>0.37499999999999989</v>
+      </c>
+      <c r="P56" s="58">
+        <f t="shared" si="2"/>
+        <v>0.80759855926653579</v>
+      </c>
+    </row>
+    <row r="57" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M57" s="66">
+        <v>2.9</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O57" s="58">
+        <f t="shared" si="1"/>
+        <v>0.37499999999999989</v>
+      </c>
+      <c r="P57" s="58">
+        <f t="shared" si="2"/>
+        <v>0.80759855926653579</v>
+      </c>
+    </row>
+    <row r="58" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M58" s="66">
+        <v>2.9</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O58" s="58">
+        <f t="shared" si="1"/>
+        <v>0.37499999999999989</v>
+      </c>
+      <c r="P58" s="58">
+        <f t="shared" si="2"/>
+        <v>0.80759855926653579</v>
+      </c>
+    </row>
+    <row r="59" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M59" s="66">
+        <v>2.9</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O59" s="58">
+        <f t="shared" si="1"/>
+        <v>0.37499999999999989</v>
+      </c>
+      <c r="P59" s="58">
+        <f t="shared" si="2"/>
+        <v>0.80759855926653579</v>
+      </c>
+    </row>
+    <row r="60" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M60" s="66">
+        <v>3</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="O60" s="58">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P60" s="58">
+        <f t="shared" si="2"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="61" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M61" s="66">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="O61" s="58">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P61" s="58">
+        <f t="shared" si="2"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="62" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M62" s="66">
+        <v>3</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="O62" s="58">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P62" s="58">
+        <f t="shared" si="2"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="63" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M63" s="66">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="O63" s="58">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P63" s="58">
+        <f t="shared" si="2"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="64" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M64" s="66">
+        <v>3</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="O64" s="58">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P64" s="58">
+        <f t="shared" si="2"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="65" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M65" s="66">
+        <v>3</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="O65" s="58">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P65" s="58">
+        <f t="shared" si="2"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="66" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M66" s="66">
+        <v>3</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="O66" s="58">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P66" s="58">
+        <f t="shared" si="2"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="67" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M67" s="66">
+        <v>3</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="O67" s="58">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P67" s="58">
+        <f t="shared" si="2"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="68" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M68" s="66">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <f t="shared" ref="N68:N131" si="3">M68/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="O68" s="58">
+        <f t="shared" ref="O68:O131" si="4">((M68-2)/(4.4-2))*(1-0)+0</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P68" s="58">
+        <f t="shared" ref="P68:P131" si="5">(M68-0.433594)/3.054</f>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="69" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M69" s="66">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="O69" s="58">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P69" s="58">
+        <f t="shared" si="5"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="70" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M70" s="66">
+        <v>3</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="O70" s="58">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P70" s="58">
+        <f t="shared" si="5"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="71" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M71" s="66">
+        <v>3</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="O71" s="58">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P71" s="58">
+        <f t="shared" si="5"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="72" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M72" s="66">
+        <v>3</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="O72" s="58">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P72" s="58">
+        <f t="shared" si="5"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="73" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M73" s="66">
+        <v>3</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="O73" s="58">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P73" s="58">
+        <f t="shared" si="5"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="74" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M74" s="66">
+        <v>3</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="O74" s="58">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P74" s="58">
+        <f t="shared" si="5"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="75" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M75" s="66">
+        <v>3</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="O75" s="58">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P75" s="58">
+        <f t="shared" si="5"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="76" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M76" s="66">
+        <v>3</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="O76" s="58">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P76" s="58">
+        <f t="shared" si="5"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="77" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M77" s="66">
+        <v>3</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="O77" s="58">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P77" s="58">
+        <f t="shared" si="5"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="78" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M78" s="66">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="O78" s="58">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P78" s="58">
+        <f t="shared" si="5"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="79" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M79" s="66">
+        <v>3</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="O79" s="58">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P79" s="58">
+        <f t="shared" si="5"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="80" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M80" s="66">
+        <v>3</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="O80" s="58">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P80" s="58">
+        <f t="shared" si="5"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="81" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M81" s="66">
+        <v>3</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="O81" s="58">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P81" s="58">
+        <f t="shared" si="5"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="82" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M82" s="66">
+        <v>3</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="O82" s="58">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P82" s="58">
+        <f t="shared" si="5"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="83" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M83" s="66">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="O83" s="58">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P83" s="58">
+        <f t="shared" si="5"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="84" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M84" s="66">
+        <v>3</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="O84" s="58">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P84" s="58">
+        <f t="shared" si="5"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="85" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M85" s="66">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="O85" s="58">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P85" s="58">
+        <f t="shared" si="5"/>
+        <v>0.84034250163719726</v>
+      </c>
+    </row>
+    <row r="86" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M86" s="66">
+        <v>3.1</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="O86" s="58">
+        <f t="shared" si="4"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P86" s="58">
+        <f t="shared" si="5"/>
+        <v>0.87308644400785873</v>
+      </c>
+    </row>
+    <row r="87" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M87" s="66">
+        <v>3.1</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="O87" s="58">
+        <f t="shared" si="4"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P87" s="58">
+        <f t="shared" si="5"/>
+        <v>0.87308644400785873</v>
+      </c>
+    </row>
+    <row r="88" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M88" s="66">
+        <v>3.1</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="O88" s="58">
+        <f t="shared" si="4"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P88" s="58">
+        <f t="shared" si="5"/>
+        <v>0.87308644400785873</v>
+      </c>
+    </row>
+    <row r="89" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M89" s="66">
+        <v>3.1</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="O89" s="58">
+        <f t="shared" si="4"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P89" s="58">
+        <f t="shared" si="5"/>
+        <v>0.87308644400785873</v>
+      </c>
+    </row>
+    <row r="90" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M90" s="66">
+        <v>3.1</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="O90" s="58">
+        <f t="shared" si="4"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P90" s="58">
+        <f t="shared" si="5"/>
+        <v>0.87308644400785873</v>
+      </c>
+    </row>
+    <row r="91" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M91" s="66">
+        <v>3.1</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="O91" s="58">
+        <f t="shared" si="4"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P91" s="58">
+        <f t="shared" si="5"/>
+        <v>0.87308644400785873</v>
+      </c>
+    </row>
+    <row r="92" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M92" s="66">
+        <v>3.1</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="O92" s="58">
+        <f t="shared" si="4"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P92" s="58">
+        <f t="shared" si="5"/>
+        <v>0.87308644400785873</v>
+      </c>
+    </row>
+    <row r="93" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M93" s="66">
+        <v>3.1</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="O93" s="58">
+        <f t="shared" si="4"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P93" s="58">
+        <f t="shared" si="5"/>
+        <v>0.87308644400785873</v>
+      </c>
+    </row>
+    <row r="94" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M94" s="66">
+        <v>3.1</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="O94" s="58">
+        <f t="shared" si="4"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P94" s="58">
+        <f t="shared" si="5"/>
+        <v>0.87308644400785873</v>
+      </c>
+    </row>
+    <row r="95" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M95" s="66">
+        <v>3.1</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="O95" s="58">
+        <f t="shared" si="4"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P95" s="58">
+        <f t="shared" si="5"/>
+        <v>0.87308644400785873</v>
+      </c>
+    </row>
+    <row r="96" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M96" s="66">
+        <v>3.1</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="O96" s="58">
+        <f t="shared" si="4"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P96" s="58">
+        <f t="shared" si="5"/>
+        <v>0.87308644400785873</v>
+      </c>
+    </row>
+    <row r="97" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M97" s="66">
+        <v>3.1</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="O97" s="58">
+        <f t="shared" si="4"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P97" s="58">
+        <f t="shared" si="5"/>
+        <v>0.87308644400785873</v>
+      </c>
+    </row>
+    <row r="98" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M98" s="66">
+        <v>3.2</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="3"/>
+        <v>0.32</v>
+      </c>
+      <c r="O98" s="58">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P98" s="58">
+        <f t="shared" si="5"/>
+        <v>0.90583038637852009</v>
+      </c>
+    </row>
+    <row r="99" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M99" s="66">
+        <v>3.2</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="3"/>
+        <v>0.32</v>
+      </c>
+      <c r="O99" s="58">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P99" s="58">
+        <f t="shared" si="5"/>
+        <v>0.90583038637852009</v>
+      </c>
+    </row>
+    <row r="100" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M100" s="66">
+        <v>3.2</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="3"/>
+        <v>0.32</v>
+      </c>
+      <c r="O100" s="58">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P100" s="58">
+        <f t="shared" si="5"/>
+        <v>0.90583038637852009</v>
+      </c>
+    </row>
+    <row r="101" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M101" s="66">
+        <v>3.2</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="3"/>
+        <v>0.32</v>
+      </c>
+      <c r="O101" s="58">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P101" s="58">
+        <f t="shared" si="5"/>
+        <v>0.90583038637852009</v>
+      </c>
+    </row>
+    <row r="102" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M102" s="66">
+        <v>3.2</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="3"/>
+        <v>0.32</v>
+      </c>
+      <c r="O102" s="58">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P102" s="58">
+        <f t="shared" si="5"/>
+        <v>0.90583038637852009</v>
+      </c>
+    </row>
+    <row r="103" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M103" s="66">
+        <v>3.2</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="3"/>
+        <v>0.32</v>
+      </c>
+      <c r="O103" s="58">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P103" s="58">
+        <f t="shared" si="5"/>
+        <v>0.90583038637852009</v>
+      </c>
+    </row>
+    <row r="104" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M104" s="66">
+        <v>3.2</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="3"/>
+        <v>0.32</v>
+      </c>
+      <c r="O104" s="58">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P104" s="58">
+        <f t="shared" si="5"/>
+        <v>0.90583038637852009</v>
+      </c>
+    </row>
+    <row r="105" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M105" s="66">
+        <v>3.2</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="3"/>
+        <v>0.32</v>
+      </c>
+      <c r="O105" s="58">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P105" s="58">
+        <f t="shared" si="5"/>
+        <v>0.90583038637852009</v>
+      </c>
+    </row>
+    <row r="106" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M106" s="66">
+        <v>3.2</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="3"/>
+        <v>0.32</v>
+      </c>
+      <c r="O106" s="58">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P106" s="58">
+        <f t="shared" si="5"/>
+        <v>0.90583038637852009</v>
+      </c>
+    </row>
+    <row r="107" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M107" s="66">
+        <v>3.2</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="3"/>
+        <v>0.32</v>
+      </c>
+      <c r="O107" s="58">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P107" s="58">
+        <f t="shared" si="5"/>
+        <v>0.90583038637852009</v>
+      </c>
+    </row>
+    <row r="108" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M108" s="66">
+        <v>3.2</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="3"/>
+        <v>0.32</v>
+      </c>
+      <c r="O108" s="58">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P108" s="58">
+        <f t="shared" si="5"/>
+        <v>0.90583038637852009</v>
+      </c>
+    </row>
+    <row r="109" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M109" s="66">
+        <v>3.2</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="3"/>
+        <v>0.32</v>
+      </c>
+      <c r="O109" s="58">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P109" s="58">
+        <f t="shared" si="5"/>
+        <v>0.90583038637852009</v>
+      </c>
+    </row>
+    <row r="110" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M110" s="66">
+        <v>3.2</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="3"/>
+        <v>0.32</v>
+      </c>
+      <c r="O110" s="58">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P110" s="58">
+        <f t="shared" si="5"/>
+        <v>0.90583038637852009</v>
+      </c>
+    </row>
+    <row r="111" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M111" s="66">
+        <v>3.3</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="3"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="O111" s="58">
+        <f t="shared" si="4"/>
+        <v>0.54166666666666652</v>
+      </c>
+      <c r="P111" s="58">
+        <f t="shared" si="5"/>
+        <v>0.93857432874918145</v>
+      </c>
+    </row>
+    <row r="112" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M112" s="66">
+        <v>3.3</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="3"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="O112" s="58">
+        <f t="shared" si="4"/>
+        <v>0.54166666666666652</v>
+      </c>
+      <c r="P112" s="58">
+        <f t="shared" si="5"/>
+        <v>0.93857432874918145</v>
+      </c>
+    </row>
+    <row r="113" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M113" s="66">
+        <v>3.3</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="3"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="O113" s="58">
+        <f t="shared" si="4"/>
+        <v>0.54166666666666652</v>
+      </c>
+      <c r="P113" s="58">
+        <f t="shared" si="5"/>
+        <v>0.93857432874918145</v>
+      </c>
+    </row>
+    <row r="114" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M114" s="66">
+        <v>3.3</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="3"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="O114" s="58">
+        <f t="shared" si="4"/>
+        <v>0.54166666666666652</v>
+      </c>
+      <c r="P114" s="58">
+        <f t="shared" si="5"/>
+        <v>0.93857432874918145</v>
+      </c>
+    </row>
+    <row r="115" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M115" s="66">
+        <v>3.3</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="3"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="O115" s="58">
+        <f t="shared" si="4"/>
+        <v>0.54166666666666652</v>
+      </c>
+      <c r="P115" s="58">
+        <f t="shared" si="5"/>
+        <v>0.93857432874918145</v>
+      </c>
+    </row>
+    <row r="116" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M116" s="66">
+        <v>3.3</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="3"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="O116" s="58">
+        <f t="shared" si="4"/>
+        <v>0.54166666666666652</v>
+      </c>
+      <c r="P116" s="58">
+        <f t="shared" si="5"/>
+        <v>0.93857432874918145</v>
+      </c>
+    </row>
+    <row r="117" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M117" s="66">
+        <v>3.4</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="3"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="O117" s="58">
+        <f t="shared" si="4"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="P117" s="58">
+        <f t="shared" si="5"/>
+        <v>0.97131827111984292</v>
+      </c>
+    </row>
+    <row r="118" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M118" s="66">
+        <v>3.4</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="3"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="O118" s="58">
+        <f t="shared" si="4"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="P118" s="58">
+        <f t="shared" si="5"/>
+        <v>0.97131827111984292</v>
+      </c>
+    </row>
+    <row r="119" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M119" s="66">
+        <v>3.4</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="3"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="O119" s="58">
+        <f t="shared" si="4"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="P119" s="58">
+        <f t="shared" si="5"/>
+        <v>0.97131827111984292</v>
+      </c>
+    </row>
+    <row r="120" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M120" s="66">
+        <v>3.4</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="3"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="O120" s="58">
+        <f t="shared" si="4"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="P120" s="58">
+        <f t="shared" si="5"/>
+        <v>0.97131827111984292</v>
+      </c>
+    </row>
+    <row r="121" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M121" s="66">
+        <v>3.4</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="3"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="O121" s="58">
+        <f t="shared" si="4"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="P121" s="58">
+        <f t="shared" si="5"/>
+        <v>0.97131827111984292</v>
+      </c>
+    </row>
+    <row r="122" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M122" s="66">
+        <v>3.4</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="3"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="O122" s="58">
+        <f t="shared" si="4"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="P122" s="58">
+        <f t="shared" si="5"/>
+        <v>0.97131827111984292</v>
+      </c>
+    </row>
+    <row r="123" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M123" s="66">
+        <v>3.4</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="3"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="O123" s="58">
+        <f t="shared" si="4"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="P123" s="58">
+        <f t="shared" si="5"/>
+        <v>0.97131827111984292</v>
+      </c>
+    </row>
+    <row r="124" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M124" s="66">
+        <v>3.4</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="3"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="O124" s="58">
+        <f t="shared" si="4"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="P124" s="58">
+        <f t="shared" si="5"/>
+        <v>0.97131827111984292</v>
+      </c>
+    </row>
+    <row r="125" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M125" s="66">
+        <v>3.4</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="3"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="O125" s="58">
+        <f t="shared" si="4"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="P125" s="58">
+        <f t="shared" si="5"/>
+        <v>0.97131827111984292</v>
+      </c>
+    </row>
+    <row r="126" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M126" s="66">
+        <v>3.4</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="3"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="O126" s="58">
+        <f t="shared" si="4"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="P126" s="58">
+        <f t="shared" si="5"/>
+        <v>0.97131827111984292</v>
+      </c>
+    </row>
+    <row r="127" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M127" s="66">
+        <v>3.4</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="3"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="O127" s="58">
+        <f t="shared" si="4"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="P127" s="58">
+        <f t="shared" si="5"/>
+        <v>0.97131827111984292</v>
+      </c>
+    </row>
+    <row r="128" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M128" s="66">
+        <v>3.4</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="3"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="O128" s="58">
+        <f t="shared" si="4"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="P128" s="58">
+        <f t="shared" si="5"/>
+        <v>0.97131827111984292</v>
+      </c>
+    </row>
+    <row r="129" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M129" s="66">
+        <v>3.5</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="O129" s="58">
+        <f t="shared" si="4"/>
+        <v>0.62499999999999989</v>
+      </c>
+      <c r="P129" s="58">
+        <f t="shared" si="5"/>
+        <v>1.0040622134905044</v>
+      </c>
+    </row>
+    <row r="130" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M130" s="66">
+        <v>3.5</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="O130" s="58">
+        <f t="shared" si="4"/>
+        <v>0.62499999999999989</v>
+      </c>
+      <c r="P130" s="58">
+        <f t="shared" si="5"/>
+        <v>1.0040622134905044</v>
+      </c>
+    </row>
+    <row r="131" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M131" s="66">
+        <v>3.5</v>
+      </c>
+      <c r="N131">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="O131" s="58">
+        <f t="shared" si="4"/>
+        <v>0.62499999999999989</v>
+      </c>
+      <c r="P131" s="58">
+        <f t="shared" si="5"/>
+        <v>1.0040622134905044</v>
+      </c>
+    </row>
+    <row r="132" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M132" s="66">
+        <v>3.5</v>
+      </c>
+      <c r="N132">
+        <f t="shared" ref="N132:N152" si="6">M132/10</f>
+        <v>0.35</v>
+      </c>
+      <c r="O132" s="58">
+        <f t="shared" ref="O132:O152" si="7">((M132-2)/(4.4-2))*(1-0)+0</f>
+        <v>0.62499999999999989</v>
+      </c>
+      <c r="P132" s="58">
+        <f t="shared" ref="P132:P152" si="8">(M132-0.433594)/3.054</f>
+        <v>1.0040622134905044</v>
+      </c>
+    </row>
+    <row r="133" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M133" s="66">
+        <v>3.5</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="6"/>
+        <v>0.35</v>
+      </c>
+      <c r="O133" s="58">
+        <f t="shared" si="7"/>
+        <v>0.62499999999999989</v>
+      </c>
+      <c r="P133" s="58">
+        <f t="shared" si="8"/>
+        <v>1.0040622134905044</v>
+      </c>
+    </row>
+    <row r="134" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M134" s="66">
+        <v>3.5</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="6"/>
+        <v>0.35</v>
+      </c>
+      <c r="O134" s="58">
+        <f t="shared" si="7"/>
+        <v>0.62499999999999989</v>
+      </c>
+      <c r="P134" s="58">
+        <f t="shared" si="8"/>
+        <v>1.0040622134905044</v>
+      </c>
+    </row>
+    <row r="135" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M135" s="66">
+        <v>3.6</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="6"/>
+        <v>0.36</v>
+      </c>
+      <c r="O135" s="58">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P135" s="58">
+        <f t="shared" si="8"/>
+        <v>1.0368061558611659</v>
+      </c>
+    </row>
+    <row r="136" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M136" s="66">
+        <v>3.6</v>
+      </c>
+      <c r="N136">
+        <f t="shared" si="6"/>
+        <v>0.36</v>
+      </c>
+      <c r="O136" s="58">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P136" s="58">
+        <f t="shared" si="8"/>
+        <v>1.0368061558611659</v>
+      </c>
+    </row>
+    <row r="137" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M137" s="66">
+        <v>3.6</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="6"/>
+        <v>0.36</v>
+      </c>
+      <c r="O137" s="58">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P137" s="58">
+        <f t="shared" si="8"/>
+        <v>1.0368061558611659</v>
+      </c>
+    </row>
+    <row r="138" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M138" s="66">
+        <v>3.7</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="6"/>
+        <v>0.37</v>
+      </c>
+      <c r="O138" s="58">
+        <f t="shared" si="7"/>
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="P138" s="58">
+        <f t="shared" si="8"/>
+        <v>1.0695500982318273</v>
+      </c>
+    </row>
+    <row r="139" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M139" s="66">
+        <v>3.7</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="6"/>
+        <v>0.37</v>
+      </c>
+      <c r="O139" s="58">
+        <f t="shared" si="7"/>
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="P139" s="58">
+        <f t="shared" si="8"/>
+        <v>1.0695500982318273</v>
+      </c>
+    </row>
+    <row r="140" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M140" s="66">
+        <v>3.7</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="6"/>
+        <v>0.37</v>
+      </c>
+      <c r="O140" s="58">
+        <f t="shared" si="7"/>
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="P140" s="58">
+        <f t="shared" si="8"/>
+        <v>1.0695500982318273</v>
+      </c>
+    </row>
+    <row r="141" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M141" s="66">
+        <v>3.8</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="6"/>
+        <v>0.38</v>
+      </c>
+      <c r="O141" s="58">
+        <f t="shared" si="7"/>
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="P141" s="58">
+        <f t="shared" si="8"/>
+        <v>1.1022940406024886</v>
+      </c>
+    </row>
+    <row r="142" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M142" s="66">
+        <v>3.8</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="6"/>
+        <v>0.38</v>
+      </c>
+      <c r="O142" s="58">
+        <f t="shared" si="7"/>
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="P142" s="58">
+        <f t="shared" si="8"/>
+        <v>1.1022940406024886</v>
+      </c>
+    </row>
+    <row r="143" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M143" s="66">
+        <v>3.8</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="6"/>
+        <v>0.38</v>
+      </c>
+      <c r="O143" s="58">
+        <f t="shared" si="7"/>
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="P143" s="58">
+        <f t="shared" si="8"/>
+        <v>1.1022940406024886</v>
+      </c>
+    </row>
+    <row r="144" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M144" s="66">
+        <v>3.8</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="6"/>
+        <v>0.38</v>
+      </c>
+      <c r="O144" s="58">
+        <f t="shared" si="7"/>
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="P144" s="58">
+        <f t="shared" si="8"/>
+        <v>1.1022940406024886</v>
+      </c>
+    </row>
+    <row r="145" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M145" s="66">
+        <v>3.8</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="6"/>
+        <v>0.38</v>
+      </c>
+      <c r="O145" s="58">
+        <f t="shared" si="7"/>
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="P145" s="58">
+        <f t="shared" si="8"/>
+        <v>1.1022940406024886</v>
+      </c>
+    </row>
+    <row r="146" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M146" s="66">
+        <v>3.8</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="6"/>
+        <v>0.38</v>
+      </c>
+      <c r="O146" s="58">
+        <f t="shared" si="7"/>
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="P146" s="58">
+        <f t="shared" si="8"/>
+        <v>1.1022940406024886</v>
+      </c>
+    </row>
+    <row r="147" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M147" s="66">
+        <v>3.9</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="6"/>
+        <v>0.39</v>
+      </c>
+      <c r="O147" s="58">
+        <f t="shared" si="7"/>
+        <v>0.79166666666666652</v>
+      </c>
+      <c r="P147" s="58">
+        <f t="shared" si="8"/>
+        <v>1.1350379829731501</v>
+      </c>
+    </row>
+    <row r="148" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M148" s="66">
+        <v>3.9</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="6"/>
+        <v>0.39</v>
+      </c>
+      <c r="O148" s="58">
+        <f t="shared" si="7"/>
+        <v>0.79166666666666652</v>
+      </c>
+      <c r="P148" s="58">
+        <f t="shared" si="8"/>
+        <v>1.1350379829731501</v>
+      </c>
+    </row>
+    <row r="149" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M149" s="66">
+        <v>4</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="O149" s="58">
+        <f t="shared" si="7"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="P149" s="58">
+        <f t="shared" si="8"/>
+        <v>1.1677819253438115</v>
+      </c>
+    </row>
+    <row r="150" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M150" s="66">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="6"/>
+        <v>0.41</v>
+      </c>
+      <c r="O150" s="58">
+        <f t="shared" si="7"/>
+        <v>0.87499999999999978</v>
+      </c>
+      <c r="P150" s="58">
+        <f t="shared" si="8"/>
+        <v>1.2005258677144728</v>
+      </c>
+    </row>
+    <row r="151" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M151" s="66">
+        <v>4.2</v>
+      </c>
+      <c r="N151">
+        <f t="shared" si="6"/>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="O151" s="58">
+        <f t="shared" si="7"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="P151" s="58">
+        <f t="shared" si="8"/>
+        <v>1.2332698100851345</v>
+      </c>
+    </row>
+    <row r="152" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M152" s="66">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N152">
+        <f t="shared" si="6"/>
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="O152" s="58">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P152" s="58">
+        <f t="shared" si="8"/>
+        <v>1.2987576948264574</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M3:M152">
+    <sortCondition ref="M3:M152"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9692,15 +12467,15 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="70" t="s">
         <v>228</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">

--- a/COMP300-HomeworkProblems-SP20.xlsx
+++ b/COMP300-HomeworkProblems-SP20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benlo\DataMining2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6B2BF9-D7B8-40D0-ADF7-1FD451562A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF2537F-30E6-4BC2-A02B-03A11461C343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="3105" windowWidth="7500" windowHeight="6000" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW Index" sheetId="38" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="459">
   <si>
     <t>Mean</t>
   </si>
@@ -771,9 +771,6 @@
     <t>For each Chemist:</t>
   </si>
   <si>
-    <t>A  chemical research company runs multiple projects.  Each project is headquartered in specific region.  Projects require chemists to work on them, and equipment must be assigned to those chemists for specific projects.  The company maintains many categories of equipment, much of it quite expensive.  Therefore, the company maintains records of the number of hours that a specific piece of equipment is checked out to a specific chemist for a specific project.  In addition, the charge to the project varies, depending upon the project, the chemist and the equipment.</t>
-  </si>
-  <si>
     <t>The following attributes are  stored in the data warehouse for each instance of equipment assignment:</t>
   </si>
   <si>
@@ -1521,6 +1518,89 @@
   <si>
     <t xml:space="preserve">with the paramters of 0 to 1 for the new values are distributed similarly to the unnormailzed data. one issue that didn’t occur in this dataset, but can with others, is if there is an outlier it will stay an outlyer and skew the data. </t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A  chemical research company runs multiple projects.  Each project is headquartered in specific region.  Projects require chemists to work on them, and equipment must be assigned to those chemists for specific projects.  The company maintains many categories of equipment, much of it quite expensive.  Therefore, the company maintains records of the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>number of hours that a specific piece of equipment is checked out to a specific chemist for a specific project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.  In addition, the charge to the project varies, depending upon the project, the chemist and the equipment.</t>
+    </r>
+  </si>
+  <si>
+    <t>num_hours</t>
+  </si>
+  <si>
+    <t>charge_per_hr</t>
+  </si>
+  <si>
+    <t>chemist</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>fact table</t>
+  </si>
+  <si>
+    <t>Chemist_key</t>
+  </si>
+  <si>
+    <t>Project_key</t>
+  </si>
+  <si>
+    <t>Equipment_key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roll up to university and slice on course comp 300 </t>
+  </si>
+  <si>
+    <t>roll up to university and slice on course comp 300 slice on instructor #007</t>
+  </si>
+  <si>
+    <t>roll up to university and roll up to department and slice on CS department</t>
+  </si>
+  <si>
+    <t>roll up to major and roll up to year and dice on math and 2013</t>
+  </si>
+  <si>
+    <t>roll up to year and roll up to university and slice on 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drill down to base cuboid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">roll up to department and drill down to student_id and slice on English </t>
+  </si>
+  <si>
+    <t>roll up to year and slice on 2012</t>
+  </si>
+  <si>
+    <t>roll up to year and roll up to university and slice on 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T = </t>
+  </si>
 </sst>
 </file>
 
@@ -1530,7 +1610,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1655,6 +1735,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1682,7 +1770,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1837,12 +1925,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1988,15 +2087,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3318,6 +3419,170 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88150C6-1053-4E6C-BA77-945E0DCF33CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1485900" y="7820025"/>
+          <a:ext cx="1028700" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AAE28C9-3A19-4664-BA3C-E628D629DB20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1466850" y="8391525"/>
+          <a:ext cx="1057275" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E06C5582-428C-4F00-BEAF-017BBC9DF9BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3905250" y="7772400"/>
+          <a:ext cx="1066800" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3374,7 +3639,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -3445,7 +3710,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3564,7 +3829,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3939,7 +4204,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3977,10 +4242,10 @@
         <v>213</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3988,7 +4253,7 @@
         <v>214</v>
       </c>
       <c r="B10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3996,10 +4261,10 @@
         <v>215</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4012,7 +4277,7 @@
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B13" t="s">
         <v>218</v>
@@ -4023,10 +4288,10 @@
         <v>219</v>
       </c>
       <c r="B14" t="s">
+        <v>385</v>
+      </c>
+      <c r="D14" t="s">
         <v>386</v>
-      </c>
-      <c r="D14" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4037,17 +4302,17 @@
         <v>221</v>
       </c>
       <c r="D15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -4089,7 +4354,7 @@
         <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F6" t="s">
         <v>116</v>
@@ -4100,7 +4365,7 @@
         <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F7" t="s">
         <v>118</v>
@@ -4111,7 +4376,7 @@
         <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4119,7 +4384,7 @@
         <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4127,7 +4392,7 @@
         <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4135,22 +4400,22 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -4158,7 +4423,7 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4166,7 +4431,7 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4174,19 +4439,19 @@
         <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4211,23 +4476,23 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D4" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D5" s="24">
         <v>1500</v>
@@ -4238,7 +4503,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D6" s="24">
         <v>2000</v>
@@ -4257,7 +4522,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4290,7 +4555,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -4300,108 +4565,108 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D25" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -4436,22 +4701,22 @@
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4471,7 +4736,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4496,7 +4761,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4506,25 +4771,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>333</v>
+      </c>
+      <c r="C21" t="s">
         <v>334</v>
-      </c>
-      <c r="C21" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H25" s="41">
         <f>((-9/14) * LOG((9/14),2)) - ((5/14)*LOG((5/14),2))</f>
@@ -4533,7 +4798,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4541,43 +4806,43 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="B35" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="C35" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="D35" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="E35" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="F35" s="40" t="s">
         <v>345</v>
       </c>
-      <c r="E35" s="40" t="s">
-        <v>368</v>
-      </c>
-      <c r="F35" s="40" t="s">
+      <c r="G35" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="G35" s="40" t="s">
+      <c r="H35" s="43" t="s">
         <v>347</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B36" s="24">
         <v>1</v>
@@ -4605,7 +4870,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B37" s="24">
         <v>2</v>
@@ -4633,7 +4898,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B38" s="24">
         <v>3</v>
@@ -4658,7 +4923,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
@@ -4692,14 +4957,14 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -4716,7 +4981,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -4724,7 +4989,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
@@ -4732,38 +4997,38 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B49" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="C49" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="D49" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="E49" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="F49" s="40" t="s">
         <v>345</v>
       </c>
-      <c r="E49" s="40" t="s">
-        <v>368</v>
-      </c>
-      <c r="F49" s="40" t="s">
+      <c r="G49" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="G49" s="40" t="s">
+      <c r="H49" s="43" t="s">
         <v>347</v>
-      </c>
-      <c r="H49" s="43" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B50" s="24">
         <v>1</v>
@@ -4791,7 +5056,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B51" s="24">
         <v>2</v>
@@ -4819,7 +5084,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B52" s="24">
         <v>3</v>
@@ -4879,14 +5144,14 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="46" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B58" s="46"/>
       <c r="C58" s="46"/>
@@ -4913,7 +5178,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
@@ -4927,30 +5192,30 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B63" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="C63" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="C63" s="40" t="s">
+      <c r="D63" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="D63" s="40" t="s">
-        <v>345</v>
-      </c>
       <c r="E63" s="40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F63" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="G63" s="40" t="s">
         <v>364</v>
-      </c>
-      <c r="G63" s="40" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B64" s="24">
         <v>1</v>
@@ -4976,7 +5241,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B65" s="24">
         <v>2</v>
@@ -5002,7 +5267,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="44" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B66" s="24">
         <v>3</v>
@@ -5042,7 +5307,7 @@
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
       <c r="E68" s="71" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F68" s="71"/>
       <c r="G68" s="48">
@@ -5072,7 +5337,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B72" s="71"/>
       <c r="C72" s="71"/>
@@ -5145,7 +5410,7 @@
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -5153,7 +5418,7 @@
     </row>
     <row r="3" spans="1:4" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -5161,12 +5426,12 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5186,52 +5451,52 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5284,7 +5549,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -5292,12 +5557,12 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -5338,7 +5603,7 @@
         <v>133</v>
       </c>
       <c r="K2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -5348,24 +5613,24 @@
     </row>
     <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B4" s="56">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B5" s="56">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6028,7 +6293,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6190,7 +6455,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6394,13 +6659,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B49" s="11">
         <v>5</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E49" s="11">
         <v>5</v>
@@ -6408,7 +6673,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6872,12 +7137,12 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7118,7 +7383,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -7304,31 +7569,31 @@
       <c r="B50" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="74" t="s">
+      <c r="C50" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
       <c r="H50" s="26" t="s">
         <v>175</v>
       </c>
       <c r="I50" s="26"/>
-      <c r="J50" s="74" t="s">
+      <c r="J50" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="K50" s="74"/>
+      <c r="K50" s="73"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51" s="24">
         <v>4</v>
       </c>
-      <c r="C51" s="73"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
       <c r="H51" s="75"/>
       <c r="I51" s="75"/>
       <c r="J51" s="75"/>
@@ -7338,11 +7603,11 @@
       <c r="B52" s="24">
         <v>5</v>
       </c>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
       <c r="H52" s="75"/>
       <c r="I52" s="75"/>
       <c r="J52" s="75"/>
@@ -7352,11 +7617,11 @@
       <c r="B53" s="24">
         <v>6</v>
       </c>
-      <c r="C53" s="73"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
       <c r="H53" s="75"/>
       <c r="I53" s="75"/>
       <c r="J53" s="75"/>
@@ -7389,61 +7654,61 @@
       <c r="B61" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C61" s="74" t="s">
+      <c r="C61" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="74"/>
-      <c r="J61" s="74" t="s">
+      <c r="D61" s="73"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="73"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="K61" s="74"/>
+      <c r="K61" s="73"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" s="24">
         <v>6</v>
       </c>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="73"/>
-      <c r="J62" s="73"/>
-      <c r="K62" s="73"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="74"/>
+      <c r="K62" s="74"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" s="24">
         <v>5</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="73"/>
-      <c r="J63" s="73"/>
-      <c r="K63" s="73"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="74"/>
+      <c r="K63" s="74"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="24">
         <v>4</v>
       </c>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
-      <c r="J64" s="73"/>
-      <c r="K64" s="73"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="74"/>
+      <c r="K64" s="74"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
@@ -7481,19 +7746,19 @@
       <c r="C74" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D74" s="74" t="s">
+      <c r="D74" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="74"/>
-      <c r="H74" s="74"/>
-      <c r="I74" s="74"/>
-      <c r="J74" s="74" t="s">
+      <c r="E74" s="73"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="73"/>
+      <c r="J74" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="K74" s="74"/>
-      <c r="L74" s="74"/>
+      <c r="K74" s="73"/>
+      <c r="L74" s="73"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B75" s="29" t="s">
@@ -7502,15 +7767,15 @@
       <c r="C75" s="24">
         <v>1</v>
       </c>
-      <c r="D75" s="73"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="73"/>
-      <c r="H75" s="73"/>
-      <c r="I75" s="73"/>
-      <c r="J75" s="73"/>
-      <c r="K75" s="73"/>
-      <c r="L75" s="73"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="74"/>
+      <c r="I75" s="74"/>
+      <c r="J75" s="74"/>
+      <c r="K75" s="74"/>
+      <c r="L75" s="74"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B76" s="29" t="s">
@@ -7519,15 +7784,15 @@
       <c r="C76" s="24">
         <v>1</v>
       </c>
-      <c r="D76" s="73"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="73"/>
-      <c r="I76" s="73"/>
-      <c r="J76" s="73"/>
-      <c r="K76" s="73"/>
-      <c r="L76" s="73"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="74"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="74"/>
+      <c r="J76" s="74"/>
+      <c r="K76" s="74"/>
+      <c r="L76" s="74"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B77" s="29" t="s">
@@ -7536,15 +7801,15 @@
       <c r="C77" s="24">
         <v>0</v>
       </c>
-      <c r="D77" s="73"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="73"/>
-      <c r="H77" s="73"/>
-      <c r="I77" s="73"/>
-      <c r="J77" s="73"/>
-      <c r="K77" s="73"/>
-      <c r="L77" s="73"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="74"/>
+      <c r="K77" s="74"/>
+      <c r="L77" s="74"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B78" s="29" t="s">
@@ -7553,15 +7818,15 @@
       <c r="C78" s="24">
         <v>0.19214789423111006</v>
       </c>
-      <c r="D78" s="73"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="73"/>
-      <c r="H78" s="73"/>
-      <c r="I78" s="73"/>
-      <c r="J78" s="73"/>
-      <c r="K78" s="73"/>
-      <c r="L78" s="73"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="74"/>
+      <c r="H78" s="74"/>
+      <c r="I78" s="74"/>
+      <c r="J78" s="74"/>
+      <c r="K78" s="74"/>
+      <c r="L78" s="74"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B79" s="29" t="s">
@@ -7570,15 +7835,15 @@
       <c r="C79" s="24">
         <v>-0.30588787655775207</v>
       </c>
-      <c r="D79" s="73"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="73"/>
-      <c r="G79" s="73"/>
-      <c r="H79" s="73"/>
-      <c r="I79" s="73"/>
-      <c r="J79" s="73"/>
-      <c r="K79" s="73"/>
-      <c r="L79" s="73"/>
+      <c r="D79" s="74"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="74"/>
+      <c r="G79" s="74"/>
+      <c r="H79" s="74"/>
+      <c r="I79" s="74"/>
+      <c r="J79" s="74"/>
+      <c r="K79" s="74"/>
+      <c r="L79" s="74"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B80" s="29" t="s">
@@ -7587,15 +7852,15 @@
       <c r="C80" s="24">
         <v>0.4</v>
       </c>
-      <c r="D80" s="73"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="73"/>
-      <c r="H80" s="73"/>
-      <c r="I80" s="73"/>
-      <c r="J80" s="73"/>
-      <c r="K80" s="73"/>
-      <c r="L80" s="73"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="74"/>
+      <c r="H80" s="74"/>
+      <c r="I80" s="74"/>
+      <c r="J80" s="74"/>
+      <c r="K80" s="74"/>
+      <c r="L80" s="74"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="29" t="s">
@@ -7604,15 +7869,15 @@
       <c r="C81" s="24">
         <v>0.1</v>
       </c>
-      <c r="D81" s="73"/>
-      <c r="E81" s="73"/>
-      <c r="F81" s="73"/>
-      <c r="G81" s="73"/>
-      <c r="H81" s="73"/>
-      <c r="I81" s="73"/>
-      <c r="J81" s="73"/>
-      <c r="K81" s="73"/>
-      <c r="L81" s="73"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="74"/>
+      <c r="H81" s="74"/>
+      <c r="I81" s="74"/>
+      <c r="J81" s="74"/>
+      <c r="K81" s="74"/>
+      <c r="L81" s="74"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="29" t="s">
@@ -7621,15 +7886,15 @@
       <c r="C82" s="24">
         <v>-0.50785210576888995</v>
       </c>
-      <c r="D82" s="73"/>
-      <c r="E82" s="73"/>
-      <c r="F82" s="73"/>
-      <c r="G82" s="73"/>
-      <c r="H82" s="73"/>
-      <c r="I82" s="73"/>
-      <c r="J82" s="73"/>
-      <c r="K82" s="73"/>
-      <c r="L82" s="73"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="74"/>
+      <c r="H82" s="74"/>
+      <c r="I82" s="74"/>
+      <c r="J82" s="74"/>
+      <c r="K82" s="74"/>
+      <c r="L82" s="74"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="29" t="s">
@@ -7638,15 +7903,15 @@
       <c r="C83" s="24">
         <v>0.19411212344224793</v>
       </c>
-      <c r="D83" s="73"/>
-      <c r="E83" s="73"/>
-      <c r="F83" s="73"/>
-      <c r="G83" s="73"/>
-      <c r="H83" s="73"/>
-      <c r="I83" s="73"/>
-      <c r="J83" s="73"/>
-      <c r="K83" s="73"/>
-      <c r="L83" s="73"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="74"/>
+      <c r="H83" s="74"/>
+      <c r="I83" s="74"/>
+      <c r="J83" s="74"/>
+      <c r="K83" s="74"/>
+      <c r="L83" s="74"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="29" t="s">
@@ -7655,15 +7920,15 @@
       <c r="C84" s="24">
         <v>-0.26082884634154524</v>
       </c>
-      <c r="D84" s="73"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="73"/>
-      <c r="H84" s="73"/>
-      <c r="I84" s="73"/>
-      <c r="J84" s="73"/>
-      <c r="K84" s="73"/>
-      <c r="L84" s="73"/>
+      <c r="D84" s="74"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="74"/>
+      <c r="H84" s="74"/>
+      <c r="I84" s="74"/>
+      <c r="J84" s="74"/>
+      <c r="K84" s="74"/>
+      <c r="L84" s="74"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="29" t="s">
@@ -7672,15 +7937,15 @@
       <c r="C85" s="24">
         <v>-0.13802506750700472</v>
       </c>
-      <c r="D85" s="73"/>
-      <c r="E85" s="73"/>
-      <c r="F85" s="73"/>
-      <c r="G85" s="73"/>
-      <c r="H85" s="73"/>
-      <c r="I85" s="73"/>
-      <c r="J85" s="73"/>
-      <c r="K85" s="73"/>
-      <c r="L85" s="73"/>
+      <c r="D85" s="74"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="74"/>
+      <c r="G85" s="74"/>
+      <c r="H85" s="74"/>
+      <c r="I85" s="74"/>
+      <c r="J85" s="74"/>
+      <c r="K85" s="74"/>
+      <c r="L85" s="74"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="30" t="s">
@@ -7689,15 +7954,15 @@
       <c r="C86" s="24">
         <v>-0.40785210576888997</v>
       </c>
-      <c r="D86" s="73"/>
-      <c r="E86" s="73"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="73"/>
-      <c r="I86" s="73"/>
-      <c r="J86" s="73"/>
-      <c r="K86" s="73"/>
-      <c r="L86" s="73"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="74"/>
+      <c r="G86" s="74"/>
+      <c r="H86" s="74"/>
+      <c r="I86" s="74"/>
+      <c r="J86" s="74"/>
+      <c r="K86" s="74"/>
+      <c r="L86" s="74"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="30" t="s">
@@ -7706,15 +7971,15 @@
       <c r="C87" s="24">
         <v>0.19411212344224793</v>
       </c>
-      <c r="D87" s="73"/>
-      <c r="E87" s="73"/>
-      <c r="F87" s="73"/>
-      <c r="G87" s="73"/>
-      <c r="H87" s="73"/>
-      <c r="I87" s="73"/>
-      <c r="J87" s="73"/>
-      <c r="K87" s="73"/>
-      <c r="L87" s="73"/>
+      <c r="D87" s="74"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="74"/>
+      <c r="H87" s="74"/>
+      <c r="I87" s="74"/>
+      <c r="J87" s="74"/>
+      <c r="K87" s="74"/>
+      <c r="L87" s="74"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="30" t="s">
@@ -7723,18 +7988,52 @@
       <c r="C88" s="24">
         <v>0.21805217039291008</v>
       </c>
-      <c r="D88" s="73"/>
-      <c r="E88" s="73"/>
-      <c r="F88" s="73"/>
-      <c r="G88" s="73"/>
-      <c r="H88" s="73"/>
-      <c r="I88" s="73"/>
-      <c r="J88" s="73"/>
-      <c r="K88" s="73"/>
-      <c r="L88" s="73"/>
+      <c r="D88" s="74"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="74"/>
+      <c r="H88" s="74"/>
+      <c r="I88" s="74"/>
+      <c r="J88" s="74"/>
+      <c r="K88" s="74"/>
+      <c r="L88" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="D87:I87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="D86:I86"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="J79:L79"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="J74:L74"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="C62:I62"/>
@@ -7750,40 +8049,6 @@
     <mergeCell ref="J53:K53"/>
     <mergeCell ref="C61:I61"/>
     <mergeCell ref="J61:K61"/>
-    <mergeCell ref="C63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="C64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="J74:L74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="J77:L77"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="J79:L79"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="D87:I87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="D86:I86"/>
-    <mergeCell ref="J86:L86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7803,7 +8068,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7839,7 +8104,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G4" t="s">
         <v>204</v>
@@ -7869,16 +8134,16 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D1" t="s">
         <v>403</v>
-      </c>
-      <c r="B1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -7932,7 +8197,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L4" s="24" t="s">
         <v>0</v>
@@ -7959,7 +8224,7 @@
       </c>
       <c r="K5" s="24"/>
       <c r="L5" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M5" s="24">
         <f>MEDIAN(A2:A26)</f>
@@ -7982,10 +8247,10 @@
         <v>1</v>
       </c>
       <c r="K6" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="L6" s="24" t="s">
         <v>395</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>396</v>
       </c>
       <c r="M6" s="24">
         <f>MODE(A2:A26)</f>
@@ -8009,7 +8274,7 @@
       </c>
       <c r="K7" s="24"/>
       <c r="L7" s="68" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M7" s="68"/>
     </row>
@@ -8029,10 +8294,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="L8" s="24" t="s">
         <v>398</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>399</v>
       </c>
       <c r="M8" s="24">
         <f>(MAX(A:A)-MIN(A:A))</f>
@@ -8055,10 +8320,10 @@
         <v>2</v>
       </c>
       <c r="K9" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>400</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>401</v>
       </c>
       <c r="M9" s="24">
         <v>25</v>
@@ -8081,7 +8346,7 @@
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M10" s="24">
         <v>48</v>
@@ -8103,10 +8368,10 @@
         <v>1</v>
       </c>
       <c r="K11" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="L11" s="24" t="s">
         <v>407</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>408</v>
       </c>
       <c r="M11" s="24">
         <v>14</v>
@@ -8129,7 +8394,7 @@
       </c>
       <c r="K12" s="24"/>
       <c r="L12" s="24" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M12" s="24">
         <v>25</v>
@@ -8152,7 +8417,7 @@
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M13" s="24">
         <v>37</v>
@@ -8175,7 +8440,7 @@
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="24" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M14" s="24">
         <v>48</v>
@@ -8198,7 +8463,7 @@
       </c>
       <c r="K15" s="24"/>
       <c r="L15" s="24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M15" s="24">
         <v>80</v>
@@ -8220,10 +8485,10 @@
         <v>4</v>
       </c>
       <c r="K16" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="L16" s="68" t="s">
         <v>410</v>
-      </c>
-      <c r="L16" s="68" t="s">
-        <v>411</v>
       </c>
       <c r="M16" s="68"/>
     </row>
@@ -8446,7 +8711,7 @@
         <v>81</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -8599,7 +8864,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C15" s="69"/>
       <c r="D15" s="69"/>
@@ -8612,7 +8877,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C16" s="69"/>
       <c r="D16" s="69"/>
@@ -8645,7 +8910,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -9359,7 +9624,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H7">
         <f>SUM(A2:A4)</f>
@@ -9370,7 +9635,7 @@
         <v>16.666666666666668</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -9381,7 +9646,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H8">
         <f>SUM(A5:A7)</f>
@@ -9392,7 +9657,7 @@
         <v>22.333333333333332</v>
       </c>
       <c r="J8" s="60" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -9403,7 +9668,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H9">
         <f>SUM(A8:A10)</f>
@@ -9414,7 +9679,7 @@
         <v>29.666666666666668</v>
       </c>
       <c r="J9" s="60" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -9425,7 +9690,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H10">
         <f>SUM(A11:A13)</f>
@@ -9436,7 +9701,7 @@
         <v>34</v>
       </c>
       <c r="J10" s="60" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9447,7 +9712,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H11">
         <f>SUM(A14:A16)</f>
@@ -9458,7 +9723,7 @@
         <v>37</v>
       </c>
       <c r="J11" s="60" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -9469,7 +9734,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H12">
         <f>SUM(A17:A19)</f>
@@ -9480,7 +9745,7 @@
         <v>46</v>
       </c>
       <c r="J12" s="60" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -9491,7 +9756,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H13">
         <f>SUM(A20:A22)</f>
@@ -9502,7 +9767,7 @@
         <v>48.666666666666664</v>
       </c>
       <c r="J13" s="60" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -9513,7 +9778,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H14">
         <f>SUM(A23:A25)</f>
@@ -9524,7 +9789,7 @@
         <v>69</v>
       </c>
       <c r="J14" s="60" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -9592,7 +9857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -9632,16 +9897,16 @@
         <v>61</v>
       </c>
       <c r="M2" s="66" t="s">
+        <v>432</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -9903,7 +10168,7 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M13" s="66">
         <v>2.4</v>
@@ -10071,7 +10336,7 @@
         <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M20" s="66">
         <v>2.5</v>
@@ -10171,7 +10436,7 @@
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M24" s="66">
         <v>2.6</v>
@@ -10223,7 +10488,7 @@
         <v>0.53</v>
       </c>
       <c r="F26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M26" s="66">
         <v>2.6</v>
@@ -10352,7 +10617,7 @@
         <v>56</v>
       </c>
       <c r="F32" s="59" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M32" s="66">
         <v>2.7</v>
@@ -10378,7 +10643,7 @@
         <v>57</v>
       </c>
       <c r="F33" s="67" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M33" s="66">
         <v>2.7</v>
@@ -10404,7 +10669,7 @@
         <v>58</v>
       </c>
       <c r="F34" s="59" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M34" s="66">
         <v>2.7</v>
@@ -12439,19 +12704,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD9730A-8100-48F4-8E66-D519E6FB08E9}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="4" customWidth="1"/>
     <col min="13" max="13" width="3.42578125" customWidth="1"/>
   </cols>
@@ -12468,7 +12735,7 @@
     </row>
     <row r="3" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="70" t="s">
-        <v>228</v>
+        <v>439</v>
       </c>
       <c r="D3" s="70"/>
       <c r="E3" s="70"/>
@@ -12479,12 +12746,17 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>230</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -12492,31 +12764,31 @@
         <v>227</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" t="s">
         <v>232</v>
-      </c>
-      <c r="E10" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" t="s">
         <v>234</v>
-      </c>
-      <c r="E11" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" t="s">
         <v>236</v>
-      </c>
-      <c r="E12" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -12526,40 +12798,40 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>89</v>
       </c>
@@ -12567,15 +12839,327 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>92</v>
       </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="77" t="s">
+        <v>442</v>
+      </c>
+      <c r="H32" s="77" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="H33" s="76" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="76" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34" s="77" t="s">
+        <v>445</v>
+      </c>
+      <c r="H34" s="76" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H35" s="76" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E36" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="77" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="77" t="s">
+        <v>443</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="76" t="s">
+        <v>238</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="76" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="76" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="76" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="76" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12583,21 +13167,23 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="94" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39ABA2D1-388C-4218-8BE1-29873196265A}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
@@ -12617,91 +13203,148 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="K33" t="s">
+        <v>454</v>
+      </c>
+      <c r="L33" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="K34" t="s">
+        <v>454</v>
+      </c>
+      <c r="L34" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+      <c r="K35" t="s">
+        <v>454</v>
+      </c>
+      <c r="L35" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="K36" t="s">
+        <v>454</v>
+      </c>
+      <c r="L36" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+      <c r="K37" t="s">
+        <v>454</v>
+      </c>
+      <c r="L37" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="35" t="s">
         <v>41</v>
       </c>
       <c r="B38" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K38" t="s">
+        <v>454</v>
+      </c>
+      <c r="L38" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="35" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K39" t="s">
+        <v>454</v>
+      </c>
+      <c r="L39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>454</v>
+      </c>
+      <c r="L40" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>391</v>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>458</v>
+      </c>
+      <c r="C46">
+        <f xml:space="preserve"> (3+1)*(3+1)+(6+1)*(3+1)</f>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -12726,22 +13369,22 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12751,32 +13394,32 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -12791,7 +13434,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -12822,7 +13465,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">

--- a/COMP300-HomeworkProblems-SP20.xlsx
+++ b/COMP300-HomeworkProblems-SP20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benlo\DataMining2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D4B0DF-0EB2-4490-8246-344579F5DCB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E72781E8-A15C-44DF-8F72-E500F6A00509}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20430" yWindow="75" windowWidth="7500" windowHeight="6000" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW Index" sheetId="38" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="HW Problem 9.1" sheetId="34" r:id="rId16"/>
     <sheet name="HW Problem 9.4- 9.6" sheetId="35" r:id="rId17"/>
     <sheet name="HW, Chapter 10" sheetId="36" r:id="rId18"/>
+    <sheet name="table_8_1" sheetId="45" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Problem 2.2'!$A$2:$A$26</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="609">
   <si>
     <t>Mean</t>
   </si>
@@ -1921,6 +1922,135 @@
   </si>
   <si>
     <t xml:space="preserve">The data appears neutrally associated because kulc and cosine are close to  0.5 however chi-square implies a positive association. </t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>credit_rating</t>
+  </si>
+  <si>
+    <t>buys_computer</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>middle age</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>gain ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info gain </t>
+  </si>
+  <si>
+    <t>looks like gini which makes sense because they both consider midpoint values for split points when deciding to split or not. Gini uses a binary split for each attribute though, which is different than the method used in information gain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks different than gini and info gain, which makes sense since it is determing splits differently than the other two. It is deciding to split based on potentital information gained by splitting on the attribute with the maximum gain. </t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>31-35</t>
+  </si>
+  <si>
+    <t>junior</t>
+  </si>
+  <si>
+    <t>26-30</t>
+  </si>
+  <si>
+    <t>systems</t>
+  </si>
+  <si>
+    <t>21-25</t>
+  </si>
+  <si>
+    <t>46-50</t>
+  </si>
+  <si>
+    <t>66-70</t>
+  </si>
+  <si>
+    <t>41-45</t>
+  </si>
+  <si>
+    <t>marketing</t>
+  </si>
+  <si>
+    <t>secretary</t>
+  </si>
+  <si>
+    <t>36-40</t>
+  </si>
+  <si>
+    <t>|senior|</t>
+  </si>
+  <si>
+    <t>|junior|</t>
+  </si>
+  <si>
+    <t>Info(D) = (-113/165)*log_2(113/165) -(52/165)*log_2(52/165)</t>
+  </si>
+  <si>
+    <t>value of department</t>
+  </si>
+  <si>
+    <t>#senior_j</t>
+  </si>
+  <si>
+    <t>#junior_j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GainRatio(A)= </t>
+  </si>
+  <si>
+    <t>Gain(A)</t>
+  </si>
+  <si>
+    <t>SplitInfo_A(D)</t>
+  </si>
+  <si>
+    <t>Gain_Dept = Info(D) -Info_Dept(D)</t>
+  </si>
+  <si>
+    <t>P=5</t>
+  </si>
+  <si>
+    <t>N=5</t>
   </si>
 </sst>
 </file>
@@ -2065,7 +2195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2093,6 +2223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2268,7 +2404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2402,6 +2538,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2416,17 +2557,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3018,6 +3172,187 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Problem 8.12  HW'!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TPR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Problem 8.12  HW'!$I$8:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Problem 8.12  HW'!$H$8:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-292F-4989-A223-71B6E59CBD79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="845367288"/>
+        <c:axId val="329453312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="845367288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="329453312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="329453312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="845367288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000095" r="0.70000000000000095" t="0.750000000000001" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3995,7 +4330,7 @@
         <xdr:cNvPr id="15" name="Group 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2F9046D-CD06-42D5-BAAF-CF0AE9697729}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4014,7 +4349,7 @@
           <xdr:cNvPr id="16" name="Flowchart: Process 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{222A52A3-0C19-4DEC-86B4-BFE8BC6DABD1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4057,7 +4392,7 @@
           <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A41341E-E62C-4362-9FD2-DC29C2D71FD9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4113,7 +4448,7 @@
         <xdr:cNvPr id="38" name="Group 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5330E957-E6A2-414C-987E-EA9107A3405C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4132,7 +4467,7 @@
           <xdr:cNvPr id="29" name="Flowchart: Process 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2BD59C2-4329-4227-B191-7DBEB86EE96B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4175,7 +4510,7 @@
           <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24263D87-C5D0-40A9-B1AC-8D9A54475BA1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4215,7 +4550,7 @@
           <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D91AF92-1A7E-42CA-AAFC-20C2CD695EFB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000021000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4271,7 +4606,7 @@
         <xdr:cNvPr id="51" name="Group 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8F8001-A4F7-4095-BA3D-C41800027D96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4290,7 +4625,7 @@
           <xdr:cNvPr id="6" name="Group 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB8658AC-4672-4983-B514-E235FB407C71}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4309,7 +4644,7 @@
             <xdr:cNvPr id="2" name="Flowchart: Process 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0A667E-98B4-4065-AD35-BEB30F568458}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4355,7 +4690,7 @@
             <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D91502-57BF-4DB9-9B21-799668D0E4BA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4396,7 +4731,7 @@
           <xdr:cNvPr id="9" name="Group 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C284DC-4E99-4AB2-9B0C-980C498B3A8B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4415,7 +4750,7 @@
             <xdr:cNvPr id="10" name="Flowchart: Process 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE019553-191D-4ED3-A556-B6797BC8B75F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4461,7 +4796,7 @@
             <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB5045C-6E26-41ED-A3B9-1E39CBEACF38}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4502,7 +4837,7 @@
           <xdr:cNvPr id="18" name="Group 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E2DEB8-06F5-49D7-89DB-A0E5460F0524}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4521,7 +4856,7 @@
             <xdr:cNvPr id="19" name="Flowchart: Process 18">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379818B6-DA38-4D1C-9668-55CAD0413F90}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000013000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4567,7 +4902,7 @@
             <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF26AB96-BF49-4FB3-9DE8-BFCBDF8880BF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000014000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4608,7 +4943,7 @@
           <xdr:cNvPr id="21" name="Group 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748846D7-848F-4DBD-BAB7-84DA3ADE065E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4627,7 +4962,7 @@
             <xdr:cNvPr id="22" name="Flowchart: Process 21">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC2FBDE-9F5E-4530-A806-73F3675BD13D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000016000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4673,7 +5008,7 @@
             <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6404232-4356-4C0C-954B-F8AEA9A94936}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000017000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4714,7 +5049,7 @@
           <xdr:cNvPr id="39" name="Group 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4053142C-28A6-4413-8055-F71AA116D926}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000027000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4733,7 +5068,7 @@
             <xdr:cNvPr id="40" name="Flowchart: Process 39">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC6A04FA-9B4A-4731-A7E8-AAD5CE0F9905}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000028000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4779,7 +5114,7 @@
             <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC62EEC-5CF7-45E6-8A08-9C9BCB6B6429}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000029000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4820,7 +5155,7 @@
           <xdr:cNvPr id="42" name="Group 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B91F9E6-BB58-4C20-A35E-B56FF9ACE9F5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00002A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4839,7 +5174,7 @@
             <xdr:cNvPr id="43" name="Flowchart: Process 42">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07629642-1B23-4967-A3F0-842278075F18}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00002B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4885,7 +5220,7 @@
             <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502BF9F3-1709-442D-B673-37F650F9ECAC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00002C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4926,7 +5261,7 @@
           <xdr:cNvPr id="45" name="Group 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA3012C-0F7D-4B31-B097-20C0D057F6EA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00002D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4945,7 +5280,7 @@
             <xdr:cNvPr id="46" name="Flowchart: Process 45">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA2BAB16-C1C1-480E-B20B-D5482BD41CFF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00002E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4991,7 +5326,7 @@
             <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED2D5DD-D304-4C4E-9A61-180747DCF65D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00002F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5032,7 +5367,7 @@
           <xdr:cNvPr id="49" name="Flowchart: Process 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3563A106-786C-473C-9115-A3D2F12AB51F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000031000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5094,7 +5429,7 @@
         <xdr:cNvPr id="85" name="Group 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5389670-E5B3-48EA-AAA2-578C679311AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5113,7 +5448,7 @@
           <xdr:cNvPr id="52" name="Group 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B379A2A1-5C9E-4B6D-83B8-9A7F160430F9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000034000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5132,7 +5467,7 @@
             <xdr:cNvPr id="53" name="Group 52">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CDE1AB-0DFE-4C74-AFD9-44AF282C3117}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000035000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5151,7 +5486,7 @@
               <xdr:cNvPr id="73" name="Flowchart: Process 72">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D4B687-B4FD-48B2-B4DB-33D5132F00E4}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000049000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5197,7 +5532,7 @@
               <xdr:cNvPr id="74" name="Straight Arrow Connector 73">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FBCA4CF-2F88-48B0-9CCA-92FA3D2398B1}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00004A000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5238,7 +5573,7 @@
             <xdr:cNvPr id="54" name="Group 53">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B8DC98D-370E-4FEE-9FE8-A4CBBC3CA1A0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000036000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5257,7 +5592,7 @@
               <xdr:cNvPr id="71" name="Flowchart: Process 70">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3B4520-6F84-416E-9477-F2D4AAF398F0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000047000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5303,7 +5638,7 @@
               <xdr:cNvPr id="72" name="Straight Arrow Connector 71">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9CD1F2-5D9A-4345-B3EF-49C7AD14348C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000048000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5344,7 +5679,7 @@
             <xdr:cNvPr id="55" name="Group 54">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0C22D9-C771-4C11-9667-66DC202B3B73}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000037000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5363,7 +5698,7 @@
               <xdr:cNvPr id="69" name="Flowchart: Process 68">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB08DD2F-C850-466A-BB16-808C1BD9F131}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000045000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5409,7 +5744,7 @@
               <xdr:cNvPr id="70" name="Straight Arrow Connector 69">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC1165B-24F5-4B30-8CAF-A373EE9153B8}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000046000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5450,7 +5785,7 @@
             <xdr:cNvPr id="56" name="Group 55">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37EFDC3E-6990-4D7E-8199-EC8327D9DA8D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000038000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5469,7 +5804,7 @@
               <xdr:cNvPr id="67" name="Flowchart: Process 66">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79337E1D-2ECD-4264-A13F-F0D57437D4BB}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000043000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5515,7 +5850,7 @@
               <xdr:cNvPr id="68" name="Straight Arrow Connector 67">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048F0B32-443F-4E80-B2C9-37A711F0900B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000044000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5556,7 +5891,7 @@
             <xdr:cNvPr id="57" name="Group 56">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EFD9F73-3DB8-4E1C-99AE-C386B6AFD18B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000039000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5575,7 +5910,7 @@
               <xdr:cNvPr id="65" name="Flowchart: Process 64">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71935223-DB27-4C36-B041-41E8D1511F6C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000041000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5621,7 +5956,7 @@
               <xdr:cNvPr id="66" name="Straight Arrow Connector 65">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B00A569-8B49-49BC-B378-29B050E794AF}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000042000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5662,7 +5997,7 @@
             <xdr:cNvPr id="58" name="Group 57">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA690F4-898E-47B3-A5F6-3CA25D72DC7C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00003A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5681,7 +6016,7 @@
               <xdr:cNvPr id="63" name="Flowchart: Process 62">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2132BA-E34D-4ACF-9E4D-55D915881676}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00003F000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5727,7 +6062,7 @@
               <xdr:cNvPr id="64" name="Straight Arrow Connector 63">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19767562-C8E3-442B-967C-E3458E0B5FE0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000040000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5769,7 +6104,7 @@
             <xdr:cNvPr id="59" name="Group 58">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA58FD41-B4A1-46DA-8AF4-0B702F82D9E2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00003B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5788,7 +6123,7 @@
               <xdr:cNvPr id="61" name="Flowchart: Process 60">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAEB7E0F-727A-4EFC-90AA-75679AA6DC24}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00003D000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5834,7 +6169,7 @@
               <xdr:cNvPr id="62" name="Straight Arrow Connector 61">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C28BB563-ACA6-47CA-A50C-35D3A6EC519A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00003E000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5876,7 +6211,7 @@
             <xdr:cNvPr id="60" name="Flowchart: Process 59">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{005C9019-9104-4C0C-9113-F2F19071FFE7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00003C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5923,7 +6258,7 @@
           <xdr:cNvPr id="80" name="Group 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F164637A-878D-475E-BD97-1030FDA8D558}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000050000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5942,7 +6277,7 @@
             <xdr:cNvPr id="81" name="Flowchart: Process 80">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF8CC90-D655-45FD-8779-BBD8AB3CB985}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000051000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5988,7 +6323,7 @@
             <xdr:cNvPr id="82" name="Straight Arrow Connector 81">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF35752D-05E4-406E-B528-F07F81B70105}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000052000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6046,7 +6381,7 @@
         <xdr:cNvPr id="161" name="Straight Connector 160">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7584005E-CF60-42C7-AE96-B32BA270E91F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000A1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6099,7 +6434,7 @@
         <xdr:cNvPr id="180" name="Group 179">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D3A44D-B1ED-4608-82D4-B521906AA8A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000B4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6118,7 +6453,7 @@
           <xdr:cNvPr id="86" name="Group 85">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DC0C9C-E624-44AC-91BD-C0F211530147}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000056000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6137,7 +6472,7 @@
             <xdr:cNvPr id="87" name="Group 86">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C75DB5-FA42-46D1-B88F-F1B828DC88A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000057000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6156,7 +6491,7 @@
               <xdr:cNvPr id="91" name="Group 90">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84297690-188A-4DCA-ABB6-6D18696C67E1}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00005B000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -6175,7 +6510,7 @@
                 <xdr:cNvPr id="111" name="Flowchart: Process 110">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C99FD0F-DD9D-4E33-9C1B-76C23A274F37}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00006F000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -6221,7 +6556,7 @@
                 <xdr:cNvPr id="112" name="Straight Arrow Connector 111">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4655E8E-EE56-436E-BCA7-BB7ECAC22E86}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000070000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -6263,7 +6598,7 @@
               <xdr:cNvPr id="92" name="Group 91">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A2D385-524C-4D21-8B30-9375D0796AFC}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00005C000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -6282,7 +6617,7 @@
                 <xdr:cNvPr id="109" name="Flowchart: Process 108">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4781CB-7C77-4F3F-A377-88899892F229}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00006D000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -6328,7 +6663,7 @@
                 <xdr:cNvPr id="110" name="Straight Arrow Connector 109">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9437C06B-8C98-433E-BD4B-3400D196819B}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00006E000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -6370,7 +6705,7 @@
               <xdr:cNvPr id="93" name="Group 92">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974A95D6-D71E-4C8B-AFFF-296FFB9E361F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00005D000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -6389,7 +6724,7 @@
                 <xdr:cNvPr id="107" name="Flowchart: Process 106">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D8BB29B-4089-4485-8D71-97395364D61D}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00006B000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -6435,7 +6770,7 @@
                 <xdr:cNvPr id="108" name="Straight Arrow Connector 107">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775BE8F7-651F-47AE-94ED-A5EED73233F3}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00006C000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -6477,7 +6812,7 @@
               <xdr:cNvPr id="94" name="Group 93">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDBA8541-A6FF-4A68-A0DF-6C55BDB3CB4D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00005E000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -6496,7 +6831,7 @@
                 <xdr:cNvPr id="105" name="Flowchart: Process 104">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6738AD-F804-4CD8-8BE5-0FD646D6F992}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000069000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -6542,7 +6877,7 @@
                 <xdr:cNvPr id="106" name="Straight Arrow Connector 105">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0DCBF31-9C0F-4E9A-B01D-70C14D59F354}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00006A000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -6584,7 +6919,7 @@
               <xdr:cNvPr id="95" name="Group 94">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{261051F6-21C7-405D-B5E6-8CBBDFB2C939}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00005F000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -6603,7 +6938,7 @@
                 <xdr:cNvPr id="103" name="Flowchart: Process 102">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2E8E39-C0CA-4954-A3E1-1CDB86162F8A}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000067000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -6649,7 +6984,7 @@
                 <xdr:cNvPr id="104" name="Straight Arrow Connector 103">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6B1E1C-0C6F-4B20-9E3F-F1676900F5B9}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000068000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -6691,7 +7026,7 @@
               <xdr:cNvPr id="96" name="Group 95">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F8CC61-151B-4AF7-BCD6-545F5E215FF0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000060000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -6710,7 +7045,7 @@
                 <xdr:cNvPr id="101" name="Flowchart: Process 100">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF995AC9-7E10-46B9-892B-CA9C623F0011}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000065000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -6756,7 +7091,7 @@
                 <xdr:cNvPr id="102" name="Straight Arrow Connector 101">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B2F5CD-D28B-48A6-A886-27F929BB57BA}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000066000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -6798,7 +7133,7 @@
               <xdr:cNvPr id="97" name="Group 96">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A69BB75-ADE3-4D4E-8296-571619F52C5A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000061000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -6817,7 +7152,7 @@
                 <xdr:cNvPr id="99" name="Flowchart: Process 98">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B2FC8E-4772-4282-AE06-D35D575E15B2}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000063000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -6863,7 +7198,7 @@
                 <xdr:cNvPr id="100" name="Straight Arrow Connector 99">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD8FC9D-A3C6-4C5D-90A8-1D7FA5E40EED}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000064000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -6905,7 +7240,7 @@
               <xdr:cNvPr id="98" name="Flowchart: Process 97">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7088C59-F286-4AC7-8086-1E9A0D763066}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000062000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -6952,7 +7287,7 @@
             <xdr:cNvPr id="88" name="Group 87">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{193DCFA8-BB64-4C94-80FC-CA6A8F17DBBF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000058000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6971,7 +7306,7 @@
               <xdr:cNvPr id="89" name="Flowchart: Process 88">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4880747-DD6F-43DE-B412-98D6DB0C4457}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000059000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7017,7 +7352,7 @@
               <xdr:cNvPr id="90" name="Straight Arrow Connector 89">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC0FA5D7-1AFC-4A56-91D6-15A2AA539BE7}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00005A000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7060,7 +7395,7 @@
           <xdr:cNvPr id="139" name="Group 138">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0ED5D0-C86C-47A5-BF09-3CE0E06B43FD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00008B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7079,7 +7414,7 @@
             <xdr:cNvPr id="140" name="Flowchart: Process 139">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBAFCED3-E3C0-4295-8DF1-72B39D465C97}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00008C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7125,7 +7460,7 @@
             <xdr:cNvPr id="141" name="Straight Arrow Connector 140">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9951CCAD-FA95-4255-B7F6-BD9E162D6FC4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00008D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7167,7 +7502,7 @@
           <xdr:cNvPr id="142" name="Straight Arrow Connector 141">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73873F7B-61A7-4C79-9B63-A939120C3B84}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00008E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7208,7 +7543,7 @@
           <xdr:cNvPr id="146" name="Group 145">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB6C7A6-E490-44D3-9483-F37B091446D6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000092000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7227,7 +7562,7 @@
             <xdr:cNvPr id="147" name="Flowchart: Process 146">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF0E725D-A8AD-4B82-9C1F-F798F06AA098}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000093000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7273,7 +7608,7 @@
             <xdr:cNvPr id="148" name="Straight Arrow Connector 147">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7542CAF3-A419-4DC2-8146-F619CB78B7FD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000094000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7315,7 +7650,7 @@
           <xdr:cNvPr id="150" name="Group 149">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE68DD38-EF74-44A6-8A07-99A625359278}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000096000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7334,7 +7669,7 @@
             <xdr:cNvPr id="151" name="Flowchart: Process 150">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6881355-1E7E-48A6-BC77-758ECAC6D0CD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000097000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7380,7 +7715,7 @@
             <xdr:cNvPr id="152" name="Straight Arrow Connector 151">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2449A52-1E30-46B3-91D0-E136D265FD7F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000098000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7422,7 +7757,7 @@
           <xdr:cNvPr id="154" name="Group 153">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1692612F-CEA2-465D-8357-7B67C129DC88}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00009A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7441,7 +7776,7 @@
             <xdr:cNvPr id="155" name="Flowchart: Process 154">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6FD311-A0BE-4D0B-B104-D7005841BC49}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00009B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7487,7 +7822,7 @@
             <xdr:cNvPr id="156" name="Straight Arrow Connector 155">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EFB04A-7B41-45C1-B8A0-E213DEB1413B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00009C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7529,7 +7864,7 @@
           <xdr:cNvPr id="159" name="Straight Connector 158">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4803E54-EB25-47D2-AB64-78FC19255D7C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00009F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7570,7 +7905,7 @@
           <xdr:cNvPr id="163" name="Straight Connector 162">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7848F45C-7FB0-4E47-9111-3FC7016D0682}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000A3000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7611,7 +7946,7 @@
           <xdr:cNvPr id="166" name="Straight Connector 165">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6403C26B-2871-440C-A2C3-35F81334822A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000A6000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7652,7 +7987,7 @@
           <xdr:cNvPr id="170" name="Straight Connector 169">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA329EB7-5084-460E-9C69-37915511FBEB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000AA000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7693,7 +8028,7 @@
           <xdr:cNvPr id="174" name="Flowchart: Process 173">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F60D6F-BC60-4A8B-9C6B-4AA98B5E9869}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000AE000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7739,7 +8074,7 @@
           <xdr:cNvPr id="177" name="Straight Connector 176">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3582E935-788B-4ED3-AFAD-CE974845FE3D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000B1000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7796,7 +8131,7 @@
         <xdr:cNvPr id="239" name="Group 238">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3653923D-FF45-4BC9-99F2-8F98CE150911}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000EF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7815,7 +8150,7 @@
           <xdr:cNvPr id="181" name="Group 180">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AEE1D02-0A9B-4CCC-B0BF-48427A5E7D83}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000B5000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7834,7 +8169,7 @@
             <xdr:cNvPr id="182" name="Group 181">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D92AD8-5DB9-4CE5-9A98-37256128B24A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000B6000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7853,7 +8188,7 @@
               <xdr:cNvPr id="202" name="Group 201">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA2036E-C8C0-4554-A298-AF55402F5EA7}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000CA000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7872,7 +8207,7 @@
                 <xdr:cNvPr id="206" name="Group 205">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0EE8D24-7873-46FE-95E5-020A4415377E}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000CE000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -7891,7 +8226,7 @@
                   <xdr:cNvPr id="226" name="Flowchart: Process 225">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C8C8D4-28EC-42BF-90AE-51A61CF2F7CC}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000E2000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -7937,7 +8272,7 @@
                   <xdr:cNvPr id="227" name="Straight Arrow Connector 226">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73262406-20CB-4AE2-AACC-CFC8112A42D7}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000E3000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -7979,7 +8314,7 @@
                 <xdr:cNvPr id="207" name="Group 206">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E28323B-4BE5-49B0-8E3C-8B20EDE4B1D8}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000CF000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -7998,7 +8333,7 @@
                   <xdr:cNvPr id="224" name="Flowchart: Process 223">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D9C95AD-FEF7-44E5-B598-D43B2E4AE745}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000E0000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -8044,7 +8379,7 @@
                   <xdr:cNvPr id="225" name="Straight Arrow Connector 224">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48ACC09-689B-4C4F-9879-AA38DD61998F}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000E1000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -8086,7 +8421,7 @@
                 <xdr:cNvPr id="208" name="Group 207">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{700D994D-B8F1-4D59-A140-320356A090B3}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000D0000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -8105,7 +8440,7 @@
                   <xdr:cNvPr id="222" name="Flowchart: Process 221">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733ADDB1-5162-446F-BB9B-55C27B143C0B}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000DE000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -8151,7 +8486,7 @@
                   <xdr:cNvPr id="223" name="Straight Arrow Connector 222">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC9CD37A-266A-4278-8F02-52DAD20D5638}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000DF000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -8193,7 +8528,7 @@
                 <xdr:cNvPr id="209" name="Group 208">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE89A63D-C915-4752-B623-B653ED9E6C76}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000D1000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -8212,7 +8547,7 @@
                   <xdr:cNvPr id="220" name="Flowchart: Process 219">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADA4A9B-8BBE-46D2-AC10-486E5F6E4D17}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000DC000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -8258,7 +8593,7 @@
                   <xdr:cNvPr id="221" name="Straight Arrow Connector 220">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0928906E-0DE8-4AC7-BAA8-60FE780A6FEC}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000DD000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -8300,7 +8635,7 @@
                 <xdr:cNvPr id="210" name="Group 209">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237B6BA6-87C9-4344-8157-C64A33284C8C}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000D2000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -8319,7 +8654,7 @@
                   <xdr:cNvPr id="218" name="Flowchart: Process 217">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E4F0255-1752-47DB-B7B9-52CC7ED98561}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000DA000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -8365,7 +8700,7 @@
                   <xdr:cNvPr id="219" name="Straight Arrow Connector 218">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DDDD41D-C1FE-4E7A-950A-4525F81F88BF}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000DB000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -8407,7 +8742,7 @@
                 <xdr:cNvPr id="211" name="Group 210">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29915EA4-6FFC-44A5-A1F8-4D05460B2EE6}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000D3000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -8426,7 +8761,7 @@
                   <xdr:cNvPr id="216" name="Flowchart: Process 215">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC0DB044-2DFE-48A3-9519-850F81EBD660}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000D8000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -8472,7 +8807,7 @@
                   <xdr:cNvPr id="217" name="Straight Arrow Connector 216">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2EB5763-376F-418C-B098-2A9E536302BA}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000D9000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -8514,7 +8849,7 @@
                 <xdr:cNvPr id="212" name="Group 211">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4249FA-5F2D-45B7-A548-DCCBBD1E6796}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000D4000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -8533,7 +8868,7 @@
                   <xdr:cNvPr id="214" name="Flowchart: Process 213">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E24604EB-9E45-4618-A232-459F190AB6A5}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000D6000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -8579,7 +8914,7 @@
                   <xdr:cNvPr id="215" name="Straight Arrow Connector 214">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47760634-04D5-4206-BD30-A96F3801C41A}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000D7000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -8621,7 +8956,7 @@
                 <xdr:cNvPr id="213" name="Flowchart: Process 212">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA33CFD5-0CD8-4784-802D-56ACEF715F55}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000D5000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -8668,7 +9003,7 @@
               <xdr:cNvPr id="203" name="Group 202">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B4F581-214B-4E92-BADE-FC609E247B2C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000CB000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -8687,7 +9022,7 @@
                 <xdr:cNvPr id="204" name="Flowchart: Process 203">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B869DE-4CA4-401D-9CE6-FEF23F6F7B29}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000CC000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -8733,7 +9068,7 @@
                 <xdr:cNvPr id="205" name="Straight Arrow Connector 204">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5D9218-C732-4764-B2D2-C8A6E94D9440}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000CD000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -8776,7 +9111,7 @@
             <xdr:cNvPr id="183" name="Group 182">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60CC898A-0DBD-40B6-A26E-E501D359C53F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000B7000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8795,7 +9130,7 @@
               <xdr:cNvPr id="200" name="Flowchart: Process 199">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D1ABA53-3BAE-40AE-B851-76A2DDD34DD1}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000C8000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -8841,7 +9176,7 @@
               <xdr:cNvPr id="201" name="Straight Arrow Connector 200">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2867654C-59A5-4116-B481-0FBF81CA969C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000C9000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -8883,7 +9218,7 @@
             <xdr:cNvPr id="184" name="Straight Arrow Connector 183">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{950108CB-6572-402A-ABC6-11EB413DC429}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000B8000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8924,7 +9259,7 @@
             <xdr:cNvPr id="185" name="Group 184">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE5B2A8-ED09-4FA5-9B6A-EB115A297B92}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000B9000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8943,7 +9278,7 @@
               <xdr:cNvPr id="198" name="Flowchart: Process 197">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A9A280-3DC9-4160-8128-9A9BAEBFA6E6}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000C6000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -8989,7 +9324,7 @@
               <xdr:cNvPr id="199" name="Straight Arrow Connector 198">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C67C7E4E-797D-4DE8-926F-D2593F3CDB4C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000C7000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9031,7 +9366,7 @@
             <xdr:cNvPr id="186" name="Group 185">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48BC508-15D4-4DBA-93CC-C872AC04FD4A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000BA000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9050,7 +9385,7 @@
               <xdr:cNvPr id="196" name="Flowchart: Process 195">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A465939F-252B-475C-9899-D2B687DD57F2}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000C4000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9096,7 +9431,7 @@
               <xdr:cNvPr id="197" name="Straight Arrow Connector 196">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA566237-94AF-4FD6-ADFB-65FFFC45830A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000C5000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9138,7 +9473,7 @@
             <xdr:cNvPr id="187" name="Group 186">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E44C3E1-40DA-4D4A-A029-F2172DA8A27D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000BB000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9157,7 +9492,7 @@
               <xdr:cNvPr id="194" name="Flowchart: Process 193">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715F110E-CC26-43F5-896B-9DEBBDFCE8C0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000C2000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9203,7 +9538,7 @@
               <xdr:cNvPr id="195" name="Straight Arrow Connector 194">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F905900-2944-42E9-B60E-FD7335834C4F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000C3000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9245,7 +9580,7 @@
             <xdr:cNvPr id="188" name="Straight Connector 187">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A87613E-463A-4B86-A84C-3BC4FADCB275}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000BC000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9286,7 +9621,7 @@
             <xdr:cNvPr id="189" name="Straight Connector 188">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8619173-1D58-48E2-9326-8F699C85CB2C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000BD000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9327,7 +9662,7 @@
             <xdr:cNvPr id="190" name="Straight Connector 189">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{984829C6-FAD3-4B80-A0EA-58784025EE9B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000BE000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9368,7 +9703,7 @@
             <xdr:cNvPr id="191" name="Straight Connector 190">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BB55BDB-FD1C-463B-A74A-D6B021247276}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000BF000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9409,7 +9744,7 @@
             <xdr:cNvPr id="192" name="Flowchart: Process 191">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD3FD02-2B93-4C4B-9487-1EF89B533541}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000C0000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9455,7 +9790,7 @@
             <xdr:cNvPr id="193" name="Straight Connector 192">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5D000DF-365F-47FA-B707-598B568610E6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000C1000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9497,7 +9832,7 @@
           <xdr:cNvPr id="228" name="Flowchart: Process 227">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF131689-AD80-4CA8-9F2A-AE9217D1F1CD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000E4000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9543,7 +9878,7 @@
           <xdr:cNvPr id="230" name="Straight Arrow Connector 229">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{275E4073-DC9D-482F-A372-5AA6B05DA8FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000E6000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9600,7 +9935,7 @@
         <xdr:cNvPr id="236" name="Straight Connector 235">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE4F4EB0-1348-45B8-B3E9-89540C3A30D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000EC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9656,7 +9991,7 @@
         <xdr:cNvPr id="268" name="Group 267">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD17FA5D-79E3-4A91-94E9-3B237A2AEA8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9675,7 +10010,7 @@
           <xdr:cNvPr id="288" name="Flowchart: Process 287">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06754E73-CD35-41EA-9A56-D4C16AAF0F92}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000020010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9721,7 +10056,7 @@
           <xdr:cNvPr id="289" name="Straight Arrow Connector 288">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8F2E59-9078-4CD8-B22B-D3D24B92BDB2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000021010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9778,7 +10113,7 @@
         <xdr:cNvPr id="269" name="Group 268">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED299239-F8A4-4E0A-B609-15CBBA71AC1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9797,7 +10132,7 @@
           <xdr:cNvPr id="286" name="Flowchart: Process 285">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF0491D-37EF-42ED-A54C-50B3F518BE12}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001E010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9843,7 +10178,7 @@
           <xdr:cNvPr id="287" name="Straight Arrow Connector 286">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C44E2C-A1A4-4E79-8721-C71896972072}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001F010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9900,7 +10235,7 @@
         <xdr:cNvPr id="270" name="Group 269">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24201D0-F2C9-4E49-93A1-4F6B1B6D1F3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9919,7 +10254,7 @@
           <xdr:cNvPr id="284" name="Flowchart: Process 283">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97D76BC0-04FF-423C-9543-B992DB85D64F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001C010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9965,7 +10300,7 @@
           <xdr:cNvPr id="285" name="Straight Arrow Connector 284">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE466D2-3234-4712-87AA-8E89668429A6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001D010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10022,7 +10357,7 @@
         <xdr:cNvPr id="271" name="Group 270">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E39CFB66-5775-4594-B513-AFC93E3E6834}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10041,7 +10376,7 @@
           <xdr:cNvPr id="282" name="Flowchart: Process 281">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3E8417A-5B4F-4115-90EE-0F0601C5443B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001A010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10087,7 +10422,7 @@
           <xdr:cNvPr id="283" name="Straight Arrow Connector 282">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E1E258-9433-41AA-AD27-2EC017B0684C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001B010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10144,7 +10479,7 @@
         <xdr:cNvPr id="272" name="Group 271">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631B20AD-11F7-4A94-B183-2173DC714E66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000010010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10163,7 +10498,7 @@
           <xdr:cNvPr id="280" name="Flowchart: Process 279">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27C5025-1D51-4D3A-9F58-9BD7924365FD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000018010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10209,7 +10544,7 @@
           <xdr:cNvPr id="281" name="Straight Arrow Connector 280">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D63C323-FB53-4BC8-AAD7-B03F92202F8E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000019010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10266,7 +10601,7 @@
         <xdr:cNvPr id="273" name="Group 272">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75FBE6F-CCB4-491B-8BB5-D0681BA1D617}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000011010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10285,7 +10620,7 @@
           <xdr:cNvPr id="278" name="Flowchart: Process 277">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A83BFA3-0D18-40FC-B94A-07CC211E2AC5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000016010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10331,7 +10666,7 @@
           <xdr:cNvPr id="279" name="Straight Arrow Connector 278">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A31A7E97-B1CD-4ADF-823F-23E0CEAD065C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000017010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10388,7 +10723,7 @@
         <xdr:cNvPr id="274" name="Group 273">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4F1D25A-0EF1-4D73-896B-7EA4AAF90768}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000012010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10407,7 +10742,7 @@
           <xdr:cNvPr id="276" name="Flowchart: Process 275">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5768752-0265-4252-AF47-CE1F6ABCE85F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000014010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10453,7 +10788,7 @@
           <xdr:cNvPr id="277" name="Straight Arrow Connector 276">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFFC2E2D-BEE2-4430-8E8E-72A3EB3060C7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000015010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10510,7 +10845,7 @@
         <xdr:cNvPr id="275" name="Flowchart: Process 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8ECFDA-84DE-4BE4-8C52-C612F493D011}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000013010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10571,7 +10906,7 @@
         <xdr:cNvPr id="265" name="Group 264">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B2EFA1-FB31-4F15-BE5E-C46768F790D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10590,7 +10925,7 @@
           <xdr:cNvPr id="266" name="Flowchart: Process 265">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7463DC3B-46CB-4608-B175-19C937FA2BC9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000A010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10636,7 +10971,7 @@
           <xdr:cNvPr id="267" name="Straight Arrow Connector 266">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C09F4D9-3B19-4D39-AB1A-72D14AC82E66}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000B010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10693,7 +11028,7 @@
         <xdr:cNvPr id="245" name="Group 244">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E74468-4AEE-4B52-B082-CD1A71D8B3E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000F5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10712,7 +11047,7 @@
           <xdr:cNvPr id="262" name="Flowchart: Process 261">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C983A54-B9D9-454B-94AE-9B933DCA7C05}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10758,7 +11093,7 @@
           <xdr:cNvPr id="263" name="Straight Arrow Connector 262">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782293F3-9239-414D-949E-9F672ED96EC7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000007010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10815,7 +11150,7 @@
         <xdr:cNvPr id="246" name="Straight Arrow Connector 245">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6437359-1712-4F15-8CE8-E1B429A94E21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000F6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10871,7 +11206,7 @@
         <xdr:cNvPr id="247" name="Group 246">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58EDCE32-13EF-4F9E-8B05-ADFF4F4B2332}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000F7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10890,7 +11225,7 @@
           <xdr:cNvPr id="260" name="Flowchart: Process 259">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A07D57-5F62-4EF1-801F-9C345B412109}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10936,7 +11271,7 @@
           <xdr:cNvPr id="261" name="Straight Arrow Connector 260">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F605FEA-E0DD-410F-B57F-51DF358B5BA2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10993,7 +11328,7 @@
         <xdr:cNvPr id="248" name="Group 247">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{183FF069-14F4-494B-ADAA-6FF90A8449F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000F8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11012,7 +11347,7 @@
           <xdr:cNvPr id="258" name="Flowchart: Process 257">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8836C6FB-AEDA-4A7A-8AD8-8E8458569343}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11058,7 +11393,7 @@
           <xdr:cNvPr id="259" name="Straight Arrow Connector 258">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E57CA22-C566-4DD8-A16B-DB9FA88833CE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11115,7 +11450,7 @@
         <xdr:cNvPr id="249" name="Group 248">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{533243F8-F131-456C-A3B7-C1BDF1627429}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000F9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11134,7 +11469,7 @@
           <xdr:cNvPr id="256" name="Flowchart: Process 255">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8FA65A0-EADB-45FA-BE76-0776F1856D55}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000000010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11180,7 +11515,7 @@
           <xdr:cNvPr id="257" name="Straight Arrow Connector 256">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DFC715F-FDC2-4AAD-9940-31FF399E664C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000001010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11237,7 +11572,7 @@
         <xdr:cNvPr id="250" name="Straight Connector 249">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECEBCBF4-9829-437E-B9BC-17922A416669}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000FA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11293,7 +11628,7 @@
         <xdr:cNvPr id="251" name="Straight Connector 250">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBAE73BA-6FD9-4FE4-AF2E-30A02339D026}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000FB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11349,7 +11684,7 @@
         <xdr:cNvPr id="252" name="Straight Connector 251">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B528096E-952B-49DC-9AC9-3B5F6A7C86C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000FC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11405,7 +11740,7 @@
         <xdr:cNvPr id="253" name="Straight Connector 252">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C59E638-2BD1-4E72-B63C-EF3EC8202FA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000FD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11461,7 +11796,7 @@
         <xdr:cNvPr id="254" name="Flowchart: Process 253">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D661E500-A044-4462-8E33-96523A0A2AD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000FE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11522,7 +11857,7 @@
         <xdr:cNvPr id="255" name="Straight Connector 254">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38252BA5-1C39-45CD-98E1-D8797385471F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000FF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11578,7 +11913,7 @@
         <xdr:cNvPr id="242" name="Flowchart: Process 241">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43A29FE-C70A-4725-BB85-A8E4B3C0F5C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000F2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11639,7 +11974,7 @@
         <xdr:cNvPr id="243" name="Straight Arrow Connector 242">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F17CC97-BF85-47DE-9CD8-BD67BA3982B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000F3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11695,7 +12030,7 @@
         <xdr:cNvPr id="290" name="Flowchart: Process 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B27A5300-A1CD-4B50-A8DF-1E0F22150B85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000022010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11761,7 +12096,7 @@
         <xdr:cNvPr id="291" name="Straight Arrow Connector 290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828E9FEF-FDFA-400C-8087-835CF8A8B73A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000023010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11817,7 +12152,7 @@
         <xdr:cNvPr id="292" name="Straight Arrow Connector 291">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72401A45-9AAA-4218-9147-79D7770BF4C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000024010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11873,7 +12208,7 @@
         <xdr:cNvPr id="335" name="Flowchart: Process 334">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2790BBEE-456F-4C51-A5B7-5D6EC3F798B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00004F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11934,7 +12269,7 @@
         <xdr:cNvPr id="338" name="Flowchart: Process 337">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{605EE9FD-8684-4A16-AC79-691D85B48641}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000052010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11996,7 +12331,7 @@
         <xdr:cNvPr id="339" name="Straight Arrow Connector 338">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302332C4-00B5-471A-8B9E-3CD0091C7F65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000053010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12052,7 +12387,7 @@
         <xdr:cNvPr id="343" name="Straight Connector 342">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B18A3E7-510A-4D6D-B162-3FB1E9FB4C48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000057010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12108,7 +12443,7 @@
         <xdr:cNvPr id="346" name="Straight Connector 345">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D59D0B2-A4E7-4266-8B66-F6D51982143A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00005A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12164,7 +12499,7 @@
         <xdr:cNvPr id="349" name="Straight Connector 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88EAAA61-533B-4A87-8D07-ED24DBE79860}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00005D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12396,6 +12731,49 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{123B80AE-D5F9-4252-8696-B872F55F900B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -13054,10 +13432,10 @@
       <c r="F25" s="24">
         <v>4</v>
       </c>
-      <c r="H25" s="78" t="s">
+      <c r="H25" s="71" t="s">
         <v>471</v>
       </c>
-      <c r="I25" s="78">
+      <c r="I25" s="71">
         <v>3</v>
       </c>
       <c r="K25" s="24" t="s">
@@ -13068,10 +13446,10 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="71" t="s">
         <v>460</v>
       </c>
-      <c r="C26" s="78">
+      <c r="C26" s="71">
         <v>4</v>
       </c>
       <c r="E26" s="24" t="s">
@@ -13080,10 +13458,10 @@
       <c r="F26" s="24">
         <v>4</v>
       </c>
-      <c r="H26" s="78" t="s">
+      <c r="H26" s="71" t="s">
         <v>472</v>
       </c>
-      <c r="I26" s="78">
+      <c r="I26" s="71">
         <v>3</v>
       </c>
       <c r="K26" s="24" t="s">
@@ -13094,10 +13472,10 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="71" t="s">
         <v>461</v>
       </c>
-      <c r="C27" s="78">
+      <c r="C27" s="71">
         <v>4</v>
       </c>
       <c r="E27" s="24" t="s">
@@ -13120,10 +13498,10 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="71" t="s">
         <v>462</v>
       </c>
-      <c r="C28" s="78">
+      <c r="C28" s="71">
         <v>4</v>
       </c>
       <c r="E28" s="24" t="s">
@@ -13132,10 +13510,10 @@
       <c r="F28" s="24">
         <v>3</v>
       </c>
-      <c r="H28" s="78" t="s">
+      <c r="H28" s="71" t="s">
         <v>474</v>
       </c>
-      <c r="I28" s="78">
+      <c r="I28" s="71">
         <v>4</v>
       </c>
       <c r="K28" s="24" t="s">
@@ -13146,10 +13524,10 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="71" t="s">
         <v>463</v>
       </c>
-      <c r="C29" s="78">
+      <c r="C29" s="71">
         <v>3</v>
       </c>
       <c r="E29" s="24" t="s">
@@ -13158,10 +13536,10 @@
       <c r="F29" s="24">
         <v>5</v>
       </c>
-      <c r="H29" s="78" t="s">
+      <c r="H29" s="71" t="s">
         <v>475</v>
       </c>
-      <c r="I29" s="78">
+      <c r="I29" s="71">
         <v>3</v>
       </c>
       <c r="K29" s="24" t="s">
@@ -13172,10 +13550,10 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="71" t="s">
         <v>464</v>
       </c>
-      <c r="C30" s="78">
+      <c r="C30" s="71">
         <v>5</v>
       </c>
       <c r="E30" s="24" t="s">
@@ -13184,10 +13562,10 @@
       <c r="F30" s="24">
         <v>4</v>
       </c>
-      <c r="H30" s="78" t="s">
+      <c r="H30" s="71" t="s">
         <v>476</v>
       </c>
-      <c r="I30" s="78">
+      <c r="I30" s="71">
         <v>4</v>
       </c>
       <c r="K30" s="24" t="s">
@@ -13198,16 +13576,16 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="71" t="s">
         <v>465</v>
       </c>
-      <c r="C31" s="78">
+      <c r="C31" s="71">
         <v>4</v>
       </c>
-      <c r="H31" s="78" t="s">
+      <c r="H31" s="71" t="s">
         <v>477</v>
       </c>
-      <c r="I31" s="78">
+      <c r="I31" s="71">
         <v>3</v>
       </c>
       <c r="K31" s="24" t="s">
@@ -13224,10 +13602,10 @@
       <c r="C32" s="24">
         <v>2</v>
       </c>
-      <c r="H32" s="78" t="s">
+      <c r="H32" s="71" t="s">
         <v>478</v>
       </c>
-      <c r="I32" s="78">
+      <c r="I32" s="71">
         <v>4</v>
       </c>
       <c r="K32" s="24" t="s">
@@ -13244,10 +13622,10 @@
       <c r="C33" s="24">
         <v>1</v>
       </c>
-      <c r="H33" s="78" t="s">
+      <c r="H33" s="71" t="s">
         <v>479</v>
       </c>
-      <c r="I33" s="78">
+      <c r="I33" s="71">
         <v>3</v>
       </c>
       <c r="K33" s="24" t="s">
@@ -13258,10 +13636,10 @@
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H34" s="78" t="s">
+      <c r="H34" s="71" t="s">
         <v>480</v>
       </c>
-      <c r="I34" s="78">
+      <c r="I34" s="71">
         <v>3</v>
       </c>
       <c r="K34" s="24" t="s">
@@ -13272,10 +13650,10 @@
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H35" s="78" t="s">
+      <c r="H35" s="71" t="s">
         <v>481</v>
       </c>
-      <c r="I35" s="78">
+      <c r="I35" s="71">
         <v>4</v>
       </c>
       <c r="K35" s="24" t="s">
@@ -13286,10 +13664,10 @@
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H36" s="78" t="s">
+      <c r="H36" s="71" t="s">
         <v>482</v>
       </c>
-      <c r="I36" s="78">
+      <c r="I36" s="71">
         <v>3</v>
       </c>
       <c r="K36" s="24" t="s">
@@ -13300,10 +13678,10 @@
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H37" s="78" t="s">
+      <c r="H37" s="71" t="s">
         <v>483</v>
       </c>
-      <c r="I37" s="78">
+      <c r="I37" s="71">
         <v>3</v>
       </c>
       <c r="K37" s="24" t="s">
@@ -13325,18 +13703,18 @@
       <c r="E39" t="s">
         <v>487</v>
       </c>
-      <c r="H39" s="78" t="s">
+      <c r="H39" s="71" t="s">
         <v>485</v>
       </c>
-      <c r="I39" s="78">
+      <c r="I39" s="71">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E40" s="78" t="s">
+      <c r="E40" s="71" t="s">
         <v>488</v>
       </c>
-      <c r="F40" s="78">
+      <c r="F40" s="71">
         <v>3</v>
       </c>
     </row>
@@ -13344,10 +13722,10 @@
       <c r="B41" t="s">
         <v>494</v>
       </c>
-      <c r="E41" s="78" t="s">
+      <c r="E41" s="71" t="s">
         <v>489</v>
       </c>
-      <c r="F41" s="78">
+      <c r="F41" s="71">
         <v>3</v>
       </c>
       <c r="H41" s="45" t="s">
@@ -13391,10 +13769,10 @@
       <c r="C43" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="E43" s="78" t="s">
+      <c r="E43" s="71" t="s">
         <v>490</v>
       </c>
-      <c r="F43" s="78">
+      <c r="F43" s="71">
         <v>3</v>
       </c>
       <c r="H43" s="44" t="s">
@@ -13441,10 +13819,10 @@
       <c r="C45" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="E45" s="78" t="s">
+      <c r="E45" s="71" t="s">
         <v>493</v>
       </c>
-      <c r="F45" s="78">
+      <c r="F45" s="71">
         <v>3</v>
       </c>
       <c r="H45" s="44" t="s">
@@ -13467,10 +13845,10 @@
       <c r="C46" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="E46" s="78" t="s">
+      <c r="E46" s="71" t="s">
         <v>495</v>
       </c>
-      <c r="F46" s="78">
+      <c r="F46" s="71">
         <v>3</v>
       </c>
       <c r="H46" s="44" t="s">
@@ -13489,10 +13867,10 @@
       <c r="C47" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="E47" s="78" t="s">
+      <c r="E47" s="71" t="s">
         <v>496</v>
       </c>
-      <c r="F47" s="78">
+      <c r="F47" s="71">
         <v>4</v>
       </c>
       <c r="H47" s="44" t="s">
@@ -13513,10 +13891,10 @@
       <c r="C48" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="E48" s="78" t="s">
+      <c r="E48" s="71" t="s">
         <v>497</v>
       </c>
-      <c r="F48" s="78">
+      <c r="F48" s="71">
         <v>3</v>
       </c>
       <c r="H48" s="44" t="s">
@@ -13525,10 +13903,10 @@
       <c r="I48" s="44">
         <v>3</v>
       </c>
-      <c r="K48" s="78" t="s">
+      <c r="K48" s="71" t="s">
         <v>506</v>
       </c>
-      <c r="L48" s="78">
+      <c r="L48" s="71">
         <v>3</v>
       </c>
     </row>
@@ -13539,10 +13917,10 @@
       <c r="C49" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="E49" s="78" t="s">
+      <c r="E49" s="71" t="s">
         <v>498</v>
       </c>
-      <c r="F49" s="78">
+      <c r="F49" s="71">
         <v>3</v>
       </c>
       <c r="H49" s="44" t="s">
@@ -13551,10 +13929,10 @@
       <c r="I49" s="44">
         <v>3</v>
       </c>
-      <c r="K49" s="78" t="s">
+      <c r="K49" s="71" t="s">
         <v>507</v>
       </c>
-      <c r="L49" s="78">
+      <c r="L49" s="71">
         <v>3</v>
       </c>
     </row>
@@ -13565,10 +13943,10 @@
       <c r="C50" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="E50" s="78" t="s">
+      <c r="E50" s="71" t="s">
         <v>500</v>
       </c>
-      <c r="F50" s="78">
+      <c r="F50" s="71">
         <v>3</v>
       </c>
       <c r="H50" s="44" t="s">
@@ -13577,10 +13955,10 @@
       <c r="I50" s="44">
         <v>3</v>
       </c>
-      <c r="K50" s="78" t="s">
+      <c r="K50" s="71" t="s">
         <v>509</v>
       </c>
-      <c r="L50" s="78">
+      <c r="L50" s="71">
         <v>3</v>
       </c>
     </row>
@@ -13591,10 +13969,10 @@
       <c r="C51" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="E51" s="78" t="s">
+      <c r="E51" s="71" t="s">
         <v>501</v>
       </c>
-      <c r="F51" s="78">
+      <c r="F51" s="71">
         <v>3</v>
       </c>
       <c r="H51" s="44" t="s">
@@ -13609,10 +13987,10 @@
         <v>499</v>
       </c>
       <c r="C52" s="34"/>
-      <c r="E52" s="78" t="s">
+      <c r="E52" s="71" t="s">
         <v>502</v>
       </c>
-      <c r="F52" s="78">
+      <c r="F52" s="71">
         <v>3</v>
       </c>
       <c r="H52" s="44" t="s">
@@ -14644,10 +15022,10 @@
       <c r="D128" t="s">
         <v>270</v>
       </c>
-      <c r="G128" s="78" t="s">
+      <c r="G128" s="71" t="s">
         <v>464</v>
       </c>
-      <c r="H128" s="78">
+      <c r="H128" s="71">
         <v>5</v>
       </c>
     </row>
@@ -14658,10 +15036,10 @@
       <c r="D129" t="s">
         <v>271</v>
       </c>
-      <c r="G129" s="78" t="s">
+      <c r="G129" s="71" t="s">
         <v>460</v>
       </c>
-      <c r="H129" s="78">
+      <c r="H129" s="71">
         <v>4</v>
       </c>
     </row>
@@ -14672,10 +15050,10 @@
       <c r="D130" t="s">
         <v>272</v>
       </c>
-      <c r="G130" s="78" t="s">
+      <c r="G130" s="71" t="s">
         <v>461</v>
       </c>
-      <c r="H130" s="78">
+      <c r="H130" s="71">
         <v>4</v>
       </c>
     </row>
@@ -14686,10 +15064,10 @@
       <c r="D131" t="s">
         <v>273</v>
       </c>
-      <c r="G131" s="78" t="s">
+      <c r="G131" s="71" t="s">
         <v>462</v>
       </c>
-      <c r="H131" s="78">
+      <c r="H131" s="71">
         <v>4</v>
       </c>
     </row>
@@ -14700,18 +15078,18 @@
       <c r="D132" t="s">
         <v>274</v>
       </c>
-      <c r="G132" s="78" t="s">
+      <c r="G132" s="71" t="s">
         <v>465</v>
       </c>
-      <c r="H132" s="78">
+      <c r="H132" s="71">
         <v>4</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G133" s="78" t="s">
+      <c r="G133" s="71" t="s">
         <v>463</v>
       </c>
-      <c r="H133" s="78">
+      <c r="H133" s="71">
         <v>3</v>
       </c>
     </row>
@@ -14724,10 +15102,10 @@
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B135" s="71" t="s">
+      <c r="B135" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="C135" s="71"/>
+      <c r="C135" s="74"/>
       <c r="G135" s="24" t="s">
         <v>466</v>
       </c>
@@ -14744,36 +15122,36 @@
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E138" s="71" t="s">
+      <c r="E138" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="F138" s="71"/>
+      <c r="F138" s="74"/>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G139" s="71" t="s">
+      <c r="G139" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="H139" s="71"/>
+      <c r="H139" s="74"/>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J140" s="79"/>
-      <c r="K140" s="79"/>
-      <c r="L140" s="79"/>
+      <c r="J140" s="72"/>
+      <c r="K140" s="72"/>
+      <c r="L140" s="72"/>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J141" s="71" t="s">
+      <c r="J141" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="K141" s="71"/>
-      <c r="L141" s="71"/>
+      <c r="K141" s="74"/>
+      <c r="L141" s="74"/>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B171" s="71" t="s">
+      <c r="B171" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="C171" s="71"/>
-      <c r="D171" s="71"/>
-      <c r="E171" s="71"/>
+      <c r="C171" s="74"/>
+      <c r="D171" s="74"/>
+      <c r="E171" s="74"/>
       <c r="G171" s="45"/>
       <c r="H171" s="45"/>
     </row>
@@ -15040,7 +15418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -15439,8 +15817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16066,10 +16444,10 @@
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
-      <c r="E68" s="73" t="s">
+      <c r="E68" s="76" t="s">
         <v>365</v>
       </c>
-      <c r="F68" s="73"/>
+      <c r="F68" s="76"/>
       <c r="G68" s="48">
         <f>-G67</f>
         <v>1.5566567074628228</v>
@@ -16096,13 +16474,13 @@
       <c r="D71" s="25"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="74" t="s">
+      <c r="A72" s="77" t="s">
         <v>366</v>
       </c>
-      <c r="B72" s="73"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="76"/>
       <c r="F72" s="48">
         <f>D58/G68</f>
         <v>1.8772646222418671E-2</v>
@@ -16155,20 +16533,34 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>303</v>
       </c>
@@ -16176,7 +16568,7 @@
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>304</v>
       </c>
@@ -16184,130 +16576,355 @@
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="210" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>578</v>
+      </c>
+      <c r="K6" s="81" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>577</v>
+      </c>
+      <c r="K7" s="81" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>581</v>
+      </c>
+      <c r="O14" s="82" t="s">
+        <v>582</v>
+      </c>
+      <c r="P14" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>583</v>
+      </c>
+      <c r="R14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>585</v>
+      </c>
+      <c r="O15" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="P15" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>591</v>
+      </c>
+      <c r="R15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>585</v>
+      </c>
+      <c r="O16" s="82" t="s">
+        <v>587</v>
+      </c>
+      <c r="P16" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>588</v>
+      </c>
+      <c r="R16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>585</v>
+      </c>
+      <c r="O17" s="82" t="s">
+        <v>587</v>
+      </c>
+      <c r="P17" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>586</v>
+      </c>
+      <c r="R17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>589</v>
+      </c>
+      <c r="O18" s="82" t="s">
+        <v>587</v>
+      </c>
+      <c r="P18" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>591</v>
+      </c>
+      <c r="R18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>589</v>
+      </c>
+      <c r="O19" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="P19" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>592</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>589</v>
+      </c>
+      <c r="O20" s="82" t="s">
+        <v>587</v>
+      </c>
+      <c r="P20" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>591</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>589</v>
+      </c>
+      <c r="O21" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="P21" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>592</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>594</v>
+      </c>
+      <c r="O22" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="P22" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>591</v>
+      </c>
+      <c r="R22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="82" t="s">
+        <v>587</v>
+      </c>
+      <c r="P23" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>593</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>595</v>
+      </c>
+      <c r="O24" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="P24" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>596</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>595</v>
+      </c>
+      <c r="O25" s="82" t="s">
+        <v>587</v>
+      </c>
+      <c r="P25" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>588</v>
+      </c>
+      <c r="R25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>597</v>
+      </c>
+      <c r="B29">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>598</v>
+      </c>
+      <c r="B30">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="B31" s="25">
+        <v>165</v>
+      </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>599</v>
+      </c>
+      <c r="G36" s="41">
+        <f>(-113/165)*LOG(113/165,2)-(52/165)*LOG(52/165,2)</f>
+        <v>0.89903077123822195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>317</v>
       </c>
@@ -16315,23 +16932,514 @@
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
+        <v>600</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="C43" s="70" t="s">
+        <v>343</v>
+      </c>
+      <c r="D43" s="70" t="s">
+        <v>344</v>
+      </c>
+      <c r="E43" s="70" t="s">
+        <v>367</v>
+      </c>
+      <c r="F43" s="70" t="s">
+        <v>601</v>
+      </c>
+      <c r="G43" s="70" t="s">
+        <v>602</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="N43" t="s">
+        <v>581</v>
+      </c>
+      <c r="O43" s="82" t="s">
+        <v>582</v>
+      </c>
+      <c r="P43" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>583</v>
+      </c>
+      <c r="R43" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="B44" s="24">
+        <v>1</v>
+      </c>
+      <c r="C44" s="24">
+        <v>3</v>
+      </c>
+      <c r="D44" s="24">
+        <v>165</v>
+      </c>
+      <c r="E44" s="24">
+        <f>C44/D44</f>
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="F44" s="24">
+        <v>1</v>
+      </c>
+      <c r="G44" s="24">
+        <v>2</v>
+      </c>
+      <c r="H44" s="24">
+        <f>(C44/D44)*(((-F44/C44) * LOG((F44/C44),2)) - ((G44/C44)*LOG((G44/C44),2)))</f>
+        <v>1.6696287891899808E-2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>585</v>
+      </c>
+      <c r="O44" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="P44" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>591</v>
+      </c>
+      <c r="R44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="B45" s="24">
+        <v>2</v>
+      </c>
+      <c r="C45" s="24">
+        <v>4</v>
+      </c>
+      <c r="D45" s="24">
+        <v>165</v>
+      </c>
+      <c r="E45" s="24">
+        <f>C45/D45</f>
+        <v>2.4242424242424242E-2</v>
+      </c>
+      <c r="F45" s="24">
+        <v>2</v>
+      </c>
+      <c r="G45" s="24">
+        <v>2</v>
+      </c>
+      <c r="H45" s="24">
+        <f>(C45/D45)*(((-F45/C45) * LOG((F45/C45),2)) - ((G45/C45)*LOG((G45/C45),2)))</f>
+        <v>2.4242424242424242E-2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>585</v>
+      </c>
+      <c r="O45" s="82" t="s">
+        <v>587</v>
+      </c>
+      <c r="P45" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>588</v>
+      </c>
+      <c r="R45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="44" t="s">
+        <v>594</v>
+      </c>
+      <c r="B46" s="24">
+        <v>3</v>
+      </c>
+      <c r="C46" s="24">
+        <v>2</v>
+      </c>
+      <c r="D46" s="24">
+        <v>165</v>
+      </c>
+      <c r="E46" s="24">
+        <f t="shared" ref="E46:E47" si="0">C46/D46</f>
+        <v>1.2121212121212121E-2</v>
+      </c>
+      <c r="F46" s="24">
+        <v>1</v>
+      </c>
+      <c r="G46" s="24">
+        <v>1</v>
+      </c>
+      <c r="H46" s="24">
+        <f t="shared" ref="H46:H47" si="1">(C46/D46)*(((-F46/C46) * LOG((F46/C46),2)) - ((G46/C46)*LOG((G46/C46),2)))</f>
+        <v>1.2121212121212121E-2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>585</v>
+      </c>
+      <c r="O46" s="82" t="s">
+        <v>587</v>
+      </c>
+      <c r="P46" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>586</v>
+      </c>
+      <c r="R46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="44" t="s">
+        <v>595</v>
+      </c>
+      <c r="B47" s="24">
+        <v>4</v>
+      </c>
+      <c r="C47" s="24">
+        <v>2</v>
+      </c>
+      <c r="D47" s="24">
+        <v>165</v>
+      </c>
+      <c r="E47" s="24">
+        <f t="shared" si="0"/>
+        <v>1.2121212121212121E-2</v>
+      </c>
+      <c r="F47" s="24">
+        <v>1</v>
+      </c>
+      <c r="G47" s="24">
+        <v>1</v>
+      </c>
+      <c r="H47" s="24">
+        <f t="shared" si="1"/>
+        <v>1.2121212121212121E-2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>589</v>
+      </c>
+      <c r="O47" s="82" t="s">
+        <v>587</v>
+      </c>
+      <c r="P47" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>591</v>
+      </c>
+      <c r="R47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H48" s="83">
+        <f>SUM(H44:H47)</f>
+        <v>6.51811363767483E-2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>589</v>
+      </c>
+      <c r="O48" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="P48" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>592</v>
+      </c>
+      <c r="R48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>589</v>
+      </c>
+      <c r="O49" s="82" t="s">
+        <v>587</v>
+      </c>
+      <c r="P49" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>591</v>
+      </c>
+      <c r="R49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>606</v>
+      </c>
+      <c r="H50" s="41">
+        <f>G36-H48</f>
+        <v>0.83384963486147368</v>
+      </c>
+      <c r="N50" t="s">
+        <v>589</v>
+      </c>
+      <c r="O50" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="P50" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>592</v>
+      </c>
+      <c r="R50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N51" t="s">
+        <v>594</v>
+      </c>
+      <c r="O51" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="P51" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>591</v>
+      </c>
+      <c r="R51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N52" t="s">
+        <v>594</v>
+      </c>
+      <c r="O52" s="82" t="s">
+        <v>587</v>
+      </c>
+      <c r="P52" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>593</v>
+      </c>
+      <c r="R52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N53" t="s">
+        <v>595</v>
+      </c>
+      <c r="O53" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="P53" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>596</v>
+      </c>
+      <c r="R53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C54" s="70" t="s">
+        <v>343</v>
+      </c>
+      <c r="D54" s="70" t="s">
+        <v>344</v>
+      </c>
+      <c r="E54" s="70" t="s">
+        <v>367</v>
+      </c>
+      <c r="F54" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="G54" s="70" t="s">
+        <v>364</v>
+      </c>
+      <c r="N54" t="s">
+        <v>595</v>
+      </c>
+      <c r="O54" s="82" t="s">
+        <v>587</v>
+      </c>
+      <c r="P54" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>588</v>
+      </c>
+      <c r="R54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="B55" s="24">
+        <v>1</v>
+      </c>
+      <c r="C55" s="24">
+        <v>3</v>
+      </c>
+      <c r="D55" s="24">
+        <v>165</v>
+      </c>
+      <c r="E55" s="24">
+        <f>C55/D55</f>
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="F55" s="24">
+        <f>LOG(E55,2)</f>
+        <v>-5.7813597135246599</v>
+      </c>
+      <c r="G55" s="24">
+        <f>E55*F55</f>
+        <v>-0.10511563115499381</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="B56" s="24">
+        <v>2</v>
+      </c>
+      <c r="C56" s="24">
+        <v>4</v>
+      </c>
+      <c r="D56" s="24">
+        <v>165</v>
+      </c>
+      <c r="E56" s="24">
+        <f>C56/D56</f>
+        <v>2.4242424242424242E-2</v>
+      </c>
+      <c r="F56" s="24">
+        <f t="shared" ref="F56:F58" si="2">LOG(E56,2)</f>
+        <v>-5.366322214245816</v>
+      </c>
+      <c r="G56" s="24">
+        <f t="shared" ref="G56:G58" si="3">E56*F56</f>
+        <v>-0.13009265973929252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="44" t="s">
+        <v>594</v>
+      </c>
+      <c r="B57" s="24">
+        <v>3</v>
+      </c>
+      <c r="C57" s="24">
+        <v>2</v>
+      </c>
+      <c r="D57" s="24">
+        <v>165</v>
+      </c>
+      <c r="E57" s="24">
+        <f t="shared" ref="E57:E58" si="4">C57/D57</f>
+        <v>1.2121212121212121E-2</v>
+      </c>
+      <c r="F57" s="24">
+        <f t="shared" si="2"/>
+        <v>-6.3663222142458151</v>
+      </c>
+      <c r="G57" s="24">
+        <f t="shared" si="3"/>
+        <v>-7.716754199085836E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="44" t="s">
+        <v>595</v>
+      </c>
+      <c r="B58" s="24">
+        <v>4</v>
+      </c>
+      <c r="C58" s="24">
+        <v>2</v>
+      </c>
+      <c r="D58" s="24">
+        <v>165</v>
+      </c>
+      <c r="E58" s="24">
+        <f t="shared" si="4"/>
+        <v>1.2121212121212121E-2</v>
+      </c>
+      <c r="F58" s="24">
+        <f t="shared" si="2"/>
+        <v>-6.3663222142458151</v>
+      </c>
+      <c r="G58" s="24">
+        <f t="shared" si="3"/>
+        <v>-7.716754199085836E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G59" s="45">
+        <f>SUM(G55:G58)</f>
+        <v>-0.38954337487600305</v>
+      </c>
+      <c r="H59" s="41">
+        <f>-G59</f>
+        <v>0.38954337487600305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
         <v>146</v>
       </c>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>603</v>
+      </c>
+      <c r="B62" t="s">
+        <v>604</v>
+      </c>
+      <c r="H62" s="41">
+        <f>H50/H59</f>
+        <v>2.1405822525589078</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>605</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16343,8 +17451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I86" sqref="I85:I86"/>
+    <sheetView zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17872,40 +18980,46 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>607</v>
+      </c>
+      <c r="H5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>135</v>
       </c>
@@ -17933,8 +19047,17 @@
       <c r="I7" s="17" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>1</v>
       </c>
@@ -17944,14 +19067,37 @@
       <c r="C8" s="19">
         <v>0.91</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="20">
+        <v>1</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0</v>
+      </c>
+      <c r="F8" s="21">
+        <v>5</v>
+      </c>
+      <c r="G8" s="21">
+        <v>4</v>
+      </c>
+      <c r="H8" s="21">
+        <f>D8/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="21">
+        <f>E8/5</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
         <v>2</v>
       </c>
@@ -17961,14 +19107,37 @@
       <c r="C9" s="22">
         <v>0.83</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="23">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24">
+        <v>4</v>
+      </c>
+      <c r="G9" s="24">
+        <v>4</v>
+      </c>
+      <c r="H9" s="21">
+        <f t="shared" ref="H9:H17" si="0">D9/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="21">
+        <f t="shared" ref="I9:I17" si="1">E9/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
         <v>3</v>
       </c>
@@ -17978,14 +19147,37 @@
       <c r="C10" s="22">
         <v>0.72</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="23">
+        <v>2</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1</v>
+      </c>
+      <c r="F10" s="24">
+        <v>4</v>
+      </c>
+      <c r="G10" s="24">
+        <v>3</v>
+      </c>
+      <c r="H10" s="21">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I10" s="21">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
         <v>4</v>
       </c>
@@ -17995,14 +19187,37 @@
       <c r="C11" s="22">
         <v>0.66</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="23">
+        <v>2</v>
+      </c>
+      <c r="E11" s="24">
+        <v>2</v>
+      </c>
+      <c r="F11" s="24">
+        <v>3</v>
+      </c>
+      <c r="G11" s="24">
+        <v>3</v>
+      </c>
+      <c r="H11" s="21">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I11" s="21">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>5</v>
       </c>
@@ -18012,14 +19227,37 @@
       <c r="C12" s="22">
         <v>0.6</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="23">
+        <v>2</v>
+      </c>
+      <c r="E12" s="24">
+        <v>3</v>
+      </c>
+      <c r="F12" s="24">
+        <v>2</v>
+      </c>
+      <c r="G12" s="24">
+        <v>3</v>
+      </c>
+      <c r="H12" s="21">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I12" s="21">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>6</v>
       </c>
@@ -18029,14 +19267,37 @@
       <c r="C13" s="22">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="23">
+        <v>2</v>
+      </c>
+      <c r="E13" s="24">
+        <v>4</v>
+      </c>
+      <c r="F13" s="24">
+        <v>1</v>
+      </c>
+      <c r="G13" s="24">
+        <v>3</v>
+      </c>
+      <c r="H13" s="21">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
         <v>7</v>
       </c>
@@ -18046,14 +19307,37 @@
       <c r="C14" s="22">
         <v>0.53</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="23">
+        <v>3</v>
+      </c>
+      <c r="E14" s="24">
+        <v>4</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1</v>
+      </c>
+      <c r="G14" s="24">
+        <v>2</v>
+      </c>
+      <c r="H14" s="21">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="I14" s="21">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
         <v>8</v>
       </c>
@@ -18063,14 +19347,37 @@
       <c r="C15" s="22">
         <v>0.52</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="23">
+        <v>4</v>
+      </c>
+      <c r="E15" s="24">
+        <v>4</v>
+      </c>
+      <c r="F15" s="24">
+        <v>1</v>
+      </c>
+      <c r="G15" s="24">
+        <v>1</v>
+      </c>
+      <c r="H15" s="21">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
         <v>9</v>
       </c>
@@ -18080,14 +19387,37 @@
       <c r="C16" s="22">
         <v>0.45</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="23">
+        <v>4</v>
+      </c>
+      <c r="E16" s="24">
+        <v>5</v>
+      </c>
+      <c r="F16" s="24">
+        <v>0</v>
+      </c>
+      <c r="G16" s="24">
+        <v>1</v>
+      </c>
+      <c r="H16" s="21">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="I16" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
         <v>10</v>
       </c>
@@ -18097,16 +19427,40 @@
       <c r="C17" s="22">
         <v>0.37</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="D17" s="23">
+        <v>5</v>
+      </c>
+      <c r="E17" s="24">
+        <v>5</v>
+      </c>
+      <c r="F17" s="24">
+        <v>0</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0</v>
+      </c>
+      <c r="H17" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18329,63 +19683,63 @@
       <c r="B50" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="76" t="s">
+      <c r="C50" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
       <c r="H50" s="26" t="s">
         <v>175</v>
       </c>
       <c r="I50" s="26"/>
-      <c r="J50" s="76" t="s">
+      <c r="J50" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="K50" s="76"/>
+      <c r="K50" s="78"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51" s="24">
         <v>4</v>
       </c>
-      <c r="C51" s="75"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B52" s="24">
         <v>5</v>
       </c>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="77"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="80"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53" s="24">
         <v>6</v>
       </c>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="77"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="80"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="80"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -18414,61 +19768,61 @@
       <c r="B61" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C61" s="76" t="s">
+      <c r="C61" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76" t="s">
+      <c r="D61" s="78"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="78"/>
+      <c r="I61" s="78"/>
+      <c r="J61" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="K61" s="76"/>
+      <c r="K61" s="78"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" s="24">
         <v>6</v>
       </c>
-      <c r="C62" s="75"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="75"/>
-      <c r="F62" s="75"/>
-      <c r="G62" s="75"/>
-      <c r="H62" s="75"/>
-      <c r="I62" s="75"/>
-      <c r="J62" s="75"/>
-      <c r="K62" s="75"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="79"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="79"/>
+      <c r="K62" s="79"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" s="24">
         <v>5</v>
       </c>
-      <c r="C63" s="75"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="75"/>
-      <c r="H63" s="75"/>
-      <c r="I63" s="75"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="75"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="79"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="24">
         <v>4</v>
       </c>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="75"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="79"/>
+      <c r="I64" s="79"/>
+      <c r="J64" s="79"/>
+      <c r="K64" s="79"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
@@ -18506,19 +19860,19 @@
       <c r="C74" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D74" s="76" t="s">
+      <c r="D74" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="E74" s="76"/>
-      <c r="F74" s="76"/>
-      <c r="G74" s="76"/>
-      <c r="H74" s="76"/>
-      <c r="I74" s="76"/>
-      <c r="J74" s="76" t="s">
+      <c r="E74" s="78"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="78"/>
+      <c r="H74" s="78"/>
+      <c r="I74" s="78"/>
+      <c r="J74" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="K74" s="76"/>
-      <c r="L74" s="76"/>
+      <c r="K74" s="78"/>
+      <c r="L74" s="78"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B75" s="29" t="s">
@@ -18527,15 +19881,15 @@
       <c r="C75" s="24">
         <v>1</v>
       </c>
-      <c r="D75" s="75"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="75"/>
-      <c r="G75" s="75"/>
-      <c r="H75" s="75"/>
-      <c r="I75" s="75"/>
-      <c r="J75" s="75"/>
-      <c r="K75" s="75"/>
-      <c r="L75" s="75"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="79"/>
+      <c r="I75" s="79"/>
+      <c r="J75" s="79"/>
+      <c r="K75" s="79"/>
+      <c r="L75" s="79"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B76" s="29" t="s">
@@ -18544,15 +19898,15 @@
       <c r="C76" s="24">
         <v>1</v>
       </c>
-      <c r="D76" s="75"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="75"/>
-      <c r="G76" s="75"/>
-      <c r="H76" s="75"/>
-      <c r="I76" s="75"/>
-      <c r="J76" s="75"/>
-      <c r="K76" s="75"/>
-      <c r="L76" s="75"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="79"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="79"/>
+      <c r="L76" s="79"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B77" s="29" t="s">
@@ -18561,15 +19915,15 @@
       <c r="C77" s="24">
         <v>0</v>
       </c>
-      <c r="D77" s="75"/>
-      <c r="E77" s="75"/>
-      <c r="F77" s="75"/>
-      <c r="G77" s="75"/>
-      <c r="H77" s="75"/>
-      <c r="I77" s="75"/>
-      <c r="J77" s="75"/>
-      <c r="K77" s="75"/>
-      <c r="L77" s="75"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="79"/>
+      <c r="H77" s="79"/>
+      <c r="I77" s="79"/>
+      <c r="J77" s="79"/>
+      <c r="K77" s="79"/>
+      <c r="L77" s="79"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B78" s="29" t="s">
@@ -18578,15 +19932,15 @@
       <c r="C78" s="24">
         <v>0.19214789423111006</v>
       </c>
-      <c r="D78" s="75"/>
-      <c r="E78" s="75"/>
-      <c r="F78" s="75"/>
-      <c r="G78" s="75"/>
-      <c r="H78" s="75"/>
-      <c r="I78" s="75"/>
-      <c r="J78" s="75"/>
-      <c r="K78" s="75"/>
-      <c r="L78" s="75"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="79"/>
+      <c r="H78" s="79"/>
+      <c r="I78" s="79"/>
+      <c r="J78" s="79"/>
+      <c r="K78" s="79"/>
+      <c r="L78" s="79"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B79" s="29" t="s">
@@ -18595,15 +19949,15 @@
       <c r="C79" s="24">
         <v>-0.30588787655775207</v>
       </c>
-      <c r="D79" s="75"/>
-      <c r="E79" s="75"/>
-      <c r="F79" s="75"/>
-      <c r="G79" s="75"/>
-      <c r="H79" s="75"/>
-      <c r="I79" s="75"/>
-      <c r="J79" s="75"/>
-      <c r="K79" s="75"/>
-      <c r="L79" s="75"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="79"/>
+      <c r="G79" s="79"/>
+      <c r="H79" s="79"/>
+      <c r="I79" s="79"/>
+      <c r="J79" s="79"/>
+      <c r="K79" s="79"/>
+      <c r="L79" s="79"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B80" s="29" t="s">
@@ -18612,15 +19966,15 @@
       <c r="C80" s="24">
         <v>0.4</v>
       </c>
-      <c r="D80" s="75"/>
-      <c r="E80" s="75"/>
-      <c r="F80" s="75"/>
-      <c r="G80" s="75"/>
-      <c r="H80" s="75"/>
-      <c r="I80" s="75"/>
-      <c r="J80" s="75"/>
-      <c r="K80" s="75"/>
-      <c r="L80" s="75"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="79"/>
+      <c r="G80" s="79"/>
+      <c r="H80" s="79"/>
+      <c r="I80" s="79"/>
+      <c r="J80" s="79"/>
+      <c r="K80" s="79"/>
+      <c r="L80" s="79"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="29" t="s">
@@ -18629,15 +19983,15 @@
       <c r="C81" s="24">
         <v>0.1</v>
       </c>
-      <c r="D81" s="75"/>
-      <c r="E81" s="75"/>
-      <c r="F81" s="75"/>
-      <c r="G81" s="75"/>
-      <c r="H81" s="75"/>
-      <c r="I81" s="75"/>
-      <c r="J81" s="75"/>
-      <c r="K81" s="75"/>
-      <c r="L81" s="75"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="79"/>
+      <c r="F81" s="79"/>
+      <c r="G81" s="79"/>
+      <c r="H81" s="79"/>
+      <c r="I81" s="79"/>
+      <c r="J81" s="79"/>
+      <c r="K81" s="79"/>
+      <c r="L81" s="79"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="29" t="s">
@@ -18646,15 +20000,15 @@
       <c r="C82" s="24">
         <v>-0.50785210576888995</v>
       </c>
-      <c r="D82" s="75"/>
-      <c r="E82" s="75"/>
-      <c r="F82" s="75"/>
-      <c r="G82" s="75"/>
-      <c r="H82" s="75"/>
-      <c r="I82" s="75"/>
-      <c r="J82" s="75"/>
-      <c r="K82" s="75"/>
-      <c r="L82" s="75"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="79"/>
+      <c r="G82" s="79"/>
+      <c r="H82" s="79"/>
+      <c r="I82" s="79"/>
+      <c r="J82" s="79"/>
+      <c r="K82" s="79"/>
+      <c r="L82" s="79"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="29" t="s">
@@ -18663,15 +20017,15 @@
       <c r="C83" s="24">
         <v>0.19411212344224793</v>
       </c>
-      <c r="D83" s="75"/>
-      <c r="E83" s="75"/>
-      <c r="F83" s="75"/>
-      <c r="G83" s="75"/>
-      <c r="H83" s="75"/>
-      <c r="I83" s="75"/>
-      <c r="J83" s="75"/>
-      <c r="K83" s="75"/>
-      <c r="L83" s="75"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="79"/>
+      <c r="H83" s="79"/>
+      <c r="I83" s="79"/>
+      <c r="J83" s="79"/>
+      <c r="K83" s="79"/>
+      <c r="L83" s="79"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="29" t="s">
@@ -18680,15 +20034,15 @@
       <c r="C84" s="24">
         <v>-0.26082884634154524</v>
       </c>
-      <c r="D84" s="75"/>
-      <c r="E84" s="75"/>
-      <c r="F84" s="75"/>
-      <c r="G84" s="75"/>
-      <c r="H84" s="75"/>
-      <c r="I84" s="75"/>
-      <c r="J84" s="75"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="75"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="79"/>
+      <c r="H84" s="79"/>
+      <c r="I84" s="79"/>
+      <c r="J84" s="79"/>
+      <c r="K84" s="79"/>
+      <c r="L84" s="79"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="29" t="s">
@@ -18697,15 +20051,15 @@
       <c r="C85" s="24">
         <v>-0.13802506750700472</v>
       </c>
-      <c r="D85" s="75"/>
-      <c r="E85" s="75"/>
-      <c r="F85" s="75"/>
-      <c r="G85" s="75"/>
-      <c r="H85" s="75"/>
-      <c r="I85" s="75"/>
-      <c r="J85" s="75"/>
-      <c r="K85" s="75"/>
-      <c r="L85" s="75"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="79"/>
+      <c r="H85" s="79"/>
+      <c r="I85" s="79"/>
+      <c r="J85" s="79"/>
+      <c r="K85" s="79"/>
+      <c r="L85" s="79"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="30" t="s">
@@ -18714,15 +20068,15 @@
       <c r="C86" s="24">
         <v>-0.40785210576888997</v>
       </c>
-      <c r="D86" s="75"/>
-      <c r="E86" s="75"/>
-      <c r="F86" s="75"/>
-      <c r="G86" s="75"/>
-      <c r="H86" s="75"/>
-      <c r="I86" s="75"/>
-      <c r="J86" s="75"/>
-      <c r="K86" s="75"/>
-      <c r="L86" s="75"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="79"/>
+      <c r="H86" s="79"/>
+      <c r="I86" s="79"/>
+      <c r="J86" s="79"/>
+      <c r="K86" s="79"/>
+      <c r="L86" s="79"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="30" t="s">
@@ -18731,15 +20085,15 @@
       <c r="C87" s="24">
         <v>0.19411212344224793</v>
       </c>
-      <c r="D87" s="75"/>
-      <c r="E87" s="75"/>
-      <c r="F87" s="75"/>
-      <c r="G87" s="75"/>
-      <c r="H87" s="75"/>
-      <c r="I87" s="75"/>
-      <c r="J87" s="75"/>
-      <c r="K87" s="75"/>
-      <c r="L87" s="75"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="79"/>
+      <c r="G87" s="79"/>
+      <c r="H87" s="79"/>
+      <c r="I87" s="79"/>
+      <c r="J87" s="79"/>
+      <c r="K87" s="79"/>
+      <c r="L87" s="79"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="30" t="s">
@@ -18748,18 +20102,52 @@
       <c r="C88" s="24">
         <v>0.21805217039291008</v>
       </c>
-      <c r="D88" s="75"/>
-      <c r="E88" s="75"/>
-      <c r="F88" s="75"/>
-      <c r="G88" s="75"/>
-      <c r="H88" s="75"/>
-      <c r="I88" s="75"/>
-      <c r="J88" s="75"/>
-      <c r="K88" s="75"/>
-      <c r="L88" s="75"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="79"/>
+      <c r="I88" s="79"/>
+      <c r="J88" s="79"/>
+      <c r="K88" s="79"/>
+      <c r="L88" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="D87:I87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="D86:I86"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="J79:L79"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="J74:L74"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="C62:I62"/>
@@ -18775,40 +20163,6 @@
     <mergeCell ref="J53:K53"/>
     <mergeCell ref="C61:I61"/>
     <mergeCell ref="J61:K61"/>
-    <mergeCell ref="C63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="C64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="J74:L74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="J77:L77"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="J79:L79"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="D87:I87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="D86:I86"/>
-    <mergeCell ref="J86:L86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18873,6 +20227,283 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8477EE-D387-4F73-9287-D59238517F67}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" t="s">
+        <v>571</v>
+      </c>
+      <c r="D4" t="s">
+        <v>572</v>
+      </c>
+      <c r="E4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D5" t="s">
+        <v>572</v>
+      </c>
+      <c r="E5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D6" t="s">
+        <v>572</v>
+      </c>
+      <c r="E6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" t="s">
+        <v>576</v>
+      </c>
+      <c r="D7" t="s">
+        <v>574</v>
+      </c>
+      <c r="E7" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C8" t="s">
+        <v>576</v>
+      </c>
+      <c r="D8" t="s">
+        <v>574</v>
+      </c>
+      <c r="E8" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C9" t="s">
+        <v>571</v>
+      </c>
+      <c r="D9" t="s">
+        <v>572</v>
+      </c>
+      <c r="E9" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C10" t="s">
+        <v>576</v>
+      </c>
+      <c r="D10" t="s">
+        <v>572</v>
+      </c>
+      <c r="E10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" t="s">
+        <v>576</v>
+      </c>
+      <c r="D11" t="s">
+        <v>572</v>
+      </c>
+      <c r="E11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C12" t="s">
+        <v>576</v>
+      </c>
+      <c r="D12" t="s">
+        <v>574</v>
+      </c>
+      <c r="E12" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>575</v>
+      </c>
+      <c r="B13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13" t="s">
+        <v>571</v>
+      </c>
+      <c r="D13" t="s">
+        <v>574</v>
+      </c>
+      <c r="E13" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>575</v>
+      </c>
+      <c r="B14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" t="s">
+        <v>576</v>
+      </c>
+      <c r="D14" t="s">
+        <v>572</v>
+      </c>
+      <c r="E14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C15" t="s">
+        <v>571</v>
+      </c>
+      <c r="D15" t="s">
+        <v>574</v>
+      </c>
+      <c r="E15" t="s">
+        <v>571</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -19033,10 +20664,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="24"/>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="73" t="s">
         <v>396</v>
       </c>
-      <c r="M7" s="70"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="8" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -19247,10 +20878,10 @@
       <c r="K16" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="L16" s="70" t="s">
+      <c r="L16" s="73" t="s">
         <v>410</v>
       </c>
-      <c r="M16" s="70"/>
+      <c r="M16" s="73"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -19597,11 +21228,11 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
       <c r="E13">
         <v>5</v>
       </c>
@@ -19610,11 +21241,11 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
       <c r="E14">
         <v>200</v>
       </c>
@@ -19623,11 +21254,11 @@
       <c r="A15" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="74" t="s">
         <v>411</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="57">
         <v>0.09</v>
       </c>
@@ -19636,11 +21267,11 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="74" t="s">
         <v>412</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
       <c r="E16">
         <v>0.86499999999999999</v>
       </c>
@@ -23494,15 +25125,15 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="75" t="s">
         <v>439</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">

--- a/COMP300-HomeworkProblems-SP20.xlsx
+++ b/COMP300-HomeworkProblems-SP20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benlo\DataMining2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E72781E8-A15C-44DF-8F72-E500F6A00509}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2280527F-674F-46E8-B5A7-43FD9BFA535D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22515" yWindow="4005" windowWidth="2400" windowHeight="585" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW Index" sheetId="38" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="641">
   <si>
     <t>Mean</t>
   </si>
@@ -2051,6 +2051,102 @@
   </si>
   <si>
     <t>N=5</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>x1(W14)+x2(w24)+x3(w34)+th4</t>
+  </si>
+  <si>
+    <t>x1(w15)+x2(w25)+x3(w35)+th5</t>
+  </si>
+  <si>
+    <t>(w46)(O4)+(w56)(O5)+th6</t>
+  </si>
+  <si>
+    <t>O6(1-O6)(known class label -O6)</t>
+  </si>
+  <si>
+    <t>O5(1-O5)(Err6)(w56)</t>
+  </si>
+  <si>
+    <t>O4(1-O4)(Err6)(w46)</t>
+  </si>
+  <si>
+    <t>Old_w_+(learning rate)(Err4)(O1)</t>
+  </si>
+  <si>
+    <t>Old_w+(learning rate)(Err5)(O1)</t>
+  </si>
+  <si>
+    <t>Old_w+(learning rate)(Err4)(O2)</t>
+  </si>
+  <si>
+    <t>Old_w+(learning rate)(Err5)(O2)</t>
+  </si>
+  <si>
+    <t>Old_w+(learning rate)(Err4)(O3)</t>
+  </si>
+  <si>
+    <t>Old_w+(learning rate)(Err5)(O3)</t>
+  </si>
+  <si>
+    <t>Old_w+(learning rate)(Err6)(O4)</t>
+  </si>
+  <si>
+    <t>Old_w+(learning rate)(Err6)(O5)</t>
+  </si>
+  <si>
+    <t>Old_w+(learning rate)(Err4)</t>
+  </si>
+  <si>
+    <t>Old_w+(learning rate)(Err5)</t>
+  </si>
+  <si>
+    <t>Old_w+(learning rate)(Err6)</t>
+  </si>
+  <si>
+    <t>Eager</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>Drawback</t>
+  </si>
+  <si>
+    <t>Lazy</t>
+  </si>
+  <si>
+    <t>Genetic Algorithms</t>
+  </si>
+  <si>
+    <t>Rough Sets</t>
+  </si>
+  <si>
+    <t>Fuzzy Sets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast classification time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slow classification, need efficient data storage, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast training time, can represent Knn graphically in an easy to understand manner. Can have a more targeted view of the experiment space. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slow training time, can be hard to form a mental image of what exactly is happening. Must make a generalization of the entire experiment space. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Genetic algorithms try to incorporate evolutionary concepts, like crossover, fitness and population dynamics to see how the initial population changes over the course of time. 2. They could be useful to see how DNA from a population of individuals evolves over time without having to follow the population in real life. </t>
+  </si>
+  <si>
+    <t>1. Rough sets try to deterrmine groups with members that are roughly the same in most attributes. There is an upper and a lower approximation of the eqivalence, where the lower contains the data that is certain to be in the set and the upper is certainly outside of the set. 2. This would be useful to find underlying classes in data, like classifying consumers based on shopping habits</t>
+  </si>
+  <si>
+    <t>1. Fuzzy Sets work simiarlyly to rules based classifiers, however they allow each item to have a value between 0 and 1 with how much a item is in that category which allows distinction between hard lines. 2. this would be useful in buisness decisions where an exact value is not known, but general boundries are known.</t>
   </si>
 </sst>
 </file>
@@ -2404,7 +2500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2542,6 +2638,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2557,30 +2668,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12750,7 +12852,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{123B80AE-D5F9-4252-8696-B872F55F900B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13147,8 +13249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15102,10 +15204,10 @@
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B135" s="74" t="s">
+      <c r="B135" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="C135" s="74"/>
+      <c r="C135" s="81"/>
       <c r="G135" s="24" t="s">
         <v>466</v>
       </c>
@@ -15122,16 +15224,16 @@
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E138" s="74" t="s">
+      <c r="E138" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="F138" s="74"/>
+      <c r="F138" s="81"/>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G139" s="74" t="s">
+      <c r="G139" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="H139" s="74"/>
+      <c r="H139" s="81"/>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J140" s="72"/>
@@ -15139,19 +15241,19 @@
       <c r="L140" s="72"/>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J141" s="74" t="s">
+      <c r="J141" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="K141" s="74"/>
-      <c r="L141" s="74"/>
+      <c r="K141" s="81"/>
+      <c r="L141" s="81"/>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B171" s="74" t="s">
+      <c r="B171" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="C171" s="74"/>
-      <c r="D171" s="74"/>
-      <c r="E171" s="74"/>
+      <c r="C171" s="81"/>
+      <c r="D171" s="81"/>
+      <c r="E171" s="81"/>
       <c r="G171" s="45"/>
       <c r="H171" s="45"/>
     </row>
@@ -16444,10 +16546,10 @@
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
-      <c r="E68" s="76" t="s">
+      <c r="E68" s="83" t="s">
         <v>365</v>
       </c>
-      <c r="F68" s="76"/>
+      <c r="F68" s="83"/>
       <c r="G68" s="48">
         <f>-G67</f>
         <v>1.5566567074628228</v>
@@ -16474,13 +16576,13 @@
       <c r="D71" s="25"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="77" t="s">
+      <c r="A72" s="84" t="s">
         <v>366</v>
       </c>
-      <c r="B72" s="76"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76"/>
+      <c r="B72" s="83"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="83"/>
       <c r="F72" s="48">
         <f>D58/G68</f>
         <v>1.8772646222418671E-2</v>
@@ -16588,7 +16690,7 @@
       <c r="J6" t="s">
         <v>578</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="73" t="s">
         <v>579</v>
       </c>
     </row>
@@ -16599,7 +16701,7 @@
       <c r="J7" t="s">
         <v>577</v>
       </c>
-      <c r="K7" s="81" t="s">
+      <c r="K7" s="73" t="s">
         <v>580</v>
       </c>
     </row>
@@ -16630,7 +16732,7 @@
       <c r="N14" t="s">
         <v>581</v>
       </c>
-      <c r="O14" s="82" t="s">
+      <c r="O14" s="74" t="s">
         <v>582</v>
       </c>
       <c r="P14" t="s">
@@ -16650,7 +16752,7 @@
       <c r="N15" t="s">
         <v>585</v>
       </c>
-      <c r="O15" s="82" t="s">
+      <c r="O15" s="74" t="s">
         <v>350</v>
       </c>
       <c r="P15" t="s">
@@ -16667,7 +16769,7 @@
       <c r="N16" t="s">
         <v>585</v>
       </c>
-      <c r="O16" s="82" t="s">
+      <c r="O16" s="74" t="s">
         <v>587</v>
       </c>
       <c r="P16" t="s">
@@ -16687,7 +16789,7 @@
       <c r="N17" t="s">
         <v>585</v>
       </c>
-      <c r="O17" s="82" t="s">
+      <c r="O17" s="74" t="s">
         <v>587</v>
       </c>
       <c r="P17" t="s">
@@ -16707,7 +16809,7 @@
       <c r="N18" t="s">
         <v>589</v>
       </c>
-      <c r="O18" s="82" t="s">
+      <c r="O18" s="74" t="s">
         <v>587</v>
       </c>
       <c r="P18" t="s">
@@ -16727,7 +16829,7 @@
       <c r="N19" t="s">
         <v>589</v>
       </c>
-      <c r="O19" s="82" t="s">
+      <c r="O19" s="74" t="s">
         <v>350</v>
       </c>
       <c r="P19" t="s">
@@ -16747,7 +16849,7 @@
       <c r="N20" t="s">
         <v>589</v>
       </c>
-      <c r="O20" s="82" t="s">
+      <c r="O20" s="74" t="s">
         <v>587</v>
       </c>
       <c r="P20" t="s">
@@ -16767,7 +16869,7 @@
       <c r="N21" t="s">
         <v>589</v>
       </c>
-      <c r="O21" s="82" t="s">
+      <c r="O21" s="74" t="s">
         <v>350</v>
       </c>
       <c r="P21" t="s">
@@ -16787,7 +16889,7 @@
       <c r="N22" t="s">
         <v>594</v>
       </c>
-      <c r="O22" s="82" t="s">
+      <c r="O22" s="74" t="s">
         <v>350</v>
       </c>
       <c r="P22" t="s">
@@ -16804,7 +16906,7 @@
       <c r="N23" t="s">
         <v>594</v>
       </c>
-      <c r="O23" s="82" t="s">
+      <c r="O23" s="74" t="s">
         <v>587</v>
       </c>
       <c r="P23" t="s">
@@ -16824,7 +16926,7 @@
       <c r="N24" t="s">
         <v>595</v>
       </c>
-      <c r="O24" s="82" t="s">
+      <c r="O24" s="74" t="s">
         <v>350</v>
       </c>
       <c r="P24" t="s">
@@ -16844,7 +16946,7 @@
       <c r="N25" t="s">
         <v>595</v>
       </c>
-      <c r="O25" s="82" t="s">
+      <c r="O25" s="74" t="s">
         <v>587</v>
       </c>
       <c r="P25" t="s">
@@ -16960,7 +17062,7 @@
       <c r="N43" t="s">
         <v>581</v>
       </c>
-      <c r="O43" s="82" t="s">
+      <c r="O43" s="74" t="s">
         <v>582</v>
       </c>
       <c r="P43" t="s">
@@ -17003,7 +17105,7 @@
       <c r="N44" t="s">
         <v>585</v>
       </c>
-      <c r="O44" s="82" t="s">
+      <c r="O44" s="74" t="s">
         <v>350</v>
       </c>
       <c r="P44" t="s">
@@ -17046,7 +17148,7 @@
       <c r="N45" t="s">
         <v>585</v>
       </c>
-      <c r="O45" s="82" t="s">
+      <c r="O45" s="74" t="s">
         <v>587</v>
       </c>
       <c r="P45" t="s">
@@ -17089,7 +17191,7 @@
       <c r="N46" t="s">
         <v>585</v>
       </c>
-      <c r="O46" s="82" t="s">
+      <c r="O46" s="74" t="s">
         <v>587</v>
       </c>
       <c r="P46" t="s">
@@ -17132,7 +17234,7 @@
       <c r="N47" t="s">
         <v>589</v>
       </c>
-      <c r="O47" s="82" t="s">
+      <c r="O47" s="74" t="s">
         <v>587</v>
       </c>
       <c r="P47" t="s">
@@ -17146,14 +17248,14 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H48" s="83">
+      <c r="H48" s="75">
         <f>SUM(H44:H47)</f>
         <v>6.51811363767483E-2</v>
       </c>
       <c r="N48" t="s">
         <v>589</v>
       </c>
-      <c r="O48" s="82" t="s">
+      <c r="O48" s="74" t="s">
         <v>350</v>
       </c>
       <c r="P48" t="s">
@@ -17173,7 +17275,7 @@
       <c r="N49" t="s">
         <v>589</v>
       </c>
-      <c r="O49" s="82" t="s">
+      <c r="O49" s="74" t="s">
         <v>587</v>
       </c>
       <c r="P49" t="s">
@@ -17197,7 +17299,7 @@
       <c r="N50" t="s">
         <v>589</v>
       </c>
-      <c r="O50" s="82" t="s">
+      <c r="O50" s="74" t="s">
         <v>350</v>
       </c>
       <c r="P50" t="s">
@@ -17214,7 +17316,7 @@
       <c r="N51" t="s">
         <v>594</v>
       </c>
-      <c r="O51" s="82" t="s">
+      <c r="O51" s="74" t="s">
         <v>350</v>
       </c>
       <c r="P51" t="s">
@@ -17234,7 +17336,7 @@
       <c r="N52" t="s">
         <v>594</v>
       </c>
-      <c r="O52" s="82" t="s">
+      <c r="O52" s="74" t="s">
         <v>587</v>
       </c>
       <c r="P52" t="s">
@@ -17251,7 +17353,7 @@
       <c r="N53" t="s">
         <v>595</v>
       </c>
-      <c r="O53" s="82" t="s">
+      <c r="O53" s="74" t="s">
         <v>350</v>
       </c>
       <c r="P53" t="s">
@@ -17289,7 +17391,7 @@
       <c r="N54" t="s">
         <v>595</v>
       </c>
-      <c r="O54" s="82" t="s">
+      <c r="O54" s="74" t="s">
         <v>587</v>
       </c>
       <c r="P54" t="s">
@@ -18980,35 +19082,35 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>320</v>
       </c>
@@ -19019,7 +19121,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>135</v>
       </c>
@@ -19047,17 +19149,17 @@
       <c r="I7" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>1</v>
       </c>
@@ -19087,9 +19189,9 @@
         <f>E8/5</f>
         <v>0</v>
       </c>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="87"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="79"/>
       <c r="N8" s="34"/>
       <c r="O8" s="34"/>
       <c r="P8" s="34"/>
@@ -19097,7 +19199,7 @@
       <c r="R8" s="34"/>
       <c r="S8" s="34"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
         <v>2</v>
       </c>
@@ -19127,9 +19229,9 @@
         <f t="shared" ref="I9:I17" si="1">E9/5</f>
         <v>0.2</v>
       </c>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="87"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79"/>
       <c r="N9" s="34"/>
       <c r="O9" s="34"/>
       <c r="P9" s="34"/>
@@ -19137,7 +19239,7 @@
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
         <v>3</v>
       </c>
@@ -19167,9 +19269,9 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="87"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
       <c r="N10" s="34"/>
       <c r="O10" s="34"/>
       <c r="P10" s="34"/>
@@ -19177,7 +19279,7 @@
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
         <v>4</v>
       </c>
@@ -19207,9 +19309,9 @@
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="79"/>
       <c r="N11" s="34"/>
       <c r="O11" s="34"/>
       <c r="P11" s="34"/>
@@ -19217,7 +19319,7 @@
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>5</v>
       </c>
@@ -19247,9 +19349,9 @@
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="87"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="79"/>
       <c r="N12" s="34"/>
       <c r="O12" s="34"/>
       <c r="P12" s="34"/>
@@ -19257,7 +19359,7 @@
       <c r="R12" s="34"/>
       <c r="S12" s="34"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>6</v>
       </c>
@@ -19287,9 +19389,9 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="87"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="79"/>
       <c r="N13" s="34"/>
       <c r="O13" s="34"/>
       <c r="P13" s="34"/>
@@ -19297,7 +19399,7 @@
       <c r="R13" s="34"/>
       <c r="S13" s="34"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
         <v>7</v>
       </c>
@@ -19327,17 +19429,20 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="87"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="79"/>
       <c r="N14" s="34"/>
       <c r="O14" s="34"/>
       <c r="P14" s="34"/>
       <c r="Q14" s="34"/>
       <c r="R14" s="34"/>
       <c r="S14" s="34"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
         <v>8</v>
       </c>
@@ -19367,9 +19472,9 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="87"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="79"/>
       <c r="N15" s="34"/>
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
@@ -19377,7 +19482,7 @@
       <c r="R15" s="34"/>
       <c r="S15" s="34"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
         <v>9</v>
       </c>
@@ -19407,9 +19512,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="87"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="79"/>
       <c r="N16" s="34"/>
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
@@ -19447,9 +19552,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="87"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="79"/>
       <c r="N17" s="34"/>
       <c r="O17" s="34"/>
       <c r="P17" s="34"/>
@@ -19468,8 +19573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O79" sqref="O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19683,63 +19788,87 @@
       <c r="B50" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="78" t="s">
+      <c r="C50" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
       <c r="H50" s="26" t="s">
         <v>175</v>
       </c>
       <c r="I50" s="26"/>
-      <c r="J50" s="78" t="s">
+      <c r="J50" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="K50" s="78"/>
+      <c r="K50" s="86"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51" s="24">
         <v>4</v>
       </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
+      <c r="C51" s="85" t="s">
+        <v>610</v>
+      </c>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="87">
+        <f>(C30*C33)+(C31*C35)+(C32*C37)+C41</f>
+        <v>0.18429578846222006</v>
+      </c>
+      <c r="I51" s="87"/>
+      <c r="J51" s="87">
+        <f>1/(1+EXP(-H51))</f>
+        <v>0.54594398030078573</v>
+      </c>
+      <c r="K51" s="87"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B52" s="24">
         <v>5</v>
       </c>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="80"/>
+      <c r="C52" s="85" t="s">
+        <v>611</v>
+      </c>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="87">
+        <f>(C30*C34)+(C31*C36)+(C32*C38)+C42</f>
+        <v>-1.1775753115504134E-2</v>
+      </c>
+      <c r="I52" s="87"/>
+      <c r="J52" s="87">
+        <f t="shared" ref="J52:J53" si="0">1/(1+EXP(-H52))</f>
+        <v>0.49705609573991044</v>
+      </c>
+      <c r="K52" s="87"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53" s="24">
         <v>6</v>
       </c>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="80"/>
+      <c r="C53" s="85" t="s">
+        <v>612</v>
+      </c>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="87">
+        <f>(C39*J51)+(C40*J52)+C43</f>
+        <v>7.0480306746755206E-3</v>
+      </c>
+      <c r="I53" s="87"/>
+      <c r="J53" s="87">
+        <f t="shared" si="0"/>
+        <v>0.50176200037476626</v>
+      </c>
+      <c r="K53" s="87"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -19768,61 +19897,76 @@
       <c r="B61" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C61" s="78" t="s">
+      <c r="C61" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78" t="s">
+      <c r="D61" s="86"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="86"/>
+      <c r="I61" s="86"/>
+      <c r="J61" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="K61" s="78"/>
+      <c r="K61" s="86"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" s="24">
         <v>6</v>
       </c>
-      <c r="C62" s="79"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="79"/>
-      <c r="K62" s="79"/>
+      <c r="C62" s="85" t="s">
+        <v>613</v>
+      </c>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="85"/>
+      <c r="I62" s="85"/>
+      <c r="J62" s="85">
+        <f>J53*(1-J53)*(1-J53)</f>
+        <v>0.1245579530540343</v>
+      </c>
+      <c r="K62" s="85"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" s="24">
         <v>5</v>
       </c>
-      <c r="C63" s="79"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="79"/>
+      <c r="C63" s="85" t="s">
+        <v>614</v>
+      </c>
+      <c r="D63" s="85"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="85"/>
+      <c r="I63" s="85"/>
+      <c r="J63" s="85">
+        <f>J52*(1-J52)*(J62)*(C40)</f>
+        <v>-4.2978809729545603E-3</v>
+      </c>
+      <c r="K63" s="85"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="24">
         <v>4</v>
       </c>
-      <c r="C64" s="79"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79"/>
-      <c r="I64" s="79"/>
-      <c r="J64" s="79"/>
-      <c r="K64" s="79"/>
+      <c r="C64" s="85" t="s">
+        <v>615</v>
+      </c>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
+      <c r="I64" s="85"/>
+      <c r="J64" s="85">
+        <f>J51*(1-J51)*(J62)*(C39)</f>
+        <v>-8.053498878089713E-3</v>
+      </c>
+      <c r="K64" s="85"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
@@ -19860,19 +20004,19 @@
       <c r="C74" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D74" s="78" t="s">
+      <c r="D74" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="E74" s="78"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="78"/>
-      <c r="H74" s="78"/>
-      <c r="I74" s="78"/>
-      <c r="J74" s="78" t="s">
+      <c r="E74" s="86"/>
+      <c r="F74" s="86"/>
+      <c r="G74" s="86"/>
+      <c r="H74" s="86"/>
+      <c r="I74" s="86"/>
+      <c r="J74" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="K74" s="78"/>
-      <c r="L74" s="78"/>
+      <c r="K74" s="86"/>
+      <c r="L74" s="86"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B75" s="29" t="s">
@@ -19881,15 +20025,15 @@
       <c r="C75" s="24">
         <v>1</v>
       </c>
-      <c r="D75" s="79"/>
-      <c r="E75" s="79"/>
-      <c r="F75" s="79"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="79"/>
-      <c r="I75" s="79"/>
-      <c r="J75" s="79"/>
-      <c r="K75" s="79"/>
-      <c r="L75" s="79"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="85"/>
+      <c r="J75" s="85"/>
+      <c r="K75" s="85"/>
+      <c r="L75" s="85"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B76" s="29" t="s">
@@ -19898,15 +20042,15 @@
       <c r="C76" s="24">
         <v>1</v>
       </c>
-      <c r="D76" s="79"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="79"/>
-      <c r="H76" s="79"/>
-      <c r="I76" s="79"/>
-      <c r="J76" s="79"/>
-      <c r="K76" s="79"/>
-      <c r="L76" s="79"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="85"/>
+      <c r="F76" s="85"/>
+      <c r="G76" s="85"/>
+      <c r="H76" s="85"/>
+      <c r="I76" s="85"/>
+      <c r="J76" s="85"/>
+      <c r="K76" s="85"/>
+      <c r="L76" s="85"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B77" s="29" t="s">
@@ -19915,15 +20059,15 @@
       <c r="C77" s="24">
         <v>0</v>
       </c>
-      <c r="D77" s="79"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="79"/>
-      <c r="H77" s="79"/>
-      <c r="I77" s="79"/>
-      <c r="J77" s="79"/>
-      <c r="K77" s="79"/>
-      <c r="L77" s="79"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="85"/>
+      <c r="F77" s="85"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="85"/>
+      <c r="I77" s="85"/>
+      <c r="J77" s="85"/>
+      <c r="K77" s="85"/>
+      <c r="L77" s="85"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B78" s="29" t="s">
@@ -19932,15 +20076,20 @@
       <c r="C78" s="24">
         <v>0.19214789423111006</v>
       </c>
-      <c r="D78" s="79"/>
-      <c r="E78" s="79"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="79"/>
-      <c r="H78" s="79"/>
-      <c r="I78" s="79"/>
-      <c r="J78" s="79"/>
-      <c r="K78" s="79"/>
-      <c r="L78" s="79"/>
+      <c r="D78" s="85" t="s">
+        <v>616</v>
+      </c>
+      <c r="E78" s="85"/>
+      <c r="F78" s="85"/>
+      <c r="G78" s="85"/>
+      <c r="H78" s="85"/>
+      <c r="I78" s="85"/>
+      <c r="J78" s="85">
+        <f>C78+B70*J64*C75</f>
+        <v>0.18489974524082931</v>
+      </c>
+      <c r="K78" s="85"/>
+      <c r="L78" s="85"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B79" s="29" t="s">
@@ -19949,15 +20098,20 @@
       <c r="C79" s="24">
         <v>-0.30588787655775207</v>
       </c>
-      <c r="D79" s="79"/>
-      <c r="E79" s="79"/>
-      <c r="F79" s="79"/>
-      <c r="G79" s="79"/>
-      <c r="H79" s="79"/>
-      <c r="I79" s="79"/>
-      <c r="J79" s="79"/>
-      <c r="K79" s="79"/>
-      <c r="L79" s="79"/>
+      <c r="D79" s="85" t="s">
+        <v>617</v>
+      </c>
+      <c r="E79" s="85"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="85"/>
+      <c r="J79" s="85">
+        <f>C79+B70*J63*C75</f>
+        <v>-0.30975596943341116</v>
+      </c>
+      <c r="K79" s="85"/>
+      <c r="L79" s="85"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B80" s="29" t="s">
@@ -19966,15 +20120,20 @@
       <c r="C80" s="24">
         <v>0.4</v>
       </c>
-      <c r="D80" s="79"/>
-      <c r="E80" s="79"/>
-      <c r="F80" s="79"/>
-      <c r="G80" s="79"/>
-      <c r="H80" s="79"/>
-      <c r="I80" s="79"/>
-      <c r="J80" s="79"/>
-      <c r="K80" s="79"/>
-      <c r="L80" s="79"/>
+      <c r="D80" s="85" t="s">
+        <v>618</v>
+      </c>
+      <c r="E80" s="85"/>
+      <c r="F80" s="85"/>
+      <c r="G80" s="85"/>
+      <c r="H80" s="85"/>
+      <c r="I80" s="85"/>
+      <c r="J80" s="85">
+        <f>C80+B70*J64*C76</f>
+        <v>0.39275185100971927</v>
+      </c>
+      <c r="K80" s="85"/>
+      <c r="L80" s="85"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="29" t="s">
@@ -19983,15 +20142,20 @@
       <c r="C81" s="24">
         <v>0.1</v>
       </c>
-      <c r="D81" s="79"/>
-      <c r="E81" s="79"/>
-      <c r="F81" s="79"/>
-      <c r="G81" s="79"/>
-      <c r="H81" s="79"/>
-      <c r="I81" s="79"/>
-      <c r="J81" s="79"/>
-      <c r="K81" s="79"/>
-      <c r="L81" s="79"/>
+      <c r="D81" s="85" t="s">
+        <v>619</v>
+      </c>
+      <c r="E81" s="85"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="85"/>
+      <c r="I81" s="85"/>
+      <c r="J81" s="85">
+        <f>C81+B70*J63*C76</f>
+        <v>9.6131907124340901E-2</v>
+      </c>
+      <c r="K81" s="85"/>
+      <c r="L81" s="85"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="29" t="s">
@@ -20000,15 +20164,20 @@
       <c r="C82" s="24">
         <v>-0.50785210576888995</v>
       </c>
-      <c r="D82" s="79"/>
-      <c r="E82" s="79"/>
-      <c r="F82" s="79"/>
-      <c r="G82" s="79"/>
-      <c r="H82" s="79"/>
-      <c r="I82" s="79"/>
-      <c r="J82" s="79"/>
-      <c r="K82" s="79"/>
-      <c r="L82" s="79"/>
+      <c r="D82" s="85" t="s">
+        <v>620</v>
+      </c>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="85"/>
+      <c r="J82" s="85">
+        <f>C82+B70*J64*C77</f>
+        <v>-0.50785210576888995</v>
+      </c>
+      <c r="K82" s="85"/>
+      <c r="L82" s="85"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="29" t="s">
@@ -20017,15 +20186,20 @@
       <c r="C83" s="24">
         <v>0.19411212344224793</v>
       </c>
-      <c r="D83" s="79"/>
-      <c r="E83" s="79"/>
-      <c r="F83" s="79"/>
-      <c r="G83" s="79"/>
-      <c r="H83" s="79"/>
-      <c r="I83" s="79"/>
-      <c r="J83" s="79"/>
-      <c r="K83" s="79"/>
-      <c r="L83" s="79"/>
+      <c r="D83" s="85" t="s">
+        <v>621</v>
+      </c>
+      <c r="E83" s="85"/>
+      <c r="F83" s="85"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="85"/>
+      <c r="I83" s="85"/>
+      <c r="J83" s="85">
+        <f>C83+B70*J63*C77</f>
+        <v>0.19411212344224793</v>
+      </c>
+      <c r="K83" s="85"/>
+      <c r="L83" s="85"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="29" t="s">
@@ -20034,15 +20208,20 @@
       <c r="C84" s="24">
         <v>-0.26082884634154524</v>
       </c>
-      <c r="D84" s="79"/>
-      <c r="E84" s="79"/>
-      <c r="F84" s="79"/>
-      <c r="G84" s="79"/>
-      <c r="H84" s="79"/>
-      <c r="I84" s="79"/>
-      <c r="J84" s="79"/>
-      <c r="K84" s="79"/>
-      <c r="L84" s="79"/>
+      <c r="D84" s="85" t="s">
+        <v>622</v>
+      </c>
+      <c r="E84" s="85"/>
+      <c r="F84" s="85"/>
+      <c r="G84" s="85"/>
+      <c r="H84" s="85"/>
+      <c r="I84" s="85"/>
+      <c r="J84" s="85">
+        <f>C84+B70*J62*J51</f>
+        <v>-0.19962734813995114</v>
+      </c>
+      <c r="K84" s="85"/>
+      <c r="L84" s="85"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="29" t="s">
@@ -20051,15 +20230,20 @@
       <c r="C85" s="24">
         <v>-0.13802506750700472</v>
       </c>
-      <c r="D85" s="79"/>
-      <c r="E85" s="79"/>
-      <c r="F85" s="79"/>
-      <c r="G85" s="79"/>
-      <c r="H85" s="79"/>
-      <c r="I85" s="79"/>
-      <c r="J85" s="79"/>
-      <c r="K85" s="79"/>
-      <c r="L85" s="79"/>
+      <c r="D85" s="85" t="s">
+        <v>623</v>
+      </c>
+      <c r="E85" s="85"/>
+      <c r="F85" s="85"/>
+      <c r="G85" s="85"/>
+      <c r="H85" s="85"/>
+      <c r="I85" s="85"/>
+      <c r="J85" s="85">
+        <f>C85+B70*J62*J52</f>
+        <v>-8.2304006652450704E-2</v>
+      </c>
+      <c r="K85" s="85"/>
+      <c r="L85" s="85"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="30" t="s">
@@ -20068,15 +20252,20 @@
       <c r="C86" s="24">
         <v>-0.40785210576888997</v>
       </c>
-      <c r="D86" s="79"/>
-      <c r="E86" s="79"/>
-      <c r="F86" s="79"/>
-      <c r="G86" s="79"/>
-      <c r="H86" s="79"/>
-      <c r="I86" s="79"/>
-      <c r="J86" s="79"/>
-      <c r="K86" s="79"/>
-      <c r="L86" s="79"/>
+      <c r="D86" s="85" t="s">
+        <v>624</v>
+      </c>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="H86" s="85"/>
+      <c r="I86" s="85"/>
+      <c r="J86" s="85">
+        <f>C86+B70*J64</f>
+        <v>-0.41510025475917073</v>
+      </c>
+      <c r="K86" s="85"/>
+      <c r="L86" s="85"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="30" t="s">
@@ -20085,15 +20274,20 @@
       <c r="C87" s="24">
         <v>0.19411212344224793</v>
       </c>
-      <c r="D87" s="79"/>
-      <c r="E87" s="79"/>
-      <c r="F87" s="79"/>
-      <c r="G87" s="79"/>
-      <c r="H87" s="79"/>
-      <c r="I87" s="79"/>
-      <c r="J87" s="79"/>
-      <c r="K87" s="79"/>
-      <c r="L87" s="79"/>
+      <c r="D87" s="85" t="s">
+        <v>625</v>
+      </c>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="H87" s="85"/>
+      <c r="I87" s="85"/>
+      <c r="J87" s="85">
+        <f>C87+B70*J63</f>
+        <v>0.19024403056658884</v>
+      </c>
+      <c r="K87" s="85"/>
+      <c r="L87" s="85"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="30" t="s">
@@ -20102,52 +20296,23 @@
       <c r="C88" s="24">
         <v>0.21805217039291008</v>
       </c>
-      <c r="D88" s="79"/>
-      <c r="E88" s="79"/>
-      <c r="F88" s="79"/>
-      <c r="G88" s="79"/>
-      <c r="H88" s="79"/>
-      <c r="I88" s="79"/>
-      <c r="J88" s="79"/>
-      <c r="K88" s="79"/>
-      <c r="L88" s="79"/>
+      <c r="D88" s="85" t="s">
+        <v>626</v>
+      </c>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="85"/>
+      <c r="I88" s="85"/>
+      <c r="J88" s="85">
+        <f>C88+B70*J62</f>
+        <v>0.33015432814154094</v>
+      </c>
+      <c r="K88" s="85"/>
+      <c r="L88" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D87:I87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="D86:I86"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="J79:L79"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="J77:L77"/>
-    <mergeCell ref="C63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="C64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="J74:L74"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="C62:I62"/>
@@ -20163,6 +20328,40 @@
     <mergeCell ref="J53:K53"/>
     <mergeCell ref="C61:I61"/>
     <mergeCell ref="J61:K61"/>
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="J79:L79"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="D87:I87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="D86:I86"/>
+    <mergeCell ref="J86:L86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20172,30 +20371,340 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
+        <v>634</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89" t="s">
+        <v>637</v>
+      </c>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>628</v>
+      </c>
+      <c r="E8" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="89" t="s">
+        <v>636</v>
+      </c>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89" t="s">
+        <v>635</v>
+      </c>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="89"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="89"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>205</v>
       </c>
     </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="89" t="s">
+        <v>638</v>
+      </c>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="89"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="89"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="89"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="89" t="s">
+        <v>639</v>
+      </c>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="89"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="89"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="89"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="89" t="s">
+        <v>640</v>
+      </c>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="89"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="89"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="89"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="89"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+    </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A19:K22"/>
+    <mergeCell ref="A24:K27"/>
+    <mergeCell ref="A29:K33"/>
+    <mergeCell ref="A4:D6"/>
+    <mergeCell ref="E4:I6"/>
+    <mergeCell ref="A9:D12"/>
+    <mergeCell ref="E9:I12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20664,10 +21173,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="24"/>
-      <c r="L7" s="73" t="s">
+      <c r="L7" s="80" t="s">
         <v>396</v>
       </c>
-      <c r="M7" s="73"/>
+      <c r="M7" s="80"/>
     </row>
     <row r="8" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -20878,10 +21387,10 @@
       <c r="K16" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="L16" s="73" t="s">
+      <c r="L16" s="80" t="s">
         <v>410</v>
       </c>
-      <c r="M16" s="73"/>
+      <c r="M16" s="80"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -21228,11 +21737,11 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
       <c r="E13">
         <v>5</v>
       </c>
@@ -21241,11 +21750,11 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
       <c r="E14">
         <v>200</v>
       </c>
@@ -21254,11 +21763,11 @@
       <c r="A15" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="81" t="s">
         <v>411</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="57">
         <v>0.09</v>
       </c>
@@ -21267,11 +21776,11 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="81" t="s">
         <v>412</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
       <c r="E16">
         <v>0.86499999999999999</v>
       </c>
@@ -25125,15 +25634,15 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="82" t="s">
         <v>439</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">

--- a/COMP300-HomeworkProblems-SP20.xlsx
+++ b/COMP300-HomeworkProblems-SP20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benlo\DataMining2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2280527F-674F-46E8-B5A7-43FD9BFA535D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C37BC0-E20F-4420-B0CD-376120AAE4E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22515" yWindow="4005" windowWidth="2400" windowHeight="585" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW Index" sheetId="38" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="710">
   <si>
     <t>Mean</t>
   </si>
@@ -2147,6 +2147,213 @@
   </si>
   <si>
     <t>1. Fuzzy Sets work simiarlyly to rules based classifiers, however they allow each item to have a value between 0 and 1 with how much a item is in that category which allows distinction between hard lines. 2. this would be useful in buisness decisions where an exact value is not known, but general boundries are known.</t>
+  </si>
+  <si>
+    <t>partitioning methods</t>
+  </si>
+  <si>
+    <t>heirarchical methods</t>
+  </si>
+  <si>
+    <t>deinsity based methods</t>
+  </si>
+  <si>
+    <t>grid based methods</t>
+  </si>
+  <si>
+    <t>Describe</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>creates a k number of sets and then moves items from one to the other to improve the clusters until the parameters given are met.</t>
+  </si>
+  <si>
+    <t>starts with all items in one set, and the iteratively splits items into k number of clusters, or works in the reverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">help determine non-circular clusters, focused on a numeric measure of density such as count. </t>
+  </si>
+  <si>
+    <t>items are placed in a grid of cells, and because of this structure has a fast processing time</t>
+  </si>
+  <si>
+    <t>k-means</t>
+  </si>
+  <si>
+    <t>agglomerative and Divisive, AGNES DIANA</t>
+  </si>
+  <si>
+    <t>DBSCAN</t>
+  </si>
+  <si>
+    <t>STING</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>Centers</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>New Means</t>
+  </si>
+  <si>
+    <t>1x</t>
+  </si>
+  <si>
+    <t>1y</t>
+  </si>
+  <si>
+    <t>2x</t>
+  </si>
+  <si>
+    <t>2y</t>
+  </si>
+  <si>
+    <t>3x</t>
+  </si>
+  <si>
+    <t>3y</t>
+  </si>
+  <si>
+    <t>New Mean</t>
+  </si>
+  <si>
+    <t>Final Clusters</t>
+  </si>
+  <si>
+    <t>Disadvantage</t>
+  </si>
+  <si>
+    <t>Kmeans</t>
+  </si>
+  <si>
+    <t>Kmedioids</t>
+  </si>
+  <si>
+    <t>Kmean/medioids</t>
+  </si>
+  <si>
+    <t>Heirarch</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Why</t>
+  </si>
+  <si>
+    <t>Modifications</t>
+  </si>
+  <si>
+    <t>Shapes Determined</t>
+  </si>
+  <si>
+    <t>Input params</t>
+  </si>
+  <si>
+    <t>Limitations</t>
+  </si>
+  <si>
+    <t>kmeans</t>
+  </si>
+  <si>
+    <t>kmedoids</t>
+  </si>
+  <si>
+    <t>CLARA</t>
+  </si>
+  <si>
+    <t>BIRCH</t>
+  </si>
+  <si>
+    <t>CHAMELEON</t>
+  </si>
+  <si>
+    <t>Less affected by outliers</t>
+  </si>
+  <si>
+    <t>More computationally expensive</t>
+  </si>
+  <si>
+    <t>Less computationally expensive</t>
+  </si>
+  <si>
+    <t>can be affected by outliers</t>
+  </si>
+  <si>
+    <t>Slower with large datasets</t>
+  </si>
+  <si>
+    <t>because start is random, running multiple times can give different results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Works well on cirular shaped data </t>
+  </si>
+  <si>
+    <t>Do not need to know number of clusters at the start</t>
+  </si>
+  <si>
+    <t>Clusters typically are spherical where OPTICS can form non spherical boudnries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use smaller clusters that can be merged into larger clusters </t>
+  </si>
+  <si>
+    <t>Spherical</t>
+  </si>
+  <si>
+    <t>not garunteed to find global max, good on spherical data</t>
+  </si>
+  <si>
+    <t>n num clusters,dataset to be clustered</t>
+  </si>
+  <si>
+    <t>slower than k-means</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only a sample evalutated not full dataset </t>
+  </si>
+  <si>
+    <t>data to be clustered</t>
+  </si>
+  <si>
+    <t>limited to spherical groups, O(n) so can be slow on large datasets</t>
+  </si>
+  <si>
+    <t>Arbitrary shape</t>
+  </si>
+  <si>
+    <t>e- neighborhood around each data point, and minimum number of points around the eps</t>
+  </si>
+  <si>
+    <t>either O(nlogn) at best or O(n^2) at worst which can be slow</t>
+  </si>
+  <si>
+    <t>O(n^2) large computationally cost</t>
+  </si>
+  <si>
+    <t>The dataset to be clustered</t>
   </si>
 </sst>
 </file>
@@ -2500,7 +2707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2653,6 +2860,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2668,20 +2878,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15204,10 +15414,10 @@
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B135" s="81" t="s">
+      <c r="B135" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="C135" s="81"/>
+      <c r="C135" s="82"/>
       <c r="G135" s="24" t="s">
         <v>466</v>
       </c>
@@ -15224,16 +15434,16 @@
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E138" s="81" t="s">
+      <c r="E138" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="F138" s="81"/>
+      <c r="F138" s="82"/>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G139" s="81" t="s">
+      <c r="G139" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="H139" s="81"/>
+      <c r="H139" s="82"/>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J140" s="72"/>
@@ -15241,19 +15451,19 @@
       <c r="L140" s="72"/>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J141" s="81" t="s">
+      <c r="J141" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="K141" s="81"/>
-      <c r="L141" s="81"/>
+      <c r="K141" s="82"/>
+      <c r="L141" s="82"/>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B171" s="81" t="s">
+      <c r="B171" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="C171" s="81"/>
-      <c r="D171" s="81"/>
-      <c r="E171" s="81"/>
+      <c r="C171" s="82"/>
+      <c r="D171" s="82"/>
+      <c r="E171" s="82"/>
       <c r="G171" s="45"/>
       <c r="H171" s="45"/>
     </row>
@@ -16546,10 +16756,10 @@
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
-      <c r="E68" s="83" t="s">
+      <c r="E68" s="84" t="s">
         <v>365</v>
       </c>
-      <c r="F68" s="83"/>
+      <c r="F68" s="84"/>
       <c r="G68" s="48">
         <f>-G67</f>
         <v>1.5566567074628228</v>
@@ -16576,13 +16786,13 @@
       <c r="D71" s="25"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="84" t="s">
+      <c r="A72" s="85" t="s">
         <v>366</v>
       </c>
-      <c r="B72" s="83"/>
-      <c r="C72" s="83"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="83"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
       <c r="F72" s="48">
         <f>D58/G68</f>
         <v>1.8772646222418671E-2</v>
@@ -19808,67 +20018,67 @@
       <c r="B51" s="24">
         <v>4</v>
       </c>
-      <c r="C51" s="85" t="s">
+      <c r="C51" s="87" t="s">
         <v>610</v>
       </c>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="87">
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="88">
         <f>(C30*C33)+(C31*C35)+(C32*C37)+C41</f>
         <v>0.18429578846222006</v>
       </c>
-      <c r="I51" s="87"/>
-      <c r="J51" s="87">
+      <c r="I51" s="88"/>
+      <c r="J51" s="88">
         <f>1/(1+EXP(-H51))</f>
         <v>0.54594398030078573</v>
       </c>
-      <c r="K51" s="87"/>
+      <c r="K51" s="88"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B52" s="24">
         <v>5</v>
       </c>
-      <c r="C52" s="85" t="s">
+      <c r="C52" s="87" t="s">
         <v>611</v>
       </c>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="87">
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="88">
         <f>(C30*C34)+(C31*C36)+(C32*C38)+C42</f>
         <v>-1.1775753115504134E-2</v>
       </c>
-      <c r="I52" s="87"/>
-      <c r="J52" s="87">
+      <c r="I52" s="88"/>
+      <c r="J52" s="88">
         <f t="shared" ref="J52:J53" si="0">1/(1+EXP(-H52))</f>
         <v>0.49705609573991044</v>
       </c>
-      <c r="K52" s="87"/>
+      <c r="K52" s="88"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53" s="24">
         <v>6</v>
       </c>
-      <c r="C53" s="85" t="s">
+      <c r="C53" s="87" t="s">
         <v>612</v>
       </c>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="87">
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="88">
         <f>(C39*J51)+(C40*J52)+C43</f>
         <v>7.0480306746755206E-3</v>
       </c>
-      <c r="I53" s="87"/>
-      <c r="J53" s="87">
+      <c r="I53" s="88"/>
+      <c r="J53" s="88">
         <f t="shared" si="0"/>
         <v>0.50176200037476626</v>
       </c>
-      <c r="K53" s="87"/>
+      <c r="K53" s="88"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -19915,58 +20125,58 @@
       <c r="B62" s="24">
         <v>6</v>
       </c>
-      <c r="C62" s="85" t="s">
+      <c r="C62" s="87" t="s">
         <v>613</v>
       </c>
-      <c r="D62" s="85"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="85"/>
-      <c r="H62" s="85"/>
-      <c r="I62" s="85"/>
-      <c r="J62" s="85">
+      <c r="D62" s="87"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="87"/>
+      <c r="G62" s="87"/>
+      <c r="H62" s="87"/>
+      <c r="I62" s="87"/>
+      <c r="J62" s="87">
         <f>J53*(1-J53)*(1-J53)</f>
         <v>0.1245579530540343</v>
       </c>
-      <c r="K62" s="85"/>
+      <c r="K62" s="87"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" s="24">
         <v>5</v>
       </c>
-      <c r="C63" s="85" t="s">
+      <c r="C63" s="87" t="s">
         <v>614</v>
       </c>
-      <c r="D63" s="85"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="85"/>
-      <c r="I63" s="85"/>
-      <c r="J63" s="85">
+      <c r="D63" s="87"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="87"/>
+      <c r="G63" s="87"/>
+      <c r="H63" s="87"/>
+      <c r="I63" s="87"/>
+      <c r="J63" s="87">
         <f>J52*(1-J52)*(J62)*(C40)</f>
         <v>-4.2978809729545603E-3</v>
       </c>
-      <c r="K63" s="85"/>
+      <c r="K63" s="87"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="24">
         <v>4</v>
       </c>
-      <c r="C64" s="85" t="s">
+      <c r="C64" s="87" t="s">
         <v>615</v>
       </c>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="85"/>
-      <c r="I64" s="85"/>
-      <c r="J64" s="85">
+      <c r="D64" s="87"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="87"/>
+      <c r="H64" s="87"/>
+      <c r="I64" s="87"/>
+      <c r="J64" s="87">
         <f>J51*(1-J51)*(J62)*(C39)</f>
         <v>-8.053498878089713E-3</v>
       </c>
-      <c r="K64" s="85"/>
+      <c r="K64" s="87"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
@@ -20025,15 +20235,15 @@
       <c r="C75" s="24">
         <v>1</v>
       </c>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="85"/>
-      <c r="J75" s="85"/>
-      <c r="K75" s="85"/>
-      <c r="L75" s="85"/>
+      <c r="D75" s="87"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="87"/>
+      <c r="G75" s="87"/>
+      <c r="H75" s="87"/>
+      <c r="I75" s="87"/>
+      <c r="J75" s="87"/>
+      <c r="K75" s="87"/>
+      <c r="L75" s="87"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B76" s="29" t="s">
@@ -20042,15 +20252,15 @@
       <c r="C76" s="24">
         <v>1</v>
       </c>
-      <c r="D76" s="85"/>
-      <c r="E76" s="85"/>
-      <c r="F76" s="85"/>
-      <c r="G76" s="85"/>
-      <c r="H76" s="85"/>
-      <c r="I76" s="85"/>
-      <c r="J76" s="85"/>
-      <c r="K76" s="85"/>
-      <c r="L76" s="85"/>
+      <c r="D76" s="87"/>
+      <c r="E76" s="87"/>
+      <c r="F76" s="87"/>
+      <c r="G76" s="87"/>
+      <c r="H76" s="87"/>
+      <c r="I76" s="87"/>
+      <c r="J76" s="87"/>
+      <c r="K76" s="87"/>
+      <c r="L76" s="87"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B77" s="29" t="s">
@@ -20059,15 +20269,15 @@
       <c r="C77" s="24">
         <v>0</v>
       </c>
-      <c r="D77" s="85"/>
-      <c r="E77" s="85"/>
-      <c r="F77" s="85"/>
-      <c r="G77" s="85"/>
-      <c r="H77" s="85"/>
-      <c r="I77" s="85"/>
-      <c r="J77" s="85"/>
-      <c r="K77" s="85"/>
-      <c r="L77" s="85"/>
+      <c r="D77" s="87"/>
+      <c r="E77" s="87"/>
+      <c r="F77" s="87"/>
+      <c r="G77" s="87"/>
+      <c r="H77" s="87"/>
+      <c r="I77" s="87"/>
+      <c r="J77" s="87"/>
+      <c r="K77" s="87"/>
+      <c r="L77" s="87"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B78" s="29" t="s">
@@ -20076,20 +20286,20 @@
       <c r="C78" s="24">
         <v>0.19214789423111006</v>
       </c>
-      <c r="D78" s="85" t="s">
+      <c r="D78" s="87" t="s">
         <v>616</v>
       </c>
-      <c r="E78" s="85"/>
-      <c r="F78" s="85"/>
-      <c r="G78" s="85"/>
-      <c r="H78" s="85"/>
-      <c r="I78" s="85"/>
-      <c r="J78" s="85">
+      <c r="E78" s="87"/>
+      <c r="F78" s="87"/>
+      <c r="G78" s="87"/>
+      <c r="H78" s="87"/>
+      <c r="I78" s="87"/>
+      <c r="J78" s="87">
         <f>C78+B70*J64*C75</f>
         <v>0.18489974524082931</v>
       </c>
-      <c r="K78" s="85"/>
-      <c r="L78" s="85"/>
+      <c r="K78" s="87"/>
+      <c r="L78" s="87"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B79" s="29" t="s">
@@ -20098,20 +20308,20 @@
       <c r="C79" s="24">
         <v>-0.30588787655775207</v>
       </c>
-      <c r="D79" s="85" t="s">
+      <c r="D79" s="87" t="s">
         <v>617</v>
       </c>
-      <c r="E79" s="85"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="85"/>
-      <c r="H79" s="85"/>
-      <c r="I79" s="85"/>
-      <c r="J79" s="85">
+      <c r="E79" s="87"/>
+      <c r="F79" s="87"/>
+      <c r="G79" s="87"/>
+      <c r="H79" s="87"/>
+      <c r="I79" s="87"/>
+      <c r="J79" s="87">
         <f>C79+B70*J63*C75</f>
         <v>-0.30975596943341116</v>
       </c>
-      <c r="K79" s="85"/>
-      <c r="L79" s="85"/>
+      <c r="K79" s="87"/>
+      <c r="L79" s="87"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B80" s="29" t="s">
@@ -20120,20 +20330,20 @@
       <c r="C80" s="24">
         <v>0.4</v>
       </c>
-      <c r="D80" s="85" t="s">
+      <c r="D80" s="87" t="s">
         <v>618</v>
       </c>
-      <c r="E80" s="85"/>
-      <c r="F80" s="85"/>
-      <c r="G80" s="85"/>
-      <c r="H80" s="85"/>
-      <c r="I80" s="85"/>
-      <c r="J80" s="85">
+      <c r="E80" s="87"/>
+      <c r="F80" s="87"/>
+      <c r="G80" s="87"/>
+      <c r="H80" s="87"/>
+      <c r="I80" s="87"/>
+      <c r="J80" s="87">
         <f>C80+B70*J64*C76</f>
         <v>0.39275185100971927</v>
       </c>
-      <c r="K80" s="85"/>
-      <c r="L80" s="85"/>
+      <c r="K80" s="87"/>
+      <c r="L80" s="87"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="29" t="s">
@@ -20142,20 +20352,20 @@
       <c r="C81" s="24">
         <v>0.1</v>
       </c>
-      <c r="D81" s="85" t="s">
+      <c r="D81" s="87" t="s">
         <v>619</v>
       </c>
-      <c r="E81" s="85"/>
-      <c r="F81" s="85"/>
-      <c r="G81" s="85"/>
-      <c r="H81" s="85"/>
-      <c r="I81" s="85"/>
-      <c r="J81" s="85">
+      <c r="E81" s="87"/>
+      <c r="F81" s="87"/>
+      <c r="G81" s="87"/>
+      <c r="H81" s="87"/>
+      <c r="I81" s="87"/>
+      <c r="J81" s="87">
         <f>C81+B70*J63*C76</f>
         <v>9.6131907124340901E-2</v>
       </c>
-      <c r="K81" s="85"/>
-      <c r="L81" s="85"/>
+      <c r="K81" s="87"/>
+      <c r="L81" s="87"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="29" t="s">
@@ -20164,20 +20374,20 @@
       <c r="C82" s="24">
         <v>-0.50785210576888995</v>
       </c>
-      <c r="D82" s="85" t="s">
+      <c r="D82" s="87" t="s">
         <v>620</v>
       </c>
-      <c r="E82" s="85"/>
-      <c r="F82" s="85"/>
-      <c r="G82" s="85"/>
-      <c r="H82" s="85"/>
-      <c r="I82" s="85"/>
-      <c r="J82" s="85">
+      <c r="E82" s="87"/>
+      <c r="F82" s="87"/>
+      <c r="G82" s="87"/>
+      <c r="H82" s="87"/>
+      <c r="I82" s="87"/>
+      <c r="J82" s="87">
         <f>C82+B70*J64*C77</f>
         <v>-0.50785210576888995</v>
       </c>
-      <c r="K82" s="85"/>
-      <c r="L82" s="85"/>
+      <c r="K82" s="87"/>
+      <c r="L82" s="87"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="29" t="s">
@@ -20186,20 +20396,20 @@
       <c r="C83" s="24">
         <v>0.19411212344224793</v>
       </c>
-      <c r="D83" s="85" t="s">
+      <c r="D83" s="87" t="s">
         <v>621</v>
       </c>
-      <c r="E83" s="85"/>
-      <c r="F83" s="85"/>
-      <c r="G83" s="85"/>
-      <c r="H83" s="85"/>
-      <c r="I83" s="85"/>
-      <c r="J83" s="85">
+      <c r="E83" s="87"/>
+      <c r="F83" s="87"/>
+      <c r="G83" s="87"/>
+      <c r="H83" s="87"/>
+      <c r="I83" s="87"/>
+      <c r="J83" s="87">
         <f>C83+B70*J63*C77</f>
         <v>0.19411212344224793</v>
       </c>
-      <c r="K83" s="85"/>
-      <c r="L83" s="85"/>
+      <c r="K83" s="87"/>
+      <c r="L83" s="87"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="29" t="s">
@@ -20208,20 +20418,20 @@
       <c r="C84" s="24">
         <v>-0.26082884634154524</v>
       </c>
-      <c r="D84" s="85" t="s">
+      <c r="D84" s="87" t="s">
         <v>622</v>
       </c>
-      <c r="E84" s="85"/>
-      <c r="F84" s="85"/>
-      <c r="G84" s="85"/>
-      <c r="H84" s="85"/>
-      <c r="I84" s="85"/>
-      <c r="J84" s="85">
+      <c r="E84" s="87"/>
+      <c r="F84" s="87"/>
+      <c r="G84" s="87"/>
+      <c r="H84" s="87"/>
+      <c r="I84" s="87"/>
+      <c r="J84" s="87">
         <f>C84+B70*J62*J51</f>
         <v>-0.19962734813995114</v>
       </c>
-      <c r="K84" s="85"/>
-      <c r="L84" s="85"/>
+      <c r="K84" s="87"/>
+      <c r="L84" s="87"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="29" t="s">
@@ -20230,20 +20440,20 @@
       <c r="C85" s="24">
         <v>-0.13802506750700472</v>
       </c>
-      <c r="D85" s="85" t="s">
+      <c r="D85" s="87" t="s">
         <v>623</v>
       </c>
-      <c r="E85" s="85"/>
-      <c r="F85" s="85"/>
-      <c r="G85" s="85"/>
-      <c r="H85" s="85"/>
-      <c r="I85" s="85"/>
-      <c r="J85" s="85">
+      <c r="E85" s="87"/>
+      <c r="F85" s="87"/>
+      <c r="G85" s="87"/>
+      <c r="H85" s="87"/>
+      <c r="I85" s="87"/>
+      <c r="J85" s="87">
         <f>C85+B70*J62*J52</f>
         <v>-8.2304006652450704E-2</v>
       </c>
-      <c r="K85" s="85"/>
-      <c r="L85" s="85"/>
+      <c r="K85" s="87"/>
+      <c r="L85" s="87"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="30" t="s">
@@ -20252,20 +20462,20 @@
       <c r="C86" s="24">
         <v>-0.40785210576888997</v>
       </c>
-      <c r="D86" s="85" t="s">
+      <c r="D86" s="87" t="s">
         <v>624</v>
       </c>
-      <c r="E86" s="85"/>
-      <c r="F86" s="85"/>
-      <c r="G86" s="85"/>
-      <c r="H86" s="85"/>
-      <c r="I86" s="85"/>
-      <c r="J86" s="85">
+      <c r="E86" s="87"/>
+      <c r="F86" s="87"/>
+      <c r="G86" s="87"/>
+      <c r="H86" s="87"/>
+      <c r="I86" s="87"/>
+      <c r="J86" s="87">
         <f>C86+B70*J64</f>
         <v>-0.41510025475917073</v>
       </c>
-      <c r="K86" s="85"/>
-      <c r="L86" s="85"/>
+      <c r="K86" s="87"/>
+      <c r="L86" s="87"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="30" t="s">
@@ -20274,20 +20484,20 @@
       <c r="C87" s="24">
         <v>0.19411212344224793</v>
       </c>
-      <c r="D87" s="85" t="s">
+      <c r="D87" s="87" t="s">
         <v>625</v>
       </c>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="85"/>
-      <c r="H87" s="85"/>
-      <c r="I87" s="85"/>
-      <c r="J87" s="85">
+      <c r="E87" s="87"/>
+      <c r="F87" s="87"/>
+      <c r="G87" s="87"/>
+      <c r="H87" s="87"/>
+      <c r="I87" s="87"/>
+      <c r="J87" s="87">
         <f>C87+B70*J63</f>
         <v>0.19024403056658884</v>
       </c>
-      <c r="K87" s="85"/>
-      <c r="L87" s="85"/>
+      <c r="K87" s="87"/>
+      <c r="L87" s="87"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="30" t="s">
@@ -20296,23 +20506,57 @@
       <c r="C88" s="24">
         <v>0.21805217039291008</v>
       </c>
-      <c r="D88" s="85" t="s">
+      <c r="D88" s="87" t="s">
         <v>626</v>
       </c>
-      <c r="E88" s="85"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="85"/>
-      <c r="I88" s="85"/>
-      <c r="J88" s="85">
+      <c r="E88" s="87"/>
+      <c r="F88" s="87"/>
+      <c r="G88" s="87"/>
+      <c r="H88" s="87"/>
+      <c r="I88" s="87"/>
+      <c r="J88" s="87">
         <f>C88+B70*J62</f>
         <v>0.33015432814154094</v>
       </c>
-      <c r="K88" s="85"/>
-      <c r="L88" s="85"/>
+      <c r="K88" s="87"/>
+      <c r="L88" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="D87:I87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="D86:I86"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="J79:L79"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="J74:L74"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="C62:I62"/>
@@ -20328,40 +20572,6 @@
     <mergeCell ref="J53:K53"/>
     <mergeCell ref="C61:I61"/>
     <mergeCell ref="J61:K61"/>
-    <mergeCell ref="C63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="C64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="J74:L74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="J77:L77"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="J79:L79"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="D87:I87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="D86:I86"/>
-    <mergeCell ref="J86:L86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20373,8 +20583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20398,12 +20608,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="90" t="s">
         <v>634</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="89" t="s">
         <v>637</v>
       </c>
@@ -20413,10 +20623,10 @@
       <c r="I4" s="89"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="89"/>
       <c r="F5" s="89"/>
       <c r="G5" s="89"/>
@@ -20424,10 +20634,10 @@
       <c r="I5" s="89"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
       <c r="E6" s="89"/>
       <c r="F6" s="89"/>
       <c r="G6" s="89"/>
@@ -20712,20 +20922,27 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>375</v>
       </c>
@@ -20733,7 +20950,1645 @@
         <v>204</v>
       </c>
     </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10.1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>645</v>
+      </c>
+      <c r="D6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>641</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>647</v>
+      </c>
+      <c r="D7" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>642</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>648</v>
+      </c>
+      <c r="D8" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>643</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>649</v>
+      </c>
+      <c r="D9" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>644</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>650</v>
+      </c>
+      <c r="D10" t="s">
+        <v>654</v>
+      </c>
+      <c r="F10" t="s">
+        <v>662</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B12" t="s">
+        <v>656</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f>SQRT((L13-C12)^2+(M13-D12)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>SQRT((P13-C12)^2+(Q13-D12)^2)</f>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="H12">
+        <f>SQRT((T13-C12)^2+(U13-D12)^2)</f>
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="I12">
+        <f>MIN(F12:H12)</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>655</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <f>SQRT((L13-C13)^2+(M13-D13)^2)</f>
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <f>SQRT((P13-C13)^2+(Q13-D13)^2)</f>
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="H13" s="41">
+        <f>SQRT((T13-C13)^2+(U13-D13)^2)</f>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:I19" si="0">MIN(F13:H13)</f>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="K13" s="42" t="s">
+        <v>656</v>
+      </c>
+      <c r="L13" s="42">
+        <v>2</v>
+      </c>
+      <c r="M13" s="42">
+        <v>10</v>
+      </c>
+      <c r="O13" t="s">
+        <v>658</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>8</v>
+      </c>
+      <c r="S13" t="s">
+        <v>468</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>657</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f>SQRT((L13-C14)^2+(M13-D14)^2)</f>
+        <v>8.4852813742385695</v>
+      </c>
+      <c r="G14" s="41">
+        <f>SQRT((P13-C14)^2+(Q13-D14)^2)</f>
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <f>SQRT((T13-C14)^2+(U13-D14)^2)</f>
+        <v>7.2801098892805181</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>658</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <f>SQRT((L13-C15)^2+(M13-D15)^2)</f>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="G15">
+        <f>SQRT((P13-C15)^2+(Q13-D15)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>SQRT((T13-C15)^2+(U13-D15)^2)</f>
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>657</v>
+      </c>
+      <c r="P15">
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s">
+        <v>655</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>659</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f>SQRT((L13-C16)^2+(M13-D16)^2)</f>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="G16" s="41">
+        <f>SQRT((P13-C16)^2+(Q13-D16)^2)</f>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="H16">
+        <f>SQRT((T13-C16)^2+(U13-D16)^2)</f>
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="O16" t="s">
+        <v>659</v>
+      </c>
+      <c r="P16">
+        <v>7</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>660</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <f>SQRT((L13-C17)^2+(M13-D17)^2)</f>
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="G17" s="41">
+        <f>SQRT((P13-C17)^2+(Q13-D17)^2)</f>
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="H17">
+        <f>SQRT((T13-C17)^2+(U13-D17)^2)</f>
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="O17" t="s">
+        <v>660</v>
+      </c>
+      <c r="P17">
+        <v>6</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>468</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <f>SQRT((L13-C18)^2+(M13-D18)^2)</f>
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="G18">
+        <f>SQRT((P13-C18)^2+(Q13-D18)^2)</f>
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="H18">
+        <f>SQRT((T13-C18)^2+(U13-D18)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>470</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="Q18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>470</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <f>SQRT((L13-C19)^2+(M13-D19)^2)</f>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="G19" s="41">
+        <f>SQRT((P13-C19)^2+(Q13-D19)^2)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H19">
+        <f>SQRT((T13-C19)^2+(U13-D19)^2)</f>
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>662</v>
+      </c>
+      <c r="K21" t="s">
+        <v>663</v>
+      </c>
+      <c r="L21" t="s">
+        <v>664</v>
+      </c>
+      <c r="M21" t="s">
+        <v>665</v>
+      </c>
+      <c r="P21" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>667</v>
+      </c>
+      <c r="T21" t="s">
+        <v>668</v>
+      </c>
+      <c r="U21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <f>AVERAGE(L13)*1</f>
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <f>AVERAGE(M13)</f>
+        <v>10</v>
+      </c>
+      <c r="P22">
+        <f>AVERAGE(P13:P18)</f>
+        <v>6</v>
+      </c>
+      <c r="Q22">
+        <f>AVERAGE(Q13:Q18)</f>
+        <v>6</v>
+      </c>
+      <c r="T22">
+        <f>AVERAGE(T13:T15)</f>
+        <v>1.5</v>
+      </c>
+      <c r="U22">
+        <f>AVERAGE(U13:U15)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>656</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="F23" s="41">
+        <f>SQRT((L22-C23)^2+(M22-D23)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>SQRT((P22-C23)^2+(Q22-D23)^2)</f>
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="H23">
+        <f>SQRT((T22-C23)^2+(U22-D23)^2)</f>
+        <v>6.5192024052026492</v>
+      </c>
+      <c r="I23">
+        <f>MIN(F23:H23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>655</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <f>SQRT((L22-C24)^2+(M22-D24)^2)</f>
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <f>SQRT((P22-C24)^2+(Q22-D24)^2)</f>
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="H24" s="41">
+        <f>SQRT((T22-C24)^2+(U22-D24)^2)</f>
+        <v>1.5811388300841898</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I30" si="1">MIN(F24:H24)</f>
+        <v>1.5811388300841898</v>
+      </c>
+      <c r="K24" t="s">
+        <v>656</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>10</v>
+      </c>
+      <c r="O24" t="s">
+        <v>657</v>
+      </c>
+      <c r="P24">
+        <v>8</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s">
+        <v>655</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>657</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <f>SQRT((L22-C25)^2+(M22-D25)^2)</f>
+        <v>8.4852813742385695</v>
+      </c>
+      <c r="G25" s="41">
+        <f>SQRT((P22-C25)^2+(Q22-D25)^2)</f>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="H25">
+        <f>SQRT((T22-C25)^2+(U22-D25)^2)</f>
+        <v>6.5192024052026492</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="K25" t="s">
+        <v>470</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>9</v>
+      </c>
+      <c r="O25" t="s">
+        <v>658</v>
+      </c>
+      <c r="P25">
+        <v>5</v>
+      </c>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+      <c r="S25" t="s">
+        <v>468</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>658</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <f>SQRT((L22-C26)^2+(M22-D26)^2)</f>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="G26" s="41">
+        <f>SQRT((P22-C26)^2+(Q22-D26)^2)</f>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H26">
+        <f>SQRT((T22-C26)^2+(U22-D26)^2)</f>
+        <v>5.7008771254956896</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="O26" t="s">
+        <v>659</v>
+      </c>
+      <c r="P26">
+        <v>7</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>659</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <f>SQRT((L22-C27)^2+(M22-D27)^2)</f>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="G27" s="41">
+        <f>SQRT((P22-C27)^2+(Q22-D27)^2)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H27">
+        <f>SQRT((T22-C27)^2+(U22-D27)^2)</f>
+        <v>5.7008771254956896</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="O27" t="s">
+        <v>660</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>660</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <f>SQRT((L22-C28)^2+(M22-D28)^2)</f>
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="G28" s="41">
+        <f>SQRT((P22-C28)^2+(Q22-D28)^2)</f>
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <f>SQRT((T22-C28)^2+(U22-D28)^2)</f>
+        <v>4.5276925690687087</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>468</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <f>SQRT((L22-C29)^2+(M22-D29)^2)</f>
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="G29">
+        <f>SQRT((P22-C29)^2+(Q22-D29)^2)</f>
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="H29" s="41">
+        <f>SQRT((T22-C29)^2+(U22-D29)^2)</f>
+        <v>1.5811388300841898</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>1.5811388300841898</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>470</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="F30" s="41">
+        <f>SQRT((L22-C30)^2+(M22-D30)^2)</f>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="G30">
+        <f>SQRT((P22-C30)^2+(Q22-D30)^2)</f>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="H30">
+        <f>SQRT((T22-C30)^2+(U22-D30)^2)</f>
+        <v>6.0415229867972862</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>662</v>
+      </c>
+      <c r="K32" t="s">
+        <v>670</v>
+      </c>
+      <c r="L32">
+        <f>AVERAGE(L24:L29)</f>
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <f>AVERAGE(M24:M29)</f>
+        <v>9.5</v>
+      </c>
+      <c r="P32">
+        <f>AVERAGE(P24:P29)</f>
+        <v>6.5</v>
+      </c>
+      <c r="Q32">
+        <f>AVERAGE(Q24:Q29)</f>
+        <v>5.25</v>
+      </c>
+      <c r="T32">
+        <f>AVERAGE(T24:T29)</f>
+        <v>1.5</v>
+      </c>
+      <c r="U32">
+        <f>AVERAGE(U24:U29)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>656</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="F34" s="41">
+        <f>SQRT((L32-C34)^2+(M32-D34)^2)</f>
+        <v>1.1180339887498949</v>
+      </c>
+      <c r="G34" s="25">
+        <f>SQRT((P32-C34)^2+(Q32-D34)^2)</f>
+        <v>6.5431261641512002</v>
+      </c>
+      <c r="H34" s="25">
+        <f>SQRT((T32-C34)^2+(U32-D34)^2)</f>
+        <v>6.5192024052026492</v>
+      </c>
+      <c r="I34">
+        <f>MIN(F34:H34)</f>
+        <v>1.1180339887498949</v>
+      </c>
+      <c r="K34" t="s">
+        <v>656</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>10</v>
+      </c>
+      <c r="O34" t="s">
+        <v>657</v>
+      </c>
+      <c r="P34">
+        <v>8</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s">
+        <v>655</v>
+      </c>
+      <c r="T34">
+        <v>2</v>
+      </c>
+      <c r="U34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>655</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="F35" s="25">
+        <f>SQRT((L32-C35)^2+(M32-D35)^2)</f>
+        <v>4.6097722286464435</v>
+      </c>
+      <c r="G35" s="25">
+        <f>SQRT((P32-C35)^2+(Q32-D35)^2)</f>
+        <v>4.5069390943299865</v>
+      </c>
+      <c r="H35" s="41">
+        <f>SQRT((T32-C35)^2+(U32-D35)^2)</f>
+        <v>1.5811388300841898</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35:I41" si="2">MIN(F35:H35)</f>
+        <v>1.5811388300841898</v>
+      </c>
+      <c r="K35" t="s">
+        <v>658</v>
+      </c>
+      <c r="L35">
+        <v>5</v>
+      </c>
+      <c r="M35">
+        <v>8</v>
+      </c>
+      <c r="O35" t="s">
+        <v>659</v>
+      </c>
+      <c r="P35">
+        <v>7</v>
+      </c>
+      <c r="Q35">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s">
+        <v>468</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>657</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="F36" s="25">
+        <f>SQRT((L32-C36)^2+(M32-D36)^2)</f>
+        <v>7.433034373659253</v>
+      </c>
+      <c r="G36" s="41">
+        <f>SQRT((P32-C36)^2+(Q32-D36)^2)</f>
+        <v>1.9525624189766635</v>
+      </c>
+      <c r="H36" s="25">
+        <f>SQRT((T32-C36)^2+(U32-D36)^2)</f>
+        <v>6.5192024052026492</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>1.9525624189766635</v>
+      </c>
+      <c r="K36" t="s">
+        <v>470</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>9</v>
+      </c>
+      <c r="O36" t="s">
+        <v>660</v>
+      </c>
+      <c r="P36">
+        <v>6</v>
+      </c>
+      <c r="Q36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>658</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="F37" s="41">
+        <f>SQRT((L32-C37)^2+(M32-D37)^2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G37" s="25">
+        <f>SQRT((P32-C37)^2+(Q32-D37)^2)</f>
+        <v>3.1324910215354169</v>
+      </c>
+      <c r="H37" s="25">
+        <f>SQRT((T32-C37)^2+(U32-D37)^2)</f>
+        <v>5.7008771254956896</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>659</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="F38" s="25">
+        <f>SQRT((L32-C38)^2+(M32-D38)^2)</f>
+        <v>6.0207972893961479</v>
+      </c>
+      <c r="G38" s="41">
+        <f>SQRT((P32-C38)^2+(Q32-D38)^2)</f>
+        <v>0.55901699437494745</v>
+      </c>
+      <c r="H38" s="25">
+        <f>SQRT((T32-C38)^2+(U32-D38)^2)</f>
+        <v>5.7008771254956896</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>0.55901699437494745</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>660</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="F39" s="25">
+        <f>SQRT((L32-C39)^2+(M32-D39)^2)</f>
+        <v>6.2649820430708338</v>
+      </c>
+      <c r="G39" s="41">
+        <f>SQRT((P32-C39)^2+(Q32-D39)^2)</f>
+        <v>1.3462912017836259</v>
+      </c>
+      <c r="H39" s="25">
+        <f>SQRT((T32-C39)^2+(U32-D39)^2)</f>
+        <v>4.5276925690687087</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>1.3462912017836259</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>468</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="F40" s="25">
+        <f>SQRT((L32-C40)^2+(M32-D40)^2)</f>
+        <v>7.7620873481300121</v>
+      </c>
+      <c r="G40" s="25">
+        <f>SQRT((P32-C40)^2+(Q32-D40)^2)</f>
+        <v>6.3884661695903189</v>
+      </c>
+      <c r="H40" s="41">
+        <f>SQRT((T32-C40)^2+(U32-D40)^2)</f>
+        <v>1.5811388300841898</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>1.5811388300841898</v>
+      </c>
+      <c r="K40" t="s">
+        <v>670</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>470</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
+      <c r="F41" s="41">
+        <f>SQRT((L32-C41)^2+(M32-D41)^2)</f>
+        <v>1.1180339887498949</v>
+      </c>
+      <c r="G41" s="25">
+        <f>SQRT((P32-C41)^2+(Q32-D41)^2)</f>
+        <v>4.5069390943299865</v>
+      </c>
+      <c r="H41" s="25">
+        <f>SQRT((T32-C41)^2+(U32-D41)^2)</f>
+        <v>6.0415229867972862</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>1.1180339887498949</v>
+      </c>
+      <c r="L41">
+        <f>AVERAGE(L33:L38)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="M41">
+        <f>AVERAGE(M33:M38)</f>
+        <v>9</v>
+      </c>
+      <c r="P41">
+        <f>AVERAGE(P33:P38)</f>
+        <v>7</v>
+      </c>
+      <c r="Q41">
+        <f>AVERAGE(Q33:Q38)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="T41">
+        <f>AVERAGE(T33:T38)</f>
+        <v>1.5</v>
+      </c>
+      <c r="U41">
+        <f>AVERAGE(U33:U38)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>662</v>
+      </c>
+      <c r="K43" s="82" t="s">
+        <v>671</v>
+      </c>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="82"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="82"/>
+      <c r="R43" s="82"/>
+      <c r="S43" s="82"/>
+      <c r="T43" s="82"/>
+      <c r="U43" s="82"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="L44" s="24">
+        <v>1</v>
+      </c>
+      <c r="P44" s="24">
+        <v>2</v>
+      </c>
+      <c r="T44" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>656</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="F45" s="41">
+        <f>SQRT((L41-C45)^2+(M41-D45)^2)</f>
+        <v>1.9436506316151001</v>
+      </c>
+      <c r="G45" s="25">
+        <f>SQRT((P41-C45)^2+(Q41-D45)^2)</f>
+        <v>7.5571893658364226</v>
+      </c>
+      <c r="H45" s="25">
+        <f>SQRT((T41-C45)^2+(U41-D45)^2)</f>
+        <v>6.5192024052026492</v>
+      </c>
+      <c r="I45">
+        <f>MIN(F45:H45)</f>
+        <v>1.9436506316151001</v>
+      </c>
+      <c r="K45" s="24" t="s">
+        <v>656</v>
+      </c>
+      <c r="L45" s="24">
+        <v>2</v>
+      </c>
+      <c r="M45" s="24">
+        <v>10</v>
+      </c>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24" t="s">
+        <v>657</v>
+      </c>
+      <c r="P45" s="24">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="24">
+        <v>4</v>
+      </c>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="T45" s="24">
+        <v>2</v>
+      </c>
+      <c r="U45" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>655</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="F46" s="25">
+        <f>SQRT((L41-C46)^2+(M41-D46)^2)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G46" s="25">
+        <f>SQRT((P41-C46)^2+(Q41-D46)^2)</f>
+        <v>5.0442486501405188</v>
+      </c>
+      <c r="H46" s="41">
+        <f>SQRT((T41-C46)^2+(U41-D46)^2)</f>
+        <v>1.5811388300841898</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ref="I46:I52" si="3">MIN(F46:H46)</f>
+        <v>1.5811388300841898</v>
+      </c>
+      <c r="K46" s="24" t="s">
+        <v>658</v>
+      </c>
+      <c r="L46" s="24">
+        <v>5</v>
+      </c>
+      <c r="M46" s="24">
+        <v>8</v>
+      </c>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="P46" s="24">
+        <v>7</v>
+      </c>
+      <c r="Q46" s="24">
+        <v>5</v>
+      </c>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="T46" s="24">
+        <v>1</v>
+      </c>
+      <c r="U46" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>657</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="F47" s="25">
+        <f>SQRT((L41-C47)^2+(M41-D47)^2)</f>
+        <v>6.6164777470930698</v>
+      </c>
+      <c r="G47" s="41">
+        <f>SQRT((P41-C47)^2+(Q41-D47)^2)</f>
+        <v>1.0540925533894596</v>
+      </c>
+      <c r="H47" s="25">
+        <f>SQRT((T41-C47)^2+(U41-D47)^2)</f>
+        <v>6.5192024052026492</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>1.0540925533894596</v>
+      </c>
+      <c r="K47" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="L47" s="24">
+        <v>4</v>
+      </c>
+      <c r="M47" s="24">
+        <v>9</v>
+      </c>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24" t="s">
+        <v>660</v>
+      </c>
+      <c r="P47" s="24">
+        <v>6</v>
+      </c>
+      <c r="Q47" s="24">
+        <v>4</v>
+      </c>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>658</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="F48" s="41">
+        <f>SQRT((L41-C48)^2+(M41-D48)^2)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G48" s="25">
+        <f>SQRT((P41-C48)^2+(Q41-D48)^2)</f>
+        <v>4.1766546953805559</v>
+      </c>
+      <c r="H48" s="25">
+        <f>SQRT((T41-C48)^2+(U41-D48)^2)</f>
+        <v>5.7008771254956896</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>659</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="F49" s="25">
+        <f>SQRT((L41-C49)^2+(M41-D49)^2)</f>
+        <v>5.2068331172711035</v>
+      </c>
+      <c r="G49" s="41">
+        <f>SQRT((P41-C49)^2+(Q41-D49)^2)</f>
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H49" s="25">
+        <f>SQRT((T41-C49)^2+(U41-D49)^2)</f>
+        <v>5.7008771254956896</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>660</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="F50" s="25">
+        <f>SQRT((L41-C50)^2+(M41-D50)^2)</f>
+        <v>5.5176484524156164</v>
+      </c>
+      <c r="G50" s="41">
+        <f>SQRT((P41-C50)^2+(Q41-D50)^2)</f>
+        <v>1.0540925533894596</v>
+      </c>
+      <c r="H50" s="25">
+        <f>SQRT((T41-C50)^2+(U41-D50)^2)</f>
+        <v>4.5276925690687087</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>1.0540925533894596</v>
+      </c>
+      <c r="K50" t="s">
+        <v>670</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>468</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="F51" s="25">
+        <f>SQRT((L41-C51)^2+(M41-D51)^2)</f>
+        <v>7.490735018081411</v>
+      </c>
+      <c r="G51" s="25">
+        <f>SQRT((P41-C51)^2+(Q41-D51)^2)</f>
+        <v>6.4377359719426552</v>
+      </c>
+      <c r="H51" s="41">
+        <f>SQRT((T41-C51)^2+(U41-D51)^2)</f>
+        <v>1.5811388300841898</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>1.5811388300841898</v>
+      </c>
+      <c r="L51">
+        <f>AVERAGE(L43:L48)</f>
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <f>AVERAGE(M43:M48)</f>
+        <v>9</v>
+      </c>
+      <c r="P51">
+        <f>AVERAGE(P43:P48)</f>
+        <v>5.75</v>
+      </c>
+      <c r="Q51">
+        <f>AVERAGE(Q43:Q48)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="T51">
+        <f>AVERAGE(T43:T48)</f>
+        <v>2</v>
+      </c>
+      <c r="U51">
+        <f>AVERAGE(U43:U48)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>470</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="F52" s="41">
+        <f>SQRT((L41-C52)^2+(M41-D52)^2)</f>
+        <v>0.33333333333333348</v>
+      </c>
+      <c r="G52" s="25">
+        <f>SQRT((P41-C52)^2+(Q41-D52)^2)</f>
+        <v>5.5477723256977463</v>
+      </c>
+      <c r="H52" s="25">
+        <f>SQRT((T41-C52)^2+(U41-D52)^2)</f>
+        <v>6.0415229867972862</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>10.6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>677</v>
+      </c>
+      <c r="C55" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>673</v>
+      </c>
+      <c r="B56" s="80" t="s">
+        <v>690</v>
+      </c>
+      <c r="C56" s="80" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>674</v>
+      </c>
+      <c r="B57" s="80" t="s">
+        <v>688</v>
+      </c>
+      <c r="C57" s="80" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>675</v>
+      </c>
+      <c r="B60" s="80" t="s">
+        <v>694</v>
+      </c>
+      <c r="C60" s="80" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>676</v>
+      </c>
+      <c r="B61" s="80" t="s">
+        <v>695</v>
+      </c>
+      <c r="C61" s="80" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>678</v>
+      </c>
+      <c r="C67" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B69" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="C69" s="80" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>10.16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>680</v>
+      </c>
+      <c r="C73" t="s">
+        <v>681</v>
+      </c>
+      <c r="D73" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>683</v>
+      </c>
+      <c r="B74" t="s">
+        <v>698</v>
+      </c>
+      <c r="C74" s="80" t="s">
+        <v>700</v>
+      </c>
+      <c r="D74" s="80" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>684</v>
+      </c>
+      <c r="B75" t="s">
+        <v>698</v>
+      </c>
+      <c r="C75" s="80" t="s">
+        <v>700</v>
+      </c>
+      <c r="D75" s="80" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>685</v>
+      </c>
+      <c r="B76" t="s">
+        <v>698</v>
+      </c>
+      <c r="C76" s="80" t="s">
+        <v>700</v>
+      </c>
+      <c r="D76" s="80" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>686</v>
+      </c>
+      <c r="B77" t="s">
+        <v>698</v>
+      </c>
+      <c r="C77" s="80" t="s">
+        <v>703</v>
+      </c>
+      <c r="D77" s="80" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>687</v>
+      </c>
+      <c r="B78" t="s">
+        <v>705</v>
+      </c>
+      <c r="C78" s="80" t="s">
+        <v>709</v>
+      </c>
+      <c r="D78" s="80" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>653</v>
+      </c>
+      <c r="B79" t="s">
+        <v>705</v>
+      </c>
+      <c r="C79" s="80" t="s">
+        <v>706</v>
+      </c>
+      <c r="D79" s="80" t="s">
+        <v>707</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K43:U43"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -21173,10 +23028,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="24"/>
-      <c r="L7" s="80" t="s">
+      <c r="L7" s="81" t="s">
         <v>396</v>
       </c>
-      <c r="M7" s="80"/>
+      <c r="M7" s="81"/>
     </row>
     <row r="8" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -21387,10 +23242,10 @@
       <c r="K16" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="L16" s="80" t="s">
+      <c r="L16" s="81" t="s">
         <v>410</v>
       </c>
-      <c r="M16" s="80"/>
+      <c r="M16" s="81"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -21737,11 +23592,11 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
       <c r="E13">
         <v>5</v>
       </c>
@@ -21750,11 +23605,11 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
       <c r="E14">
         <v>200</v>
       </c>
@@ -21763,11 +23618,11 @@
       <c r="A15" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="82" t="s">
         <v>411</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
       <c r="E15" s="57">
         <v>0.09</v>
       </c>
@@ -21776,11 +23631,11 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="82" t="s">
         <v>412</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
       <c r="E16">
         <v>0.86499999999999999</v>
       </c>
@@ -25634,15 +27489,15 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="83" t="s">
         <v>439</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
